--- a/excel/TimeTeamEpisodes.xlsx
+++ b/excel/TimeTeamEpisodes.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\paul\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68C48482-4807-433D-8AD1-14BC606257DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C582540-92CF-4DF2-9A10-88998F71F01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{94DB4B2F-D836-4CC0-91B0-1E9890F34FAF}"/>
+    <workbookView xWindow="-17640" yWindow="-2625" windowWidth="17280" windowHeight="13590" xr2:uid="{94DB4B2F-D836-4CC0-91B0-1E9890F34FAF}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1630" uniqueCount="1434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1658" uniqueCount="1433">
   <si>
     <t>Location</t>
   </si>
@@ -178,9 +178,6 @@
     <t>Basing House, Hampshire</t>
   </si>
   <si>
-    <t>English Civil War</t>
-  </si>
-  <si>
     <t>Flag Fen, Cambridgeshire</t>
   </si>
   <si>
@@ -202,9 +199,6 @@
     <t>Normanton, Lincolnshire</t>
   </si>
   <si>
-    <t>Anglo-Saxon, Bronze Age</t>
-  </si>
-  <si>
     <t>Alderton, Northamptonshire</t>
   </si>
   <si>
@@ -262,9 +256,6 @@
     <t>Kinlochbervie, Sutherland</t>
   </si>
   <si>
-    <t>Tudor</t>
-  </si>
-  <si>
     <t>Chicksands, Bedfordshire</t>
   </si>
   <si>
@@ -316,15 +307,9 @@
     <t>Bath, Somerset</t>
   </si>
   <si>
-    <t>Anglo-Saxon, Iron Age, Viking</t>
-  </si>
-  <si>
     <t>Kew Gardens, London</t>
   </si>
   <si>
-    <t>Georgian</t>
-  </si>
-  <si>
     <t>Leven, Fife</t>
   </si>
   <si>
@@ -340,9 +325,6 @@
     <t>Appleby-in-Westmorland, Cumbria</t>
   </si>
   <si>
-    <t>19th century – Victorian</t>
-  </si>
-  <si>
     <t>Syon House, London</t>
   </si>
   <si>
@@ -3246,9 +3228,6 @@
     <t>Medieval;Islamic</t>
   </si>
   <si>
-    <t>Iron Age;Medieval;Neolithic</t>
-  </si>
-  <si>
     <t>50.778998°N 1.741021°E</t>
   </si>
   <si>
@@ -3615,9 +3594,6 @@
     <t>51.737413°N 1.035237°W</t>
   </si>
   <si>
-    <t>Tudor; Georgian</t>
-  </si>
-  <si>
     <t>The owners of Rycote House live in a lovely converted stable block, but they believe that the extremely grand house that once stood on the property and which hosted Tudor royalty burned down in 1745, and they want Time Team to investigate. In the trenches, no evidence of burning is found, but it seems that grand houses were built and rebuilt on the site from the 14th century through the Georgian era. Finds include a drainage tunnel dating from Capability Brown's landscaping work on the property. Historian Robin Bush returns from the Bodelian Library with an extraordinary catalogue from 1807, which details the sale of the grand house room by room. In nearby Thane, a townhouse contains a fireplace and doorways that possibly come from the sale. Food Historian Ivan Day cooks and serves sweetmeats and hippocras. Palace expert Simon Thurley joins the Team.</t>
   </si>
   <si>
@@ -3680,15 +3656,6 @@
   </si>
   <si>
     <t>Roman; Medieval</t>
-  </si>
-  <si>
-    <t>16C; 17C</t>
-  </si>
-  <si>
-    <t>14C</t>
-  </si>
-  <si>
-    <t>English Civil War; Medieval</t>
   </si>
   <si>
     <t>51.485502°N 0.127807°W</t>
@@ -4275,9 +4242,6 @@
   </si>
   <si>
     <t>Tony Robinson and the team visit Chenies Manor which is believed to have been upgraded in time for Henry VIII's visit around 1530. However, while a late 16th-century inventory suggests that an additional range of rooms fit for a king once existed, traces of them have vanished since the house fell into disrepair. Can the experts uncover the layout of the building as it appeared in Tudor times?</t>
-  </si>
-  <si>
-    <t>16C</t>
   </si>
   <si>
     <t>The villagers of Nether Poppleton, near York, join Tony Robinson and the team for some extensive digging as they try to determine the exact age of their village. The current layout follows a typical medieval pattern but a reference to the village in the Domesday Book has the experts thinking that it could date back to Saxon times at least.</t>
@@ -5061,9 +5025,6 @@
     <t>But has 18th-century quarrying destroyed all meaninful evidence? Ben Robinson supervises this dig in the absence of Mick Aston. The end results are shown to the appreciative villagers.</t>
   </si>
   <si>
-    <t>18C</t>
-  </si>
-  <si>
     <t>Needless to say Stewart doesn't think so. He is going with a much earlier cross-ridge dyke. To prove it one way or the other they need dateable finds. But the dig is hampered by torrential rain. Despite this they uncover a huge, magnificent ditch, which must have been dug by thousands of people during the Iron Age. The team are joined by historian Bettany Hughes, Hereford county archaeologist Keith Ray and environmental archaeologist Mike Allen.</t>
   </si>
   <si>
@@ -5186,9 +5147,6 @@
     <t>Tony and the Team visit Newmarket, the birthplace of horseracing, in search of the earliest archaeological traces of the sport of kings. They dig in the heart of the historic town, in search of the remains of King Charles II's racing stables - arguably the world's first stables dedicated to racing. Bone specialist Jackie McKinley talks about horse skeletons with Christopher Garibaldi at the National Horseracing Museum.</t>
   </si>
   <si>
-    <t>17C</t>
-  </si>
-  <si>
     <r>
       <t>Tony leads the Team to the village of Beadnell on a beautiful stretch of the Northumbrian coast, to explore an unusual promontory, from which mysterious fragments of human bone have emerged over recent years. The team are joined by Anglo-Saxon historian Sam Newton, vicar Jane Wood and small finds expert Danielle Wootton.</t>
     </r>
@@ -6663,9 +6621,6 @@
     <t>50.6959454,-3.8135611</t>
   </si>
   <si>
-    <t>20C</t>
-  </si>
-  <si>
     <r>
       <t>Robinson learns that there are gaps in historians' knowledge of the rituals, death rites and beliefs from around 2500BC, when Neolithic Britain entered the Bronze Age.</t>
     </r>
@@ -6751,6 +6706,48 @@
   </si>
   <si>
     <t>54.2117709,-0.4735169;51.5505137,-2.9440484;51.1333459,-1.5421095;51.6193365,-2.8194495;53.3726379,-1.2450779;54.4772986,-1.4089582;51.4886581,-3.2829951</t>
+  </si>
+  <si>
+    <t>14th C</t>
+  </si>
+  <si>
+    <t>16th C</t>
+  </si>
+  <si>
+    <t>16th C; 17th C</t>
+  </si>
+  <si>
+    <t>17th C</t>
+  </si>
+  <si>
+    <t>18th C</t>
+  </si>
+  <si>
+    <t>20th C</t>
+  </si>
+  <si>
+    <t>Church;14th C</t>
+  </si>
+  <si>
+    <t>13th C</t>
+  </si>
+  <si>
+    <t>Church;Medieval</t>
+  </si>
+  <si>
+    <t>Church; Norman</t>
+  </si>
+  <si>
+    <t>Iron Age; Medieval; Neolithic</t>
+  </si>
+  <si>
+    <t>Civil War; Medieval</t>
+  </si>
+  <si>
+    <t>Anglo-Saxon; Iron Age; Viking</t>
+  </si>
+  <si>
+    <t>19th C</t>
   </si>
 </sst>
 </file>
@@ -6758,7 +6755,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -6859,10 +6856,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6895,15 +6892,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <fill>
@@ -6913,6 +6920,16 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -6931,27 +6948,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="[$-809]dd\ mmmm\ yyyy;@"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -7014,15 +7010,15 @@
     <tableColumn id="1" xr3:uid="{29E92BBA-49D5-457C-BDF0-E1B348E5FFD1}" name="Episode" dataDxfId="9"/>
     <tableColumn id="2" xr3:uid="{AA7C8FB4-2CDF-4DA9-B461-AF94A910AA28}" name="Series" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{9FE086AE-CAB1-454D-8D1D-F565601186CE}" name="SeriesEpisode" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{85F439C3-7FDB-4DAC-BD2B-248ED754AD45}" name="Code" dataDxfId="3">
-      <calculatedColumnFormula>"S" &amp; B2 &amp; " E" &amp; C2</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{85F439C3-7FDB-4DAC-BD2B-248ED754AD45}" name="Code" dataDxfId="0">
+      <calculatedColumnFormula>"S" &amp; B2 &amp; "E" &amp; C2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{FA009D6F-1F8E-4214-81DC-7DA135A046B2}" name="Title" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{44D4090C-BEB8-4F0C-AFFA-0C715AE07C95}" name="LongTitle" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{3CA60686-F8EC-41A2-B287-F5E1EE65322A}" name="Location" dataDxfId="6"/>
-    <tableColumn id="10" xr3:uid="{940566B4-76AE-43A3-BEC3-118C41865F5A}" name="Coordinates" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{E1F9549C-F435-41A5-818D-BEA695426200}" name="Period" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{1C518CCE-1858-4D24-9D98-80652FCADDA4}" name="Airdate" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{FA009D6F-1F8E-4214-81DC-7DA135A046B2}" name="Title" dataDxfId="6"/>
+    <tableColumn id="9" xr3:uid="{44D4090C-BEB8-4F0C-AFFA-0C715AE07C95}" name="LongTitle" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{3CA60686-F8EC-41A2-B287-F5E1EE65322A}" name="Location" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{940566B4-76AE-43A3-BEC3-118C41865F5A}" name="Coordinates" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{E1F9549C-F435-41A5-818D-BEA695426200}" name="Period" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{1C518CCE-1858-4D24-9D98-80652FCADDA4}" name="Airdate" dataDxfId="1"/>
     <tableColumn id="11" xr3:uid="{E30135F2-51A4-4AB2-A691-59D61D714EDB}" name="Youtube"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -7328,8 +7324,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC144CE-2B7E-40D8-982A-296610E77151}">
   <dimension ref="A1:K282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B267" workbookViewId="0">
-      <selection activeCell="H269" sqref="H269"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="F63" sqref="F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7347,37 +7343,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="D1" s="9" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="E1" s="9" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="H1" s="4" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="K1" t="s">
-        <v>1092</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -7391,22 +7387,24 @@
         <v>0</v>
       </c>
       <c r="D2" s="10" t="str">
-        <f>"S" &amp; B2 &amp; " E" &amp; C2</f>
-        <v>S0 E0</v>
+        <f t="shared" ref="D2:D65" si="0">"S" &amp; B2 &amp; "E" &amp; C2</f>
+        <v>S0E0</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="H2" s="22" t="s">
-        <v>548</v>
-      </c>
-      <c r="I2" s="17"/>
+        <v>542</v>
+      </c>
+      <c r="I2" s="17" t="s">
+        <v>1425</v>
+      </c>
       <c r="J2" s="11"/>
     </row>
     <row r="3" spans="1:11" ht="117" x14ac:dyDescent="0.3">
@@ -7420,24 +7418,26 @@
         <v>1</v>
       </c>
       <c r="D3" s="10" t="str">
-        <f t="shared" ref="D3:D66" si="0">"S" &amp; B3 &amp; " E" &amp; C3</f>
-        <v>S1 E1</v>
+        <f t="shared" si="0"/>
+        <v>S1E1</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="G3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="H3" s="22" t="s">
-        <v>550</v>
-      </c>
-      <c r="I3" s="17"/>
+        <v>544</v>
+      </c>
+      <c r="I3" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J3" s="14" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
     </row>
     <row r="4" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -7452,23 +7452,25 @@
       </c>
       <c r="D4" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S1 E2</v>
+        <v>S1E2</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="G4" s="5" t="s">
         <v>3</v>
       </c>
       <c r="H4" s="22" t="s">
-        <v>552</v>
-      </c>
-      <c r="I4" s="17"/>
+        <v>546</v>
+      </c>
+      <c r="I4" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J4" s="14" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="100.8" x14ac:dyDescent="0.3">
@@ -7483,25 +7485,25 @@
       </c>
       <c r="D5" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S1 E3</v>
+        <v>S1E3</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="G5" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H5" s="22" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="I5" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J5" s="14" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
     </row>
     <row r="6" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -7516,23 +7518,25 @@
       </c>
       <c r="D6" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S1 E4</v>
+        <v>S1E4</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>5</v>
       </c>
       <c r="H6" s="22" t="s">
-        <v>557</v>
-      </c>
-      <c r="I6" s="17"/>
+        <v>551</v>
+      </c>
+      <c r="I6" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J6" s="14" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
     </row>
     <row r="7" spans="1:11" ht="129.6" x14ac:dyDescent="0.3">
@@ -7547,23 +7551,25 @@
       </c>
       <c r="D7" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S2 E1</v>
+        <v>S2E1</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G7" s="5" t="s">
         <v>6</v>
       </c>
       <c r="H7" s="22" t="s">
-        <v>559</v>
-      </c>
-      <c r="I7" s="17"/>
+        <v>553</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>1104</v>
+      </c>
       <c r="J7" s="14" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="331.2" x14ac:dyDescent="0.3">
@@ -7578,23 +7584,25 @@
       </c>
       <c r="D8" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S2 E2</v>
+        <v>S2E2</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="G8" s="5" t="s">
         <v>7</v>
       </c>
       <c r="H8" s="22" t="s">
-        <v>560</v>
-      </c>
-      <c r="I8" s="17"/>
+        <v>554</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>1127</v>
+      </c>
       <c r="J8" s="14" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
     </row>
     <row r="9" spans="1:11" ht="144" x14ac:dyDescent="0.3">
@@ -7609,23 +7617,23 @@
       </c>
       <c r="D9" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S2 E3</v>
+        <v>S2E3</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="G9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="H9" s="22" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="I9" s="17"/>
       <c r="J9" s="14" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
     </row>
     <row r="10" spans="1:11" ht="144" x14ac:dyDescent="0.3">
@@ -7640,23 +7648,23 @@
       </c>
       <c r="D10" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S2 E4</v>
+        <v>S2E4</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="G10" s="5" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="22" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="I10" s="17"/>
       <c r="J10" s="14" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="145.80000000000001" x14ac:dyDescent="0.3">
@@ -7671,25 +7679,25 @@
       </c>
       <c r="D11" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S2 E5</v>
+        <v>S2E5</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="G11" s="5" t="s">
         <v>10</v>
       </c>
       <c r="H11" s="22" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="I11" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J11" s="14" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
     </row>
     <row r="12" spans="1:11" ht="304.2" x14ac:dyDescent="0.3">
@@ -7704,25 +7712,25 @@
       </c>
       <c r="D12" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E1</v>
+        <v>S3E1</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="H12" s="22" t="s">
-        <v>942</v>
+        <v>935</v>
       </c>
       <c r="I12" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J12" s="14" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
     </row>
     <row r="13" spans="1:11" ht="289.8" x14ac:dyDescent="0.3">
@@ -7737,23 +7745,25 @@
       </c>
       <c r="D13" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E2</v>
+        <v>S3E2</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G13" s="5" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="22" t="s">
-        <v>569</v>
-      </c>
-      <c r="I13" s="17"/>
+        <v>563</v>
+      </c>
+      <c r="I13" s="17" t="s">
+        <v>100</v>
+      </c>
       <c r="J13" s="14" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
     </row>
     <row r="14" spans="1:11" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -7768,23 +7778,25 @@
       </c>
       <c r="D14" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E3</v>
+        <v>S3E3</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G14" s="5" t="s">
         <v>12</v>
       </c>
       <c r="H14" s="22" t="s">
-        <v>571</v>
-      </c>
-      <c r="I14" s="17"/>
+        <v>565</v>
+      </c>
+      <c r="I14" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="J14" s="14" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
     </row>
     <row r="15" spans="1:11" ht="345.6" x14ac:dyDescent="0.3">
@@ -7799,23 +7811,23 @@
       </c>
       <c r="D15" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E4</v>
+        <v>S3E4</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G15" s="5" t="s">
         <v>13</v>
       </c>
       <c r="H15" s="22" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="I15" s="17"/>
       <c r="J15" s="14" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
     </row>
     <row r="16" spans="1:11" ht="115.2" x14ac:dyDescent="0.3">
@@ -7830,23 +7842,23 @@
       </c>
       <c r="D16" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E5</v>
+        <v>S3E5</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G16" s="6" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="H16" s="22" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="I16" s="17"/>
       <c r="J16" s="14" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
     </row>
     <row r="17" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -7861,25 +7873,25 @@
       </c>
       <c r="D17" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S3 E6</v>
+        <v>S3E6</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F17" s="20" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>14</v>
       </c>
       <c r="H17" s="22" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="I17" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J17" s="14" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
     </row>
     <row r="18" spans="1:10" ht="174.6" x14ac:dyDescent="0.3">
@@ -7894,23 +7906,23 @@
       </c>
       <c r="D18" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E1</v>
+        <v>S4E1</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G18" s="6" t="s">
         <v>15</v>
       </c>
       <c r="H18" s="22" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="I18" s="17"/>
       <c r="J18" s="14" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
     </row>
     <row r="19" spans="1:10" ht="288" x14ac:dyDescent="0.3">
@@ -7925,23 +7937,25 @@
       </c>
       <c r="D19" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E2</v>
+        <v>S4E2</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>16</v>
       </c>
       <c r="H19" s="22" t="s">
-        <v>581</v>
-      </c>
-      <c r="I19" s="17"/>
+        <v>575</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>1426</v>
+      </c>
       <c r="J19" s="14" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
     </row>
     <row r="20" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -7956,25 +7970,25 @@
       </c>
       <c r="D20" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E3</v>
+        <v>S4E3</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="H20" s="22" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="I20" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J20" s="14" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="131.4" x14ac:dyDescent="0.3">
@@ -7989,23 +8003,25 @@
       </c>
       <c r="D21" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E4</v>
+        <v>S4E4</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>18</v>
       </c>
       <c r="H21" s="22" t="s">
-        <v>585</v>
-      </c>
-      <c r="I21" s="17"/>
+        <v>579</v>
+      </c>
+      <c r="I21" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J21" s="14" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
     </row>
     <row r="22" spans="1:10" ht="129.6" x14ac:dyDescent="0.3">
@@ -8020,25 +8036,25 @@
       </c>
       <c r="D22" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E5</v>
+        <v>S4E5</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>19</v>
       </c>
       <c r="H22" s="22" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="I22" s="17" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="J22" s="14" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
     </row>
     <row r="23" spans="1:10" ht="361.8" x14ac:dyDescent="0.3">
@@ -8053,25 +8069,25 @@
       </c>
       <c r="D23" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S4 E6</v>
+        <v>S4E6</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>20</v>
       </c>
       <c r="H23" s="22" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="I23" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J23" s="14" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
     </row>
     <row r="24" spans="1:10" ht="349.2" x14ac:dyDescent="0.3">
@@ -8086,23 +8102,25 @@
       </c>
       <c r="D24" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E1</v>
+        <v>S5E1</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>21</v>
       </c>
       <c r="H24" s="22" t="s">
-        <v>591</v>
-      </c>
-      <c r="I24" s="17"/>
+        <v>585</v>
+      </c>
+      <c r="I24" s="17" t="s">
+        <v>1420</v>
+      </c>
       <c r="J24" s="14" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
     </row>
     <row r="25" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -8117,23 +8135,23 @@
       </c>
       <c r="D25" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E2</v>
+        <v>S5E2</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F25" s="20" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>22</v>
       </c>
       <c r="H25" s="22" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="I25" s="17"/>
       <c r="J25" s="14" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="172.8" x14ac:dyDescent="0.3">
@@ -8148,23 +8166,25 @@
       </c>
       <c r="D26" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E3</v>
+        <v>S5E3</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H26" s="22" t="s">
-        <v>595</v>
-      </c>
-      <c r="I26" s="17"/>
+        <v>589</v>
+      </c>
+      <c r="I26" s="17" t="s">
+        <v>87</v>
+      </c>
       <c r="J26" s="14" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
     </row>
     <row r="27" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -8179,23 +8199,25 @@
       </c>
       <c r="D27" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E4</v>
+        <v>S5E4</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H27" s="22" t="s">
-        <v>597</v>
-      </c>
-      <c r="I27" s="17"/>
+        <v>591</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J27" s="14" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
     </row>
     <row r="28" spans="1:10" ht="187.2" x14ac:dyDescent="0.3">
@@ -8210,23 +8232,25 @@
       </c>
       <c r="D28" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E5</v>
+        <v>S5E5</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>25</v>
       </c>
       <c r="H28" s="22" t="s">
-        <v>599</v>
-      </c>
-      <c r="I28" s="17"/>
+        <v>593</v>
+      </c>
+      <c r="I28" s="17" t="s">
+        <v>1214</v>
+      </c>
       <c r="J28" s="14" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
     </row>
     <row r="29" spans="1:10" ht="261" x14ac:dyDescent="0.3">
@@ -8241,23 +8265,25 @@
       </c>
       <c r="D29" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E6</v>
+        <v>S5E6</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>26</v>
       </c>
       <c r="H29" s="22" t="s">
-        <v>601</v>
-      </c>
-      <c r="I29" s="17"/>
+        <v>595</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>53</v>
+      </c>
       <c r="J29" s="14" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="259.2" x14ac:dyDescent="0.3">
@@ -8272,23 +8298,25 @@
       </c>
       <c r="D30" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E7</v>
+        <v>S5E7</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>27</v>
       </c>
       <c r="H30" s="22" t="s">
-        <v>603</v>
-      </c>
-      <c r="I30" s="17"/>
+        <v>597</v>
+      </c>
+      <c r="I30" s="17" t="s">
+        <v>1427</v>
+      </c>
       <c r="J30" s="14" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
     </row>
     <row r="31" spans="1:10" ht="201.6" x14ac:dyDescent="0.3">
@@ -8303,23 +8331,25 @@
       </c>
       <c r="D31" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S5 E8</v>
+        <v>S5E8</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>28</v>
       </c>
       <c r="H31" s="22" t="s">
-        <v>605</v>
-      </c>
-      <c r="I31" s="17"/>
+        <v>599</v>
+      </c>
+      <c r="I31" s="17" t="s">
+        <v>1419</v>
+      </c>
       <c r="J31" s="14" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="32" spans="1:10" ht="158.4" x14ac:dyDescent="0.3">
@@ -8334,23 +8364,25 @@
       </c>
       <c r="D32" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E1</v>
+        <v>S6E1</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>895</v>
+        <v>889</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>29</v>
       </c>
       <c r="H32" s="22" t="s">
-        <v>888</v>
-      </c>
-      <c r="I32" s="17"/>
+        <v>882</v>
+      </c>
+      <c r="I32" s="17" t="s">
+        <v>60</v>
+      </c>
       <c r="J32" s="14" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="360" x14ac:dyDescent="0.3">
@@ -8365,23 +8397,25 @@
       </c>
       <c r="D33" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E2</v>
+        <v>S6E2</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>896</v>
+        <v>890</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>30</v>
       </c>
       <c r="H33" s="22" t="s">
-        <v>889</v>
-      </c>
-      <c r="I33" s="17"/>
+        <v>883</v>
+      </c>
+      <c r="I33" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J33" s="14" t="s">
-        <v>637</v>
+        <v>631</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="318.60000000000002" x14ac:dyDescent="0.3">
@@ -8396,23 +8430,25 @@
       </c>
       <c r="D34" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E3</v>
+        <v>S6E3</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>897</v>
+        <v>891</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="22" t="s">
-        <v>890</v>
-      </c>
-      <c r="I34" s="17"/>
+        <v>884</v>
+      </c>
+      <c r="I34" s="17" t="s">
+        <v>1428</v>
+      </c>
       <c r="J34" s="14" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="275.39999999999998" x14ac:dyDescent="0.3">
@@ -8427,23 +8463,25 @@
       </c>
       <c r="D35" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E4</v>
+        <v>S6E4</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>898</v>
+        <v>892</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>32</v>
       </c>
       <c r="H35" s="22" t="s">
-        <v>891</v>
-      </c>
-      <c r="I35" s="17"/>
+        <v>885</v>
+      </c>
+      <c r="I35" s="17" t="s">
+        <v>45</v>
+      </c>
       <c r="J35" s="14" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
     </row>
     <row r="36" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -8458,25 +8496,25 @@
       </c>
       <c r="D36" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E5</v>
+        <v>S6E5</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>899</v>
+        <v>893</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>33</v>
       </c>
       <c r="H36" s="22" t="s">
-        <v>892</v>
+        <v>886</v>
       </c>
       <c r="I36" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J36" s="14" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
     </row>
     <row r="37" spans="1:10" ht="333" x14ac:dyDescent="0.3">
@@ -8491,25 +8529,25 @@
       </c>
       <c r="D37" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E6</v>
+        <v>S6E6</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>900</v>
+        <v>894</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>34</v>
       </c>
       <c r="H37" s="22" t="s">
-        <v>893</v>
+        <v>887</v>
       </c>
       <c r="I37" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J37" s="14" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="38" spans="1:10" ht="261" x14ac:dyDescent="0.3">
@@ -8524,25 +8562,25 @@
       </c>
       <c r="D38" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E7</v>
+        <v>S6E7</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>901</v>
+        <v>895</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>35</v>
       </c>
       <c r="H38" s="22" t="s">
-        <v>894</v>
+        <v>888</v>
       </c>
       <c r="I38" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J38" s="14" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -8557,25 +8595,25 @@
       </c>
       <c r="D39" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E8</v>
+        <v>S6E8</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>902</v>
+        <v>896</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>36</v>
       </c>
       <c r="H39" s="22" t="s">
-        <v>903</v>
+        <v>897</v>
       </c>
       <c r="I39" s="17" t="s">
         <v>42</v>
       </c>
       <c r="J39" s="14" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="216" x14ac:dyDescent="0.3">
@@ -8590,25 +8628,25 @@
       </c>
       <c r="D40" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E9</v>
+        <v>S6E9</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>905</v>
+        <v>899</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>24</v>
       </c>
       <c r="H40" s="22" t="s">
-        <v>904</v>
+        <v>898</v>
       </c>
       <c r="I40" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J40" s="14" t="s">
-        <v>644</v>
+        <v>638</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -8623,25 +8661,25 @@
       </c>
       <c r="D41" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E10</v>
+        <v>S6E10</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>907</v>
+        <v>901</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>37</v>
       </c>
       <c r="H41" s="22" t="s">
-        <v>906</v>
+        <v>900</v>
       </c>
       <c r="I41" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J41" s="14" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -8656,25 +8694,25 @@
       </c>
       <c r="D42" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E11</v>
+        <v>S6E11</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>909</v>
+        <v>903</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>38</v>
       </c>
       <c r="H42" s="22" t="s">
-        <v>908</v>
+        <v>902</v>
       </c>
       <c r="I42" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J42" s="14" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="390.6" x14ac:dyDescent="0.3">
@@ -8689,23 +8727,23 @@
       </c>
       <c r="D43" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E12</v>
+        <v>S6E12</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>912</v>
+        <v>906</v>
       </c>
       <c r="H43" s="22" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
       <c r="I43" s="17"/>
       <c r="J43" s="14" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
     </row>
     <row r="44" spans="1:10" ht="390.6" x14ac:dyDescent="0.3">
@@ -8720,23 +8758,23 @@
       </c>
       <c r="D44" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S6 E13</v>
+        <v>S6E13</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>914</v>
+        <v>908</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>913</v>
+        <v>907</v>
       </c>
       <c r="H44" s="22" t="s">
-        <v>910</v>
+        <v>904</v>
       </c>
       <c r="I44" s="17"/>
       <c r="J44" s="14" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
     </row>
     <row r="45" spans="1:10" ht="388.8" x14ac:dyDescent="0.3">
@@ -8751,25 +8789,25 @@
       </c>
       <c r="D45" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E1</v>
+        <v>S7E1</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="H45" s="22" t="s">
-        <v>915</v>
+        <v>909</v>
       </c>
       <c r="I45" s="18" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J45" s="14" t="s">
-        <v>649</v>
+        <v>643</v>
       </c>
     </row>
     <row r="46" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -8784,25 +8822,25 @@
       </c>
       <c r="D46" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E2</v>
+        <v>S7E2</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>39</v>
       </c>
       <c r="H46" s="22" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="I46" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J46" s="14" t="s">
-        <v>650</v>
+        <v>644</v>
       </c>
     </row>
     <row r="47" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -8817,25 +8855,25 @@
       </c>
       <c r="D47" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E3</v>
+        <v>S7E3</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>923</v>
+        <v>916</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>41</v>
       </c>
       <c r="H47" s="22" t="s">
-        <v>922</v>
+        <v>915</v>
       </c>
       <c r="I47" s="19" t="s">
-        <v>42</v>
+        <v>1061</v>
       </c>
       <c r="J47" s="14" t="s">
-        <v>651</v>
+        <v>645</v>
       </c>
     </row>
     <row r="48" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -8850,25 +8888,25 @@
       </c>
       <c r="D48" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E4</v>
+        <v>S7E4</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F48" s="21" t="s">
-        <v>924</v>
+        <v>917</v>
       </c>
       <c r="G48" s="6" t="s">
         <v>43</v>
       </c>
       <c r="H48" s="22" t="s">
-        <v>925</v>
+        <v>918</v>
       </c>
       <c r="I48" s="18" t="s">
-        <v>921</v>
+        <v>1429</v>
       </c>
       <c r="J48" s="14" t="s">
-        <v>652</v>
+        <v>646</v>
       </c>
     </row>
     <row r="49" spans="1:10" ht="360" x14ac:dyDescent="0.3">
@@ -8883,25 +8921,25 @@
       </c>
       <c r="D49" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E5</v>
+        <v>S7E5</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>927</v>
+        <v>920</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>44</v>
       </c>
       <c r="H49" s="22" t="s">
-        <v>926</v>
+        <v>919</v>
       </c>
       <c r="I49" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J49" s="14" t="s">
-        <v>653</v>
+        <v>647</v>
       </c>
     </row>
     <row r="50" spans="1:10" ht="189" x14ac:dyDescent="0.3">
@@ -8916,25 +8954,25 @@
       </c>
       <c r="D50" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E6</v>
+        <v>S7E6</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>930</v>
+        <v>923</v>
       </c>
       <c r="G50" s="6" t="s">
-        <v>929</v>
+        <v>922</v>
       </c>
       <c r="H50" s="22" t="s">
-        <v>928</v>
+        <v>921</v>
       </c>
       <c r="I50" s="19" t="s">
         <v>45</v>
       </c>
       <c r="J50" s="14" t="s">
-        <v>654</v>
+        <v>648</v>
       </c>
     </row>
     <row r="51" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -8949,25 +8987,25 @@
       </c>
       <c r="D51" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E7</v>
+        <v>S7E7</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>931</v>
+        <v>924</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H51" s="22" t="s">
-        <v>932</v>
+        <v>925</v>
       </c>
       <c r="I51" s="19" t="s">
-        <v>42</v>
+        <v>1061</v>
       </c>
       <c r="J51" s="14" t="s">
-        <v>655</v>
+        <v>649</v>
       </c>
     </row>
     <row r="52" spans="1:10" ht="388.8" x14ac:dyDescent="0.3">
@@ -8982,25 +9020,25 @@
       </c>
       <c r="D52" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E8</v>
+        <v>S7E8</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>934</v>
+        <v>927</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>47</v>
       </c>
       <c r="H52" s="22" t="s">
-        <v>933</v>
+        <v>926</v>
       </c>
       <c r="I52" s="19" t="s">
-        <v>48</v>
+        <v>1118</v>
       </c>
       <c r="J52" s="14" t="s">
-        <v>656</v>
+        <v>650</v>
       </c>
     </row>
     <row r="53" spans="1:10" ht="230.4" x14ac:dyDescent="0.3">
@@ -9015,25 +9053,25 @@
       </c>
       <c r="D53" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E9</v>
+        <v>S7E9</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="G53" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="H53" s="22" t="s">
+        <v>929</v>
+      </c>
+      <c r="I53" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="H53" s="22" t="s">
-        <v>936</v>
-      </c>
-      <c r="I53" s="19" t="s">
-        <v>50</v>
-      </c>
       <c r="J53" s="14" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
     </row>
     <row r="54" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
@@ -9048,25 +9086,25 @@
       </c>
       <c r="D54" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E10</v>
+        <v>S7E10</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F54" s="21" t="s">
-        <v>938</v>
+        <v>931</v>
       </c>
       <c r="G54" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="H54" s="22" t="s">
-        <v>937</v>
+        <v>930</v>
       </c>
       <c r="I54" s="18" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="J54" s="14" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
     </row>
     <row r="55" spans="1:10" ht="277.2" x14ac:dyDescent="0.3">
@@ -9081,25 +9119,25 @@
       </c>
       <c r="D55" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E11</v>
+        <v>S7E11</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>941</v>
+        <v>934</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H55" s="22" t="s">
-        <v>940</v>
+        <v>933</v>
       </c>
       <c r="I55" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J55" s="14" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.3">
@@ -9114,25 +9152,25 @@
       </c>
       <c r="D56" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E12</v>
+        <v>S7E12</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F56" t="s">
-        <v>944</v>
+        <v>937</v>
       </c>
       <c r="G56" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="H56" s="3" t="s">
+        <v>936</v>
+      </c>
+      <c r="I56" s="19" t="s">
         <v>53</v>
       </c>
-      <c r="H56" s="3" t="s">
-        <v>943</v>
-      </c>
-      <c r="I56" s="19" t="s">
-        <v>54</v>
-      </c>
       <c r="J56" s="14" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
     </row>
     <row r="57" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -9147,25 +9185,25 @@
       </c>
       <c r="D57" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S7 E13</v>
+        <v>S7E13</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="F57" t="s">
-        <v>948</v>
+        <v>941</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>947</v>
+        <v>940</v>
       </c>
       <c r="H57" s="5" t="s">
-        <v>946</v>
+        <v>939</v>
       </c>
       <c r="I57" s="18" t="s">
-        <v>945</v>
+        <v>938</v>
       </c>
       <c r="J57" s="14" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
     </row>
     <row r="58" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -9180,25 +9218,25 @@
       </c>
       <c r="D58" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E1</v>
+        <v>S8E1</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F58" t="s">
-        <v>950</v>
+        <v>943</v>
       </c>
       <c r="G58" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H58" s="3" t="s">
-        <v>949</v>
+        <v>942</v>
       </c>
       <c r="I58" s="18" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="J58" s="14" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
     </row>
     <row r="59" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9213,25 +9251,25 @@
       </c>
       <c r="D59" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E2</v>
+        <v>S8E2</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="F59" t="s">
-        <v>953</v>
+        <v>946</v>
       </c>
       <c r="G59" s="6" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="H59" s="3" t="s">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="I59" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J59" s="14" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
     </row>
     <row r="60" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9246,25 +9284,25 @@
       </c>
       <c r="D60" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E3</v>
+        <v>S8E3</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
-        <v>954</v>
+        <v>947</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="H60" s="3" t="s">
-        <v>955</v>
+        <v>948</v>
       </c>
       <c r="I60" s="18" t="s">
-        <v>958</v>
+        <v>951</v>
       </c>
       <c r="J60" s="14" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="61" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9279,25 +9317,25 @@
       </c>
       <c r="D61" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E4</v>
+        <v>S8E4</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="F61" t="s">
-        <v>957</v>
+        <v>950</v>
       </c>
       <c r="G61" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H61" s="3" t="s">
-        <v>956</v>
+        <v>949</v>
       </c>
       <c r="I61" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J61" s="14" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.3">
@@ -9312,25 +9350,25 @@
       </c>
       <c r="D62" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E5</v>
+        <v>S8E5</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F62" t="s">
-        <v>960</v>
+        <v>953</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="H62" s="3" t="s">
-        <v>959</v>
+        <v>952</v>
       </c>
       <c r="I62" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J62" s="14" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.3">
@@ -9345,25 +9383,25 @@
       </c>
       <c r="D63" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E6</v>
+        <v>S8E6</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="F63" t="s">
-        <v>963</v>
+        <v>955</v>
       </c>
       <c r="G63" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H63" s="3" t="s">
-        <v>961</v>
+        <v>954</v>
       </c>
       <c r="I63" s="19" t="s">
-        <v>962</v>
+        <v>1421</v>
       </c>
       <c r="J63" s="14" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.3">
@@ -9378,25 +9416,25 @@
       </c>
       <c r="D64" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E7</v>
+        <v>S8E7</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F64" t="s">
-        <v>965</v>
+        <v>957</v>
       </c>
       <c r="G64" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="H64" s="3" t="s">
-        <v>964</v>
+        <v>956</v>
       </c>
       <c r="I64" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J64" s="14" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="65" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9411,25 +9449,25 @@
       </c>
       <c r="D65" s="10" t="str">
         <f t="shared" si="0"/>
-        <v>S8 E8</v>
+        <v>S8E8</v>
       </c>
       <c r="E65" s="20" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="F65" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="G65" s="6" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="H65" s="3" t="s">
-        <v>966</v>
+        <v>958</v>
       </c>
       <c r="I65" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J65" s="14" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.3">
@@ -9443,26 +9481,26 @@
         <v>9</v>
       </c>
       <c r="D66" s="10" t="str">
-        <f t="shared" si="0"/>
-        <v>S8 E9</v>
+        <f t="shared" ref="D66:D129" si="1">"S" &amp; B66 &amp; "E" &amp; C66</f>
+        <v>S8E9</v>
       </c>
       <c r="E66" s="20" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F66" t="s">
-        <v>968</v>
+        <v>960</v>
       </c>
       <c r="G66" s="6" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="H66" s="3" t="s">
-        <v>969</v>
+        <v>961</v>
       </c>
       <c r="I66" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J66" s="14" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.3">
@@ -9476,26 +9514,26 @@
         <v>10</v>
       </c>
       <c r="D67" s="10" t="str">
-        <f t="shared" ref="D67:D130" si="1">"S" &amp; B67 &amp; " E" &amp; C67</f>
-        <v>S8 E10</v>
+        <f t="shared" si="1"/>
+        <v>S8E10</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="F67" t="s">
-        <v>971</v>
+        <v>963</v>
       </c>
       <c r="G67" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="H67" s="3" t="s">
-        <v>970</v>
+        <v>962</v>
       </c>
       <c r="I67" s="18" t="s">
-        <v>980</v>
+        <v>1421</v>
       </c>
       <c r="J67" s="14" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.3">
@@ -9510,25 +9548,25 @@
       </c>
       <c r="D68" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S8 E11</v>
+        <v>S8E11</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F68" t="s">
-        <v>973</v>
+        <v>965</v>
       </c>
       <c r="G68" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="H68" s="3" t="s">
-        <v>972</v>
+        <v>964</v>
       </c>
       <c r="I68" s="19" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J68" s="14" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
     </row>
     <row r="69" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -9543,25 +9581,25 @@
       </c>
       <c r="D69" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S8 E12</v>
+        <v>S8E12</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F69" t="s">
-        <v>975</v>
+        <v>967</v>
       </c>
       <c r="G69" s="6" t="s">
-        <v>976</v>
+        <v>968</v>
       </c>
       <c r="H69" s="23" t="s">
-        <v>974</v>
+        <v>966</v>
       </c>
       <c r="I69" s="18" t="s">
-        <v>979</v>
+        <v>971</v>
       </c>
       <c r="J69" s="14" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.3">
@@ -9576,25 +9614,25 @@
       </c>
       <c r="D70" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S8 E13</v>
+        <v>S8E13</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F70" t="s">
-        <v>978</v>
+        <v>970</v>
       </c>
       <c r="G70" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H70" s="3" t="s">
-        <v>977</v>
+        <v>969</v>
       </c>
       <c r="I70" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J70" s="14" t="s">
-        <v>852</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9609,25 +9647,25 @@
       </c>
       <c r="D71" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E1</v>
+        <v>S9E1</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="F71" t="s">
-        <v>987</v>
+        <v>976</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H71" s="3" t="s">
-        <v>983</v>
+        <v>972</v>
       </c>
       <c r="I71" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J71" s="14" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
     </row>
     <row r="72" spans="1:10" x14ac:dyDescent="0.3">
@@ -9642,25 +9680,25 @@
       </c>
       <c r="D72" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E2</v>
+        <v>S9E2</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F72" t="s">
-        <v>988</v>
+        <v>977</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H72" s="3" t="s">
-        <v>984</v>
+        <v>973</v>
       </c>
       <c r="I72" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J72" s="14" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
     </row>
     <row r="73" spans="1:10" x14ac:dyDescent="0.3">
@@ -9675,25 +9713,25 @@
       </c>
       <c r="D73" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E3</v>
+        <v>S9E3</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="F73" t="s">
-        <v>989</v>
+        <v>978</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H73" s="3" t="s">
-        <v>985</v>
+        <v>974</v>
       </c>
       <c r="I73" s="19" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J73" s="14" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
     </row>
     <row r="74" spans="1:10" x14ac:dyDescent="0.3">
@@ -9708,25 +9746,25 @@
       </c>
       <c r="D74" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E4</v>
+        <v>S9E4</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F74" t="s">
-        <v>990</v>
+        <v>979</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="H74" s="3" t="s">
-        <v>986</v>
+        <v>975</v>
       </c>
       <c r="I74" s="19" t="s">
-        <v>981</v>
+        <v>1419</v>
       </c>
       <c r="J74" s="14" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
     </row>
     <row r="75" spans="1:10" x14ac:dyDescent="0.3">
@@ -9741,25 +9779,25 @@
       </c>
       <c r="D75" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E5</v>
+        <v>S9E5</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="F75" t="s">
-        <v>997</v>
+        <v>986</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="H75" s="3" t="s">
-        <v>991</v>
+        <v>980</v>
       </c>
       <c r="I75" s="19" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J75" s="14" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
     </row>
     <row r="76" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -9774,25 +9812,25 @@
       </c>
       <c r="D76" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E6</v>
+        <v>S9E6</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F76" t="s">
-        <v>998</v>
+        <v>987</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="H76" s="3" t="s">
-        <v>992</v>
+        <v>981</v>
       </c>
       <c r="I76" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J76" s="14" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
     </row>
     <row r="77" spans="1:10" x14ac:dyDescent="0.3">
@@ -9807,28 +9845,28 @@
       </c>
       <c r="D77" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E7</v>
+        <v>S9E7</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F77" t="s">
-        <v>999</v>
+        <v>988</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="H77" s="3" t="s">
-        <v>993</v>
+        <v>982</v>
       </c>
       <c r="I77" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J77" s="14" t="s">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="78" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A78" s="2">
         <v>84</v>
       </c>
@@ -9840,25 +9878,25 @@
       </c>
       <c r="D78" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E8</v>
+        <v>S9E8</v>
       </c>
       <c r="E78" s="10" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F78" t="s">
-        <v>1000</v>
+        <v>989</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="H78" s="3" t="s">
-        <v>994</v>
+        <v>983</v>
       </c>
       <c r="I78" s="18" t="s">
-        <v>982</v>
+        <v>1430</v>
       </c>
       <c r="J78" s="14" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79" spans="1:10" x14ac:dyDescent="0.3">
@@ -9873,25 +9911,25 @@
       </c>
       <c r="D79" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E9</v>
+        <v>S9E9</v>
       </c>
       <c r="E79" s="10" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="F79" t="s">
-        <v>1001</v>
+        <v>990</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>995</v>
+        <v>984</v>
       </c>
       <c r="I79" s="18" t="s">
-        <v>1003</v>
+        <v>992</v>
       </c>
       <c r="J79" s="14" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
     </row>
     <row r="80" spans="1:10" x14ac:dyDescent="0.3">
@@ -9906,25 +9944,25 @@
       </c>
       <c r="D80" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E10</v>
+        <v>S9E10</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F80" t="s">
-        <v>1002</v>
+        <v>991</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>996</v>
+        <v>985</v>
       </c>
       <c r="I80" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J80" s="14" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.3">
@@ -9939,25 +9977,25 @@
       </c>
       <c r="D81" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E11</v>
+        <v>S9E11</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="F81" t="s">
-        <v>1007</v>
+        <v>996</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>1004</v>
+        <v>993</v>
       </c>
       <c r="I81" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J81" s="14" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -9972,25 +10010,25 @@
       </c>
       <c r="D82" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E12</v>
+        <v>S9E12</v>
       </c>
       <c r="E82" s="10" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F82" t="s">
-        <v>1008</v>
+        <v>997</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>1005</v>
+        <v>994</v>
       </c>
       <c r="I82" s="18" t="s">
-        <v>1010</v>
+        <v>999</v>
       </c>
       <c r="J82" s="14" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.3">
@@ -10005,25 +10043,25 @@
       </c>
       <c r="D83" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S9 E13</v>
+        <v>S9E13</v>
       </c>
       <c r="E83" s="10" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="F83" t="s">
-        <v>1009</v>
+        <v>998</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>1006</v>
+        <v>995</v>
       </c>
       <c r="I83" s="19" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J83" s="14" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -10038,25 +10076,25 @@
       </c>
       <c r="D84" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E1</v>
+        <v>S10E1</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F84" t="s">
-        <v>1015</v>
+        <v>1004</v>
       </c>
       <c r="G84" s="6" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>1012</v>
+        <v>1001</v>
       </c>
       <c r="I84" s="18" t="s">
-        <v>951</v>
+        <v>944</v>
       </c>
       <c r="J84" s="14" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.3">
@@ -10071,25 +10109,25 @@
       </c>
       <c r="D85" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E2</v>
+        <v>S10E2</v>
       </c>
       <c r="E85" s="10" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F85" t="s">
-        <v>1016</v>
+        <v>1005</v>
       </c>
       <c r="G85" s="6" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>1013</v>
+        <v>1002</v>
       </c>
       <c r="I85" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J85" s="14" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.3">
@@ -10104,28 +10142,28 @@
       </c>
       <c r="D86" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E3</v>
+        <v>S10E3</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F86" t="s">
-        <v>1017</v>
+        <v>1006</v>
       </c>
       <c r="G86" s="6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>1014</v>
+        <v>1003</v>
       </c>
       <c r="I86" s="18" t="s">
-        <v>1011</v>
+        <v>1000</v>
       </c>
       <c r="J86" s="14" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="K86" t="s">
-        <v>1093</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.3">
@@ -10140,25 +10178,25 @@
       </c>
       <c r="D87" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E4</v>
+        <v>S10E4</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="F87" t="s">
-        <v>1020</v>
+        <v>1009</v>
       </c>
       <c r="G87" s="6" t="s">
-        <v>1019</v>
+        <v>1008</v>
       </c>
       <c r="H87" s="3" t="s">
-        <v>1018</v>
+        <v>1007</v>
       </c>
       <c r="I87" s="19" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="J87" s="14" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.3">
@@ -10173,25 +10211,25 @@
       </c>
       <c r="D88" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E5</v>
+        <v>S10E5</v>
       </c>
       <c r="E88" s="10" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F88" t="s">
-        <v>1025</v>
+        <v>1014</v>
       </c>
       <c r="G88" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H88" s="3" t="s">
-        <v>1021</v>
+        <v>1010</v>
       </c>
       <c r="I88" s="19" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J88" s="14" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="187.2" x14ac:dyDescent="0.3">
@@ -10206,25 +10244,25 @@
       </c>
       <c r="D89" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E6</v>
+        <v>S10E6</v>
       </c>
       <c r="E89" s="10" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="F89" s="24" t="s">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="G89" s="6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="H89" s="3" t="s">
-        <v>1022</v>
+        <v>1011</v>
       </c>
       <c r="I89" s="19" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J89" s="14" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.3">
@@ -10239,25 +10277,25 @@
       </c>
       <c r="D90" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E7</v>
+        <v>S10E7</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F90" t="s">
-        <v>1026</v>
+        <v>1015</v>
       </c>
       <c r="G90" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>1023</v>
+        <v>1012</v>
       </c>
       <c r="I90" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J90" s="14" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
@@ -10272,25 +10310,25 @@
       </c>
       <c r="D91" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E8</v>
+        <v>S10E8</v>
       </c>
       <c r="E91" s="20" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="F91" t="s">
-        <v>1028</v>
+        <v>1017</v>
       </c>
       <c r="G91" s="6" t="s">
         <v>2</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>1024</v>
+        <v>1013</v>
       </c>
       <c r="I91" s="18" t="s">
-        <v>94</v>
+        <v>1431</v>
       </c>
       <c r="J91" s="14" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.3">
@@ -10305,25 +10343,25 @@
       </c>
       <c r="D92" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E9</v>
+        <v>S10E9</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F92" t="s">
-        <v>1032</v>
+        <v>1021</v>
       </c>
       <c r="G92" s="6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>1029</v>
+        <v>1018</v>
       </c>
       <c r="I92" s="19" t="s">
-        <v>96</v>
+        <v>1422</v>
       </c>
       <c r="J92" s="14" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.3">
@@ -10338,25 +10376,25 @@
       </c>
       <c r="D93" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E10</v>
+        <v>S10E10</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="F93" t="s">
-        <v>1033</v>
+        <v>1022</v>
       </c>
       <c r="G93" s="6" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>1030</v>
+        <v>1019</v>
       </c>
       <c r="I93" s="19" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J93" s="14" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.3">
@@ -10371,25 +10409,25 @@
       </c>
       <c r="D94" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E11</v>
+        <v>S10E11</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F94" t="s">
-        <v>1034</v>
+        <v>1023</v>
       </c>
       <c r="G94" s="6" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>1031</v>
+        <v>1020</v>
       </c>
       <c r="I94" s="19" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="J94" s="14" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.3">
@@ -10404,25 +10442,25 @@
       </c>
       <c r="D95" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E12</v>
+        <v>S10E12</v>
       </c>
       <c r="E95" s="10" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="F95" t="s">
-        <v>1037</v>
+        <v>1026</v>
       </c>
       <c r="G95" s="6" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="H95" s="3" t="s">
-        <v>1035</v>
+        <v>1024</v>
       </c>
       <c r="I95" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J95" s="14" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.3">
@@ -10437,25 +10475,25 @@
       </c>
       <c r="D96" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S10 E13</v>
+        <v>S10E13</v>
       </c>
       <c r="E96" s="10" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F96" t="s">
-        <v>1038</v>
+        <v>1027</v>
       </c>
       <c r="G96" s="6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="H96" s="3" t="s">
-        <v>1036</v>
+        <v>1025</v>
       </c>
       <c r="I96" s="19" t="s">
-        <v>102</v>
+        <v>1432</v>
       </c>
       <c r="J96" s="14" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="97" spans="1:10" x14ac:dyDescent="0.3">
@@ -10470,25 +10508,25 @@
       </c>
       <c r="D97" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E1</v>
+        <v>S11E1</v>
       </c>
       <c r="E97" s="20" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="F97" t="s">
-        <v>1045</v>
+        <v>1034</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="H97" s="3" t="s">
-        <v>1039</v>
+        <v>1028</v>
       </c>
       <c r="I97" s="19" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J97" s="14" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="98" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10503,25 +10541,25 @@
       </c>
       <c r="D98" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E2</v>
+        <v>S11E2</v>
       </c>
       <c r="E98" s="10" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F98" t="s">
-        <v>1046</v>
+        <v>1035</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H98" s="3" t="s">
-        <v>1040</v>
+        <v>1029</v>
       </c>
       <c r="I98" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J98" s="14" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
     </row>
     <row r="99" spans="1:10" x14ac:dyDescent="0.3">
@@ -10536,25 +10574,25 @@
       </c>
       <c r="D99" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E3</v>
+        <v>S11E3</v>
       </c>
       <c r="E99" s="10" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="F99" t="s">
-        <v>1047</v>
+        <v>1036</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="H99" s="3" t="s">
-        <v>1041</v>
+        <v>1030</v>
       </c>
       <c r="I99" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J99" s="14" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
     </row>
     <row r="100" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10569,25 +10607,25 @@
       </c>
       <c r="D100" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E4</v>
+        <v>S11E4</v>
       </c>
       <c r="E100" s="10" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F100" t="s">
-        <v>1048</v>
+        <v>1037</v>
       </c>
       <c r="G100" s="6" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="H100" s="3" t="s">
-        <v>1042</v>
+        <v>1031</v>
       </c>
       <c r="I100" s="18" t="s">
-        <v>56</v>
+        <v>944</v>
       </c>
       <c r="J100" s="14" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
     </row>
     <row r="101" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -10602,25 +10640,25 @@
       </c>
       <c r="D101" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E5</v>
+        <v>S11E5</v>
       </c>
       <c r="E101" s="10" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="F101" t="s">
-        <v>1049</v>
+        <v>1038</v>
       </c>
       <c r="G101" s="6" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>1043</v>
+        <v>1032</v>
       </c>
       <c r="I101" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J101" s="14" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
     </row>
     <row r="102" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -10635,25 +10673,25 @@
       </c>
       <c r="D102" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E6</v>
+        <v>S11E6</v>
       </c>
       <c r="E102" s="10" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F102" t="s">
-        <v>1055</v>
+        <v>1044</v>
       </c>
       <c r="G102" s="6" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>1044</v>
+        <v>1033</v>
       </c>
       <c r="I102" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J102" s="14" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
     </row>
     <row r="103" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10668,25 +10706,25 @@
       </c>
       <c r="D103" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E7</v>
+        <v>S11E7</v>
       </c>
       <c r="E103" s="10" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F103" t="s">
-        <v>1056</v>
+        <v>1045</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="H103" s="3" t="s">
-        <v>1050</v>
+        <v>1039</v>
       </c>
       <c r="I103" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J103" s="14" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
     </row>
     <row r="104" spans="1:10" x14ac:dyDescent="0.3">
@@ -10701,25 +10739,25 @@
       </c>
       <c r="D104" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E8</v>
+        <v>S11E8</v>
       </c>
       <c r="E104" s="10" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F104" t="s">
-        <v>1057</v>
+        <v>1046</v>
       </c>
       <c r="G104" s="5" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>1051</v>
+        <v>1040</v>
       </c>
       <c r="I104" s="19" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J104" s="14" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
     </row>
     <row r="105" spans="1:10" x14ac:dyDescent="0.3">
@@ -10734,25 +10772,25 @@
       </c>
       <c r="D105" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E9</v>
+        <v>S11E9</v>
       </c>
       <c r="E105" s="10" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="F105" t="s">
-        <v>1058</v>
+        <v>1047</v>
       </c>
       <c r="G105" s="5" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>1052</v>
+        <v>1041</v>
       </c>
       <c r="I105" s="19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J105" s="14" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="106" spans="1:10" x14ac:dyDescent="0.3">
@@ -10767,25 +10805,25 @@
       </c>
       <c r="D106" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E10</v>
+        <v>S11E10</v>
       </c>
       <c r="E106" s="10" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F106" t="s">
-        <v>1059</v>
+        <v>1048</v>
       </c>
       <c r="G106" s="5" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>1053</v>
+        <v>1042</v>
       </c>
       <c r="I106" s="19" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J106" s="14" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
     </row>
     <row r="107" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -10800,25 +10838,25 @@
       </c>
       <c r="D107" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E11</v>
+        <v>S11E11</v>
       </c>
       <c r="E107" s="10" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="F107" t="s">
-        <v>1062</v>
+        <v>1051</v>
       </c>
       <c r="G107" s="5" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>1054</v>
+        <v>1043</v>
       </c>
       <c r="I107" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J107" s="14" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
     </row>
     <row r="108" spans="1:10" x14ac:dyDescent="0.3">
@@ -10833,22 +10871,22 @@
       </c>
       <c r="D108" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E12</v>
+        <v>S11E12</v>
       </c>
       <c r="E108" s="10" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="G108" s="5" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>1060</v>
+        <v>1049</v>
       </c>
       <c r="I108" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J108" s="14" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
     </row>
     <row r="109" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -10863,25 +10901,25 @@
       </c>
       <c r="D109" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S11 E13</v>
+        <v>S11E13</v>
       </c>
       <c r="E109" s="10" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="F109" t="s">
-        <v>1063</v>
+        <v>1052</v>
       </c>
       <c r="G109" s="6" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>1061</v>
+        <v>1050</v>
       </c>
       <c r="I109" s="19" t="s">
         <v>40</v>
       </c>
       <c r="J109" s="14" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
     </row>
     <row r="110" spans="1:10" x14ac:dyDescent="0.3">
@@ -10896,25 +10934,25 @@
       </c>
       <c r="D110" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E1</v>
+        <v>S12E1</v>
       </c>
       <c r="E110" s="10" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F110" t="s">
-        <v>1070</v>
+        <v>1059</v>
       </c>
       <c r="G110" s="5" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>1064</v>
+        <v>1053</v>
       </c>
       <c r="I110" s="17" t="s">
-        <v>1071</v>
+        <v>1420</v>
       </c>
       <c r="J110" s="14" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
     </row>
     <row r="111" spans="1:10" x14ac:dyDescent="0.3">
@@ -10929,25 +10967,25 @@
       </c>
       <c r="D111" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E2</v>
+        <v>S12E2</v>
       </c>
       <c r="E111" s="10" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="F111" t="s">
-        <v>1072</v>
+        <v>1060</v>
       </c>
       <c r="G111" s="5" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>1065</v>
+        <v>1054</v>
       </c>
       <c r="I111" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J111" s="14" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
     </row>
     <row r="112" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -10962,25 +11000,25 @@
       </c>
       <c r="D112" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E3</v>
+        <v>S12E3</v>
       </c>
       <c r="E112" s="10" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F112" s="24" t="s">
-        <v>1074</v>
+        <v>1062</v>
       </c>
       <c r="G112" s="5" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>1066</v>
+        <v>1055</v>
       </c>
       <c r="I112" s="17" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="J112" s="14" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
     </row>
     <row r="113" spans="1:10" ht="409.6" x14ac:dyDescent="0.3">
@@ -10995,23 +11033,23 @@
       </c>
       <c r="D113" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E4</v>
+        <v>S12E4</v>
       </c>
       <c r="E113" s="10" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="F113" s="24" t="s">
-        <v>1075</v>
+        <v>1063</v>
       </c>
       <c r="G113" s="5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>1067</v>
+        <v>1056</v>
       </c>
       <c r="I113" s="17"/>
       <c r="J113" s="14" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
     </row>
     <row r="114" spans="1:10" x14ac:dyDescent="0.3">
@@ -11026,23 +11064,23 @@
       </c>
       <c r="D114" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E5</v>
+        <v>S12E5</v>
       </c>
       <c r="E114" s="10" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F114" t="s">
-        <v>1076</v>
+        <v>1064</v>
       </c>
       <c r="G114" s="5" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>1068</v>
+        <v>1057</v>
       </c>
       <c r="I114" s="17"/>
       <c r="J114" s="14" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
     </row>
     <row r="115" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11057,23 +11095,23 @@
       </c>
       <c r="D115" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E6</v>
+        <v>S12E6</v>
       </c>
       <c r="E115" s="10" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="F115" t="s">
-        <v>1077</v>
+        <v>1065</v>
       </c>
       <c r="G115" s="5" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>1069</v>
+        <v>1058</v>
       </c>
       <c r="I115" s="17"/>
       <c r="J115" s="14" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
     </row>
     <row r="116" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -11088,26 +11126,28 @@
       </c>
       <c r="D116" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E7</v>
+        <v>S12E7</v>
       </c>
       <c r="E116" s="10" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F116" s="24" t="s">
-        <v>1079</v>
+        <v>1067</v>
       </c>
       <c r="G116" s="5" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="H116" s="3" t="s">
-        <v>1078</v>
-      </c>
-      <c r="I116" s="17"/>
+        <v>1066</v>
+      </c>
+      <c r="I116" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J116" s="14" t="s">
-        <v>719</v>
-      </c>
-    </row>
-    <row r="117" spans="1:10" ht="388.8" x14ac:dyDescent="0.3">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A117" s="2">
         <v>132</v>
       </c>
@@ -11119,23 +11159,23 @@
       </c>
       <c r="D117" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E8</v>
+        <v>S12E8</v>
       </c>
       <c r="E117" s="10" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="F117" s="25" t="s">
-        <v>1080</v>
+        <v>1068</v>
       </c>
       <c r="G117" s="5" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>1081</v>
+        <v>1069</v>
       </c>
       <c r="I117" s="17"/>
       <c r="J117" s="14" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="118" spans="1:10" x14ac:dyDescent="0.3">
@@ -11150,23 +11190,25 @@
       </c>
       <c r="D118" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E9</v>
+        <v>S12E9</v>
       </c>
       <c r="E118" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>1083</v>
+        <v>371</v>
+      </c>
+      <c r="F118" s="25" t="s">
+        <v>1071</v>
       </c>
       <c r="G118" s="5" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>1082</v>
-      </c>
-      <c r="I118" s="17"/>
+        <v>1070</v>
+      </c>
+      <c r="I118" s="17" t="s">
+        <v>108</v>
+      </c>
       <c r="J118" s="14" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="119" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -11181,23 +11223,25 @@
       </c>
       <c r="D119" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E10</v>
+        <v>S12E10</v>
       </c>
       <c r="E119" s="10" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="F119" s="10" t="s">
-        <v>1085</v>
+        <v>1073</v>
       </c>
       <c r="G119" s="5" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="H119" s="3" t="s">
-        <v>1084</v>
-      </c>
-      <c r="I119" s="17"/>
+        <v>1072</v>
+      </c>
+      <c r="I119" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J119" s="14" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
     </row>
     <row r="120" spans="1:10" ht="302.39999999999998" x14ac:dyDescent="0.3">
@@ -11212,23 +11256,25 @@
       </c>
       <c r="D120" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E11</v>
+        <v>S12E11</v>
       </c>
       <c r="E120" s="10" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="F120" s="10" t="s">
-        <v>1087</v>
+        <v>1075</v>
       </c>
       <c r="G120" s="5" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H120" s="3" t="s">
-        <v>1086</v>
-      </c>
-      <c r="I120" s="17"/>
+        <v>1074</v>
+      </c>
+      <c r="I120" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="J120" s="14" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="121" spans="1:10" ht="331.2" x14ac:dyDescent="0.3">
@@ -11243,23 +11289,25 @@
       </c>
       <c r="D121" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E12</v>
+        <v>S12E12</v>
       </c>
       <c r="E121" s="10" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="F121" s="10" t="s">
-        <v>1090</v>
+        <v>1078</v>
       </c>
       <c r="G121" s="5" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="H121" s="3" t="s">
-        <v>1088</v>
-      </c>
-      <c r="I121" s="17"/>
+        <v>1076</v>
+      </c>
+      <c r="I121" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="J121" s="14" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
     </row>
     <row r="122" spans="1:10" ht="273.60000000000002" x14ac:dyDescent="0.3">
@@ -11274,23 +11322,25 @@
       </c>
       <c r="D122" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S12 E13</v>
+        <v>S12E13</v>
       </c>
       <c r="E122" s="10" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F122" s="10" t="s">
-        <v>1091</v>
+        <v>1079</v>
       </c>
       <c r="G122" s="5" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="H122" s="3" t="s">
-        <v>1089</v>
-      </c>
-      <c r="I122" s="17"/>
+        <v>1077</v>
+      </c>
+      <c r="I122" s="17" t="s">
+        <v>68</v>
+      </c>
       <c r="J122" s="14" t="s">
-        <v>853</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11305,23 +11355,23 @@
       </c>
       <c r="D123" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E1</v>
+        <v>S13E1</v>
       </c>
       <c r="E123" s="10" t="s">
-        <v>382</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>1095</v>
+        <v>376</v>
+      </c>
+      <c r="F123" s="25" t="s">
+        <v>1083</v>
       </c>
       <c r="G123" s="5" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="H123" s="3" t="s">
-        <v>1094</v>
+        <v>1082</v>
       </c>
       <c r="I123" s="17"/>
       <c r="J123" s="14" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
     </row>
     <row r="124" spans="1:10" x14ac:dyDescent="0.3">
@@ -11336,25 +11386,25 @@
       </c>
       <c r="D124" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E2</v>
+        <v>S13E2</v>
       </c>
       <c r="E124" s="10" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F124" t="s">
-        <v>1103</v>
+        <v>1091</v>
       </c>
       <c r="G124" s="5" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="H124" s="3" t="s">
-        <v>1096</v>
+        <v>1084</v>
       </c>
       <c r="I124" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J124" s="14" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="125" spans="1:10" x14ac:dyDescent="0.3">
@@ -11369,25 +11419,25 @@
       </c>
       <c r="D125" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E3</v>
+        <v>S13E3</v>
       </c>
       <c r="E125" s="10" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="F125" t="s">
-        <v>1104</v>
+        <v>1092</v>
       </c>
       <c r="G125" s="6" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="H125" s="3" t="s">
-        <v>1097</v>
+        <v>1085</v>
       </c>
       <c r="I125" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J125" s="14" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
     </row>
     <row r="126" spans="1:10" x14ac:dyDescent="0.3">
@@ -11402,25 +11452,25 @@
       </c>
       <c r="D126" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E4</v>
+        <v>S13E4</v>
       </c>
       <c r="E126" s="10" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F126" t="s">
-        <v>1105</v>
+        <v>1093</v>
       </c>
       <c r="G126" s="5" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="H126" s="3" t="s">
-        <v>1098</v>
+        <v>1086</v>
       </c>
       <c r="I126" s="17" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J126" s="14" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="127" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11435,23 +11485,23 @@
       </c>
       <c r="D127" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E5</v>
+        <v>S13E5</v>
       </c>
       <c r="E127" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="F127" s="3" t="s">
-        <v>1106</v>
+        <v>380</v>
+      </c>
+      <c r="F127" s="25" t="s">
+        <v>1094</v>
       </c>
       <c r="G127" s="6" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>1099</v>
+        <v>1087</v>
       </c>
       <c r="I127" s="17"/>
       <c r="J127" s="14" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
     </row>
     <row r="128" spans="1:10" x14ac:dyDescent="0.3">
@@ -11466,25 +11516,25 @@
       </c>
       <c r="D128" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E6</v>
+        <v>S13E6</v>
       </c>
       <c r="E128" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="F128" s="3" t="s">
-        <v>1107</v>
+        <v>381</v>
+      </c>
+      <c r="F128" s="25" t="s">
+        <v>1095</v>
       </c>
       <c r="G128" s="6" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>1100</v>
+        <v>1088</v>
       </c>
       <c r="I128" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J128" s="14" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
     </row>
     <row r="129" spans="1:10" x14ac:dyDescent="0.3">
@@ -11499,25 +11549,25 @@
       </c>
       <c r="D129" s="10" t="str">
         <f t="shared" si="1"/>
-        <v>S13 E7</v>
+        <v>S13E7</v>
       </c>
       <c r="E129" s="10" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="F129" t="s">
-        <v>1108</v>
+        <v>1096</v>
       </c>
       <c r="G129" s="5" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>1101</v>
+        <v>1089</v>
       </c>
       <c r="I129" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J129" s="14" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -11531,26 +11581,26 @@
         <v>8</v>
       </c>
       <c r="D130" s="10" t="str">
-        <f t="shared" si="1"/>
-        <v>S13 E8</v>
+        <f t="shared" ref="D130:D193" si="2">"S" &amp; B130 &amp; "E" &amp; C130</f>
+        <v>S13E8</v>
       </c>
       <c r="E130" s="10" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F130" t="s">
-        <v>1109</v>
+        <v>1097</v>
       </c>
       <c r="G130" s="5" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>1102</v>
+        <v>1090</v>
       </c>
       <c r="I130" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J130" s="14" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
     </row>
     <row r="131" spans="1:10" x14ac:dyDescent="0.3">
@@ -11564,26 +11614,26 @@
         <v>9</v>
       </c>
       <c r="D131" s="10" t="str">
-        <f t="shared" ref="D131:D193" si="2">"S" &amp; B131 &amp; " E" &amp; C131</f>
-        <v>S13 E9</v>
+        <f t="shared" si="2"/>
+        <v>S13E9</v>
       </c>
       <c r="E131" s="10" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="F131" t="s">
-        <v>1115</v>
+        <v>1103</v>
       </c>
       <c r="G131" s="5" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>1110</v>
+        <v>1098</v>
       </c>
       <c r="I131" s="17" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="J131" s="14" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="132" spans="1:10" x14ac:dyDescent="0.3">
@@ -11598,25 +11648,25 @@
       </c>
       <c r="D132" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S13 E10</v>
+        <v>S13E10</v>
       </c>
       <c r="E132" s="10" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F132" t="s">
-        <v>1117</v>
+        <v>1105</v>
       </c>
       <c r="G132" s="5" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>1111</v>
+        <v>1099</v>
       </c>
       <c r="I132" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J132" s="14" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
     </row>
     <row r="133" spans="1:10" x14ac:dyDescent="0.3">
@@ -11631,25 +11681,25 @@
       </c>
       <c r="D133" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S13 E11</v>
+        <v>S13E11</v>
       </c>
       <c r="E133" s="10" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="F133" t="s">
-        <v>1118</v>
+        <v>1106</v>
       </c>
       <c r="G133" s="5" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>1112</v>
+        <v>1100</v>
       </c>
       <c r="I133" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J133" s="14" t="s">
-        <v>854</v>
+        <v>848</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11664,25 +11714,25 @@
       </c>
       <c r="D134" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S13 E12</v>
+        <v>S13E12</v>
       </c>
       <c r="E134" s="10" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F134" t="s">
-        <v>1119</v>
+        <v>1107</v>
       </c>
       <c r="G134" s="5" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>1113</v>
+        <v>1101</v>
       </c>
       <c r="I134" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J134" s="14" t="s">
-        <v>855</v>
+        <v>849</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11697,25 +11747,25 @@
       </c>
       <c r="D135" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S13 E13</v>
+        <v>S13E13</v>
       </c>
       <c r="E135" s="10" t="s">
-        <v>394</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>1120</v>
+        <v>388</v>
+      </c>
+      <c r="F135" s="25" t="s">
+        <v>1108</v>
       </c>
       <c r="G135" s="5" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>1114</v>
+        <v>1102</v>
       </c>
       <c r="I135" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J135" s="14" t="s">
-        <v>856</v>
+        <v>850</v>
       </c>
     </row>
     <row r="136" spans="1:10" x14ac:dyDescent="0.3">
@@ -11730,25 +11780,25 @@
       </c>
       <c r="D136" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E1</v>
+        <v>S14E1</v>
       </c>
       <c r="E136" s="10" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F136" t="s">
-        <v>1127</v>
+        <v>1115</v>
       </c>
       <c r="G136" s="6" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>1121</v>
+        <v>1109</v>
       </c>
       <c r="I136" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J136" s="14" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
     </row>
     <row r="137" spans="1:10" x14ac:dyDescent="0.3">
@@ -11763,25 +11813,25 @@
       </c>
       <c r="D137" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E2</v>
+        <v>S14E2</v>
       </c>
       <c r="E137" s="10" t="s">
-        <v>396</v>
-      </c>
-      <c r="F137" s="3" t="s">
-        <v>1128</v>
+        <v>390</v>
+      </c>
+      <c r="F137" s="25" t="s">
+        <v>1116</v>
       </c>
       <c r="G137" s="5" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>1122</v>
+        <v>1110</v>
       </c>
       <c r="I137" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J137" s="14" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -11796,25 +11846,25 @@
       </c>
       <c r="D138" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E3</v>
+        <v>S14E3</v>
       </c>
       <c r="E138" s="10" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F138" t="s">
-        <v>1129</v>
+        <v>1117</v>
       </c>
       <c r="G138" s="5" t="s">
-        <v>146</v>
+        <v>140</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>1123</v>
+        <v>1111</v>
       </c>
       <c r="I138" s="17" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="J138" s="14" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
     </row>
     <row r="139" spans="1:10" x14ac:dyDescent="0.3">
@@ -11829,25 +11879,25 @@
       </c>
       <c r="D139" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E4</v>
+        <v>S14E4</v>
       </c>
       <c r="E139" s="10" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="F139" t="s">
-        <v>1131</v>
+        <v>1119</v>
       </c>
       <c r="G139" s="5" t="s">
-        <v>147</v>
+        <v>141</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>1124</v>
+        <v>1112</v>
       </c>
       <c r="I139" s="17" t="s">
-        <v>1132</v>
+        <v>1120</v>
       </c>
       <c r="J139" s="14" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="140" spans="1:10" x14ac:dyDescent="0.3">
@@ -11862,25 +11912,25 @@
       </c>
       <c r="D140" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E5</v>
+        <v>S14E5</v>
       </c>
       <c r="E140" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="F140" s="3" t="s">
-        <v>1133</v>
+        <v>393</v>
+      </c>
+      <c r="F140" s="25" t="s">
+        <v>1121</v>
       </c>
       <c r="G140" s="5" t="s">
-        <v>148</v>
+        <v>142</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>1125</v>
+        <v>1113</v>
       </c>
       <c r="I140" s="17" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="J140" s="14" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="141" spans="1:10" x14ac:dyDescent="0.3">
@@ -11895,25 +11945,25 @@
       </c>
       <c r="D141" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E6</v>
+        <v>S14E6</v>
       </c>
       <c r="E141" s="10" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="F141" t="s">
-        <v>1135</v>
+        <v>1123</v>
       </c>
       <c r="G141" s="5" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>1126</v>
+        <v>1114</v>
       </c>
       <c r="I141" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J141" s="14" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -11928,25 +11978,25 @@
       </c>
       <c r="D142" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E7</v>
+        <v>S14E7</v>
       </c>
       <c r="E142" s="10" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F142" t="s">
-        <v>1138</v>
+        <v>1126</v>
       </c>
       <c r="G142" s="5" t="s">
-        <v>1137</v>
+        <v>1125</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>1136</v>
+        <v>1124</v>
       </c>
       <c r="I142" s="17" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="J142" s="14" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -11961,25 +12011,25 @@
       </c>
       <c r="D143" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E8</v>
+        <v>S14E8</v>
       </c>
       <c r="E143" s="10" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="F143" t="s">
-        <v>1141</v>
+        <v>1129</v>
       </c>
       <c r="G143" s="5" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>1140</v>
+        <v>1128</v>
       </c>
       <c r="I143" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J143" s="14" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="144" spans="1:10" x14ac:dyDescent="0.3">
@@ -11994,25 +12044,25 @@
       </c>
       <c r="D144" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E9</v>
+        <v>S14E9</v>
       </c>
       <c r="E144" s="10" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F144" t="s">
-        <v>1143</v>
+        <v>1131</v>
       </c>
       <c r="G144" s="6" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>1142</v>
+        <v>1130</v>
       </c>
       <c r="I144" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J144" s="14" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="145" spans="1:10" x14ac:dyDescent="0.3">
@@ -12027,25 +12077,25 @@
       </c>
       <c r="D145" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E10</v>
+        <v>S14E10</v>
       </c>
       <c r="E145" s="10" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="F145" t="s">
-        <v>1146</v>
+        <v>1134</v>
       </c>
       <c r="G145" s="5" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>1145</v>
+        <v>1133</v>
       </c>
       <c r="I145" s="17" t="s">
-        <v>96</v>
+        <v>1423</v>
       </c>
       <c r="J145" s="14" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="146" spans="1:10" x14ac:dyDescent="0.3">
@@ -12060,25 +12110,25 @@
       </c>
       <c r="D146" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E11</v>
+        <v>S14E11</v>
       </c>
       <c r="E146" s="10" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F146" t="s">
-        <v>1148</v>
+        <v>1136</v>
       </c>
       <c r="G146" s="5" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>1147</v>
+        <v>1135</v>
       </c>
       <c r="I146" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J146" s="14" t="s">
-        <v>745</v>
+        <v>739</v>
       </c>
     </row>
     <row r="147" spans="1:10" x14ac:dyDescent="0.3">
@@ -12093,25 +12143,25 @@
       </c>
       <c r="D147" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E12</v>
+        <v>S14E12</v>
       </c>
       <c r="E147" s="10" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="F147" t="s">
-        <v>1150</v>
+        <v>1138</v>
       </c>
       <c r="G147" s="6" t="s">
-        <v>154</v>
+        <v>148</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>1149</v>
+        <v>1137</v>
       </c>
       <c r="I147" s="17" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="J147" s="14" t="s">
-        <v>857</v>
+        <v>851</v>
       </c>
     </row>
     <row r="148" spans="1:10" x14ac:dyDescent="0.3">
@@ -12126,25 +12176,25 @@
       </c>
       <c r="D148" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S14 E13</v>
+        <v>S14E13</v>
       </c>
       <c r="E148" s="20" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F148" t="s">
-        <v>1153</v>
+        <v>1141</v>
       </c>
       <c r="G148" s="5" t="s">
-        <v>155</v>
+        <v>149</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>1152</v>
+        <v>1140</v>
       </c>
       <c r="I148" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J148" s="14" t="s">
-        <v>858</v>
+        <v>852</v>
       </c>
     </row>
     <row r="149" spans="1:10" x14ac:dyDescent="0.3">
@@ -12159,25 +12209,25 @@
       </c>
       <c r="D149" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E1</v>
+        <v>S15E1</v>
       </c>
       <c r="E149" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>1155</v>
+        <v>402</v>
+      </c>
+      <c r="F149" s="25" t="s">
+        <v>1143</v>
       </c>
       <c r="G149" s="5" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>1154</v>
+        <v>1142</v>
       </c>
       <c r="I149" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J149" s="14" t="s">
-        <v>746</v>
+        <v>740</v>
       </c>
     </row>
     <row r="150" spans="1:10" x14ac:dyDescent="0.3">
@@ -12192,25 +12242,25 @@
       </c>
       <c r="D150" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E2</v>
+        <v>S15E2</v>
       </c>
       <c r="E150" s="10" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F150" t="s">
-        <v>1165</v>
+        <v>1153</v>
       </c>
       <c r="G150" s="5" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>1156</v>
+        <v>1144</v>
       </c>
       <c r="I150" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J150" s="14" t="s">
-        <v>747</v>
+        <v>741</v>
       </c>
     </row>
     <row r="151" spans="1:10" x14ac:dyDescent="0.3">
@@ -12225,25 +12275,25 @@
       </c>
       <c r="D151" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E3</v>
+        <v>S15E3</v>
       </c>
       <c r="E151" s="10" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="F151" t="s">
-        <v>1166</v>
+        <v>1154</v>
       </c>
       <c r="G151" s="5" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>1157</v>
+        <v>1145</v>
       </c>
       <c r="I151" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J151" s="14" t="s">
-        <v>748</v>
+        <v>742</v>
       </c>
     </row>
     <row r="152" spans="1:10" x14ac:dyDescent="0.3">
@@ -12258,25 +12308,25 @@
       </c>
       <c r="D152" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E4</v>
+        <v>S15E4</v>
       </c>
       <c r="E152" s="10" t="s">
-        <v>411</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>1167</v>
+        <v>405</v>
+      </c>
+      <c r="F152" s="25" t="s">
+        <v>1155</v>
       </c>
       <c r="G152" s="5" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>1158</v>
+        <v>1146</v>
       </c>
       <c r="I152" s="17" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="J152" s="14" t="s">
-        <v>749</v>
+        <v>743</v>
       </c>
     </row>
     <row r="153" spans="1:10" x14ac:dyDescent="0.3">
@@ -12291,25 +12341,25 @@
       </c>
       <c r="D153" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E5</v>
+        <v>S15E5</v>
       </c>
       <c r="E153" s="10" t="s">
-        <v>412</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>1168</v>
+        <v>406</v>
+      </c>
+      <c r="F153" s="25" t="s">
+        <v>1156</v>
       </c>
       <c r="G153" s="5" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="H153" s="3" t="s">
-        <v>1159</v>
+        <v>1147</v>
       </c>
       <c r="I153" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J153" s="14" t="s">
-        <v>750</v>
+        <v>744</v>
       </c>
     </row>
     <row r="154" spans="1:10" x14ac:dyDescent="0.3">
@@ -12324,23 +12374,25 @@
       </c>
       <c r="D154" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E6</v>
+        <v>S15E6</v>
       </c>
       <c r="E154" s="10" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F154" t="s">
-        <v>1169</v>
+        <v>1157</v>
       </c>
       <c r="G154" s="6" t="s">
-        <v>1161</v>
+        <v>1149</v>
       </c>
       <c r="H154" s="3" t="s">
-        <v>1160</v>
-      </c>
-      <c r="I154" s="17"/>
+        <v>1148</v>
+      </c>
+      <c r="I154" s="17" t="s">
+        <v>1061</v>
+      </c>
       <c r="J154" s="14" t="s">
-        <v>751</v>
+        <v>745</v>
       </c>
     </row>
     <row r="155" spans="1:10" x14ac:dyDescent="0.3">
@@ -12355,25 +12407,25 @@
       </c>
       <c r="D155" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E7</v>
+        <v>S15E7</v>
       </c>
       <c r="E155" s="10" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="F155" t="s">
-        <v>1170</v>
+        <v>1158</v>
       </c>
       <c r="G155" s="5" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H155" s="3" t="s">
-        <v>1163</v>
+        <v>1151</v>
       </c>
       <c r="I155" s="17" t="s">
-        <v>96</v>
+        <v>1423</v>
       </c>
       <c r="J155" s="14" t="s">
-        <v>752</v>
+        <v>746</v>
       </c>
     </row>
     <row r="156" spans="1:10" x14ac:dyDescent="0.3">
@@ -12388,25 +12440,25 @@
       </c>
       <c r="D156" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E8</v>
+        <v>S15E8</v>
       </c>
       <c r="E156" s="10" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F156" t="s">
-        <v>1171</v>
+        <v>1159</v>
       </c>
       <c r="G156" s="5" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H156" s="3" t="s">
-        <v>1164</v>
+        <v>1152</v>
       </c>
       <c r="I156" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J156" s="14" t="s">
-        <v>753</v>
+        <v>747</v>
       </c>
     </row>
     <row r="157" spans="1:10" x14ac:dyDescent="0.3">
@@ -12421,25 +12473,25 @@
       </c>
       <c r="D157" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E9</v>
+        <v>S15E9</v>
       </c>
       <c r="E157" s="10" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="F157" t="s">
-        <v>1177</v>
+        <v>1165</v>
       </c>
       <c r="G157" s="5" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="H157" s="3" t="s">
-        <v>1172</v>
+        <v>1160</v>
       </c>
       <c r="I157" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J157" s="14" t="s">
-        <v>754</v>
+        <v>748</v>
       </c>
     </row>
     <row r="158" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -12454,25 +12506,25 @@
       </c>
       <c r="D158" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E10</v>
+        <v>S15E10</v>
       </c>
       <c r="E158" s="10" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F158" t="s">
-        <v>1178</v>
+        <v>1166</v>
       </c>
       <c r="G158" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="H158" s="3" t="s">
-        <v>1173</v>
+        <v>1161</v>
       </c>
       <c r="I158" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J158" s="14" t="s">
-        <v>755</v>
+        <v>749</v>
       </c>
     </row>
     <row r="159" spans="1:10" x14ac:dyDescent="0.3">
@@ -12487,25 +12539,25 @@
       </c>
       <c r="D159" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E11</v>
+        <v>S15E11</v>
       </c>
       <c r="E159" s="10" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="F159" t="s">
-        <v>1179</v>
+        <v>1167</v>
       </c>
       <c r="G159" s="6" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="H159" s="3" t="s">
-        <v>1174</v>
+        <v>1162</v>
       </c>
       <c r="I159" s="17" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="J159" s="14" t="s">
-        <v>756</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:10" x14ac:dyDescent="0.3">
@@ -12520,25 +12572,25 @@
       </c>
       <c r="D160" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E12</v>
+        <v>S15E12</v>
       </c>
       <c r="E160" s="10" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="F160" t="s">
-        <v>1180</v>
+        <v>1168</v>
       </c>
       <c r="G160" s="6" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="H160" s="3" t="s">
-        <v>1175</v>
+        <v>1163</v>
       </c>
       <c r="I160" s="17" t="s">
-        <v>1181</v>
+        <v>1169</v>
       </c>
       <c r="J160" s="14" t="s">
-        <v>757</v>
+        <v>751</v>
       </c>
     </row>
     <row r="161" spans="1:10" x14ac:dyDescent="0.3">
@@ -12553,25 +12605,25 @@
       </c>
       <c r="D161" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S15 E13</v>
+        <v>S15E13</v>
       </c>
       <c r="E161" s="10" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="F161" t="s">
-        <v>1182</v>
+        <v>1170</v>
       </c>
       <c r="G161" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H161" s="3" t="s">
-        <v>1176</v>
+        <v>1164</v>
       </c>
       <c r="I161" s="17" t="s">
-        <v>1183</v>
+        <v>1171</v>
       </c>
       <c r="J161" s="14" t="s">
-        <v>758</v>
+        <v>752</v>
       </c>
     </row>
     <row r="162" spans="1:10" x14ac:dyDescent="0.3">
@@ -12586,25 +12638,25 @@
       </c>
       <c r="D162" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E1</v>
+        <v>S16E1</v>
       </c>
       <c r="E162" s="10" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F162" s="16" t="s">
-        <v>1190</v>
+        <v>1178</v>
       </c>
       <c r="G162" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H162" s="3" t="s">
-        <v>1184</v>
+        <v>1172</v>
       </c>
       <c r="I162" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J162" s="14" t="s">
-        <v>759</v>
+        <v>753</v>
       </c>
     </row>
     <row r="163" spans="1:10" x14ac:dyDescent="0.3">
@@ -12619,25 +12671,25 @@
       </c>
       <c r="D163" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E2</v>
+        <v>S16E2</v>
       </c>
       <c r="E163" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="F163" s="3" t="s">
-        <v>1191</v>
+        <v>416</v>
+      </c>
+      <c r="F163" s="25" t="s">
+        <v>1179</v>
       </c>
       <c r="G163" s="6" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H163" s="3" t="s">
-        <v>1185</v>
+        <v>1173</v>
       </c>
       <c r="I163" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J163" s="14" t="s">
-        <v>760</v>
+        <v>754</v>
       </c>
     </row>
     <row r="164" spans="1:10" x14ac:dyDescent="0.3">
@@ -12652,25 +12704,25 @@
       </c>
       <c r="D164" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E3</v>
+        <v>S16E3</v>
       </c>
       <c r="E164" s="10" t="s">
-        <v>423</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>1192</v>
+        <v>417</v>
+      </c>
+      <c r="F164" s="25" t="s">
+        <v>1180</v>
       </c>
       <c r="G164" s="5" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H164" s="3" t="s">
-        <v>1186</v>
+        <v>1174</v>
       </c>
       <c r="I164" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J164" s="14" t="s">
-        <v>761</v>
+        <v>755</v>
       </c>
     </row>
     <row r="165" spans="1:10" x14ac:dyDescent="0.3">
@@ -12685,25 +12737,25 @@
       </c>
       <c r="D165" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E4</v>
+        <v>S16E4</v>
       </c>
       <c r="E165" s="10" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="F165" t="s">
-        <v>1193</v>
+        <v>1181</v>
       </c>
       <c r="G165" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="H165" s="3" t="s">
-        <v>1187</v>
+        <v>1175</v>
       </c>
       <c r="I165" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J165" s="14" t="s">
-        <v>762</v>
+        <v>756</v>
       </c>
     </row>
     <row r="166" spans="1:10" x14ac:dyDescent="0.3">
@@ -12718,25 +12770,25 @@
       </c>
       <c r="D166" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E5</v>
+        <v>S16E5</v>
       </c>
       <c r="E166" s="10" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F166" t="s">
-        <v>1194</v>
+        <v>1182</v>
       </c>
       <c r="G166" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="H166" s="3" t="s">
-        <v>1188</v>
+        <v>1176</v>
       </c>
       <c r="I166" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J166" s="14" t="s">
-        <v>763</v>
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="1:10" x14ac:dyDescent="0.3">
@@ -12751,25 +12803,25 @@
       </c>
       <c r="D167" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E6</v>
+        <v>S16E6</v>
       </c>
       <c r="E167" s="10" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="F167" t="s">
-        <v>1195</v>
+        <v>1183</v>
       </c>
       <c r="G167" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="H167" s="3" t="s">
-        <v>1189</v>
+        <v>1177</v>
       </c>
       <c r="I167" s="17" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="J167" s="14" t="s">
-        <v>764</v>
+        <v>758</v>
       </c>
     </row>
     <row r="168" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -12784,25 +12836,25 @@
       </c>
       <c r="D168" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E7</v>
+        <v>S16E7</v>
       </c>
       <c r="E168" s="10" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F168" t="s">
-        <v>1196</v>
+        <v>1184</v>
       </c>
       <c r="G168" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H168" s="3" t="s">
-        <v>1197</v>
+        <v>1185</v>
       </c>
       <c r="I168" s="17" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="J168" s="14" t="s">
-        <v>765</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169" spans="1:10" x14ac:dyDescent="0.3">
@@ -12817,25 +12869,25 @@
       </c>
       <c r="D169" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E8</v>
+        <v>S16E8</v>
       </c>
       <c r="E169" s="10" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="F169" t="s">
-        <v>1204</v>
+        <v>1192</v>
       </c>
       <c r="G169" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="H169" s="3" t="s">
-        <v>1198</v>
+        <v>1186</v>
       </c>
       <c r="I169" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J169" s="14" t="s">
-        <v>766</v>
+        <v>760</v>
       </c>
     </row>
     <row r="170" spans="1:10" x14ac:dyDescent="0.3">
@@ -12850,25 +12902,25 @@
       </c>
       <c r="D170" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E9</v>
+        <v>S16E9</v>
       </c>
       <c r="E170" s="10" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F170" t="s">
-        <v>1205</v>
+        <v>1193</v>
       </c>
       <c r="G170" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="H170" s="3" t="s">
-        <v>1199</v>
+        <v>1187</v>
       </c>
       <c r="I170" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J170" s="14" t="s">
-        <v>767</v>
+        <v>761</v>
       </c>
     </row>
     <row r="171" spans="1:10" x14ac:dyDescent="0.3">
@@ -12883,25 +12935,25 @@
       </c>
       <c r="D171" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E10</v>
+        <v>S16E10</v>
       </c>
       <c r="E171" s="10" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="F171" t="s">
-        <v>1206</v>
+        <v>1194</v>
       </c>
       <c r="G171" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H171" s="3" t="s">
-        <v>1200</v>
+        <v>1188</v>
       </c>
       <c r="I171" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J171" s="14" t="s">
-        <v>768</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="1:10" x14ac:dyDescent="0.3">
@@ -12916,25 +12968,25 @@
       </c>
       <c r="D172" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E11</v>
+        <v>S16E11</v>
       </c>
       <c r="E172" s="10" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F172" t="s">
-        <v>1207</v>
+        <v>1195</v>
       </c>
       <c r="G172" s="6" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="H172" s="3" t="s">
-        <v>1201</v>
+        <v>1189</v>
       </c>
       <c r="I172" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J172" s="14" t="s">
-        <v>769</v>
+        <v>763</v>
       </c>
     </row>
     <row r="173" spans="1:10" x14ac:dyDescent="0.3">
@@ -12949,25 +13001,25 @@
       </c>
       <c r="D173" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E12</v>
+        <v>S16E12</v>
       </c>
       <c r="E173" s="10" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="F173" t="s">
-        <v>1208</v>
+        <v>1196</v>
       </c>
       <c r="G173" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H173" s="3" t="s">
-        <v>1202</v>
+        <v>1190</v>
       </c>
       <c r="I173" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J173" s="14" t="s">
-        <v>770</v>
+        <v>764</v>
       </c>
     </row>
     <row r="174" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -12982,25 +13034,25 @@
       </c>
       <c r="D174" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S16 E13</v>
+        <v>S16E13</v>
       </c>
       <c r="E174" s="10" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F174" t="s">
-        <v>1209</v>
+        <v>1197</v>
       </c>
       <c r="G174" s="6" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H174" s="3" t="s">
-        <v>1203</v>
+        <v>1191</v>
       </c>
       <c r="I174" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J174" s="14" t="s">
-        <v>771</v>
+        <v>765</v>
       </c>
     </row>
     <row r="175" spans="1:10" x14ac:dyDescent="0.3">
@@ -13015,25 +13067,25 @@
       </c>
       <c r="D175" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E1</v>
+        <v>S17E1</v>
       </c>
       <c r="E175" s="10" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="F175" t="s">
-        <v>1211</v>
+        <v>1199</v>
       </c>
       <c r="G175" s="5" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H175" s="3" t="s">
-        <v>1210</v>
+        <v>1198</v>
       </c>
       <c r="I175" s="17" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="J175" s="14" t="s">
-        <v>881</v>
+        <v>875</v>
       </c>
     </row>
     <row r="176" spans="1:10" x14ac:dyDescent="0.3">
@@ -13048,25 +13100,25 @@
       </c>
       <c r="D176" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E2</v>
+        <v>S17E2</v>
       </c>
       <c r="E176" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="F176" s="3" t="s">
-        <v>1220</v>
+        <v>429</v>
+      </c>
+      <c r="F176" s="25" t="s">
+        <v>1208</v>
       </c>
       <c r="G176" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H176" s="3" t="s">
-        <v>1213</v>
+        <v>1201</v>
       </c>
       <c r="I176" s="17" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="J176" s="14" t="s">
-        <v>882</v>
+        <v>876</v>
       </c>
     </row>
     <row r="177" spans="1:10" x14ac:dyDescent="0.3">
@@ -13081,25 +13133,25 @@
       </c>
       <c r="D177" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E3</v>
+        <v>S17E3</v>
       </c>
       <c r="E177" s="10" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="F177" t="s">
-        <v>1221</v>
+        <v>1209</v>
       </c>
       <c r="G177" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H177" s="3" t="s">
-        <v>1214</v>
+        <v>1202</v>
       </c>
       <c r="I177" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J177" s="14" t="s">
-        <v>772</v>
+        <v>766</v>
       </c>
     </row>
     <row r="178" spans="1:10" x14ac:dyDescent="0.3">
@@ -13114,25 +13166,25 @@
       </c>
       <c r="D178" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E4</v>
+        <v>S17E4</v>
       </c>
       <c r="E178" s="10" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F178" t="s">
-        <v>1222</v>
+        <v>1210</v>
       </c>
       <c r="G178" s="6" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H178" s="3" t="s">
-        <v>1215</v>
+        <v>1203</v>
       </c>
       <c r="I178" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J178" s="14" t="s">
-        <v>773</v>
+        <v>767</v>
       </c>
     </row>
     <row r="179" spans="1:10" x14ac:dyDescent="0.3">
@@ -13147,25 +13199,25 @@
       </c>
       <c r="D179" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E5</v>
+        <v>S17E5</v>
       </c>
       <c r="E179" s="10" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="F179" t="s">
-        <v>1223</v>
+        <v>1211</v>
       </c>
       <c r="G179" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H179" s="3" t="s">
-        <v>1216</v>
+        <v>1204</v>
       </c>
       <c r="I179" s="17" t="s">
-        <v>1130</v>
+        <v>1118</v>
       </c>
       <c r="J179" s="14" t="s">
-        <v>774</v>
+        <v>768</v>
       </c>
     </row>
     <row r="180" spans="1:10" x14ac:dyDescent="0.3">
@@ -13180,25 +13232,25 @@
       </c>
       <c r="D180" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E6</v>
+        <v>S17E6</v>
       </c>
       <c r="E180" s="10" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F180" t="s">
-        <v>1224</v>
+        <v>1212</v>
       </c>
       <c r="G180" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H180" s="3" t="s">
-        <v>1217</v>
+        <v>1205</v>
       </c>
       <c r="I180" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J180" s="14" t="s">
-        <v>775</v>
+        <v>769</v>
       </c>
     </row>
     <row r="181" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -13213,25 +13265,25 @@
       </c>
       <c r="D181" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E7</v>
+        <v>S17E7</v>
       </c>
       <c r="E181" s="10" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="F181" t="s">
-        <v>1225</v>
+        <v>1213</v>
       </c>
       <c r="G181" s="6" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="H181" s="3" t="s">
-        <v>1218</v>
+        <v>1206</v>
       </c>
       <c r="I181" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J181" s="14" t="s">
-        <v>776</v>
+        <v>770</v>
       </c>
     </row>
     <row r="182" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -13246,22 +13298,22 @@
       </c>
       <c r="D182" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E8</v>
+        <v>S17E8</v>
       </c>
       <c r="E182" s="10" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="G182" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="H182" s="3" t="s">
-        <v>1219</v>
+        <v>1207</v>
       </c>
       <c r="I182" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J182" s="14" t="s">
-        <v>777</v>
+        <v>771</v>
       </c>
     </row>
     <row r="183" spans="1:10" x14ac:dyDescent="0.3">
@@ -13276,25 +13328,25 @@
       </c>
       <c r="D183" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E9</v>
+        <v>S17E9</v>
       </c>
       <c r="E183" s="10" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="F183" t="s">
-        <v>1227</v>
+        <v>1215</v>
       </c>
       <c r="G183" s="5" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="H183" s="3" t="s">
-        <v>1229</v>
+        <v>1217</v>
       </c>
       <c r="I183" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J183" s="14" t="s">
-        <v>778</v>
+        <v>772</v>
       </c>
     </row>
     <row r="184" spans="1:10" x14ac:dyDescent="0.3">
@@ -13309,25 +13361,25 @@
       </c>
       <c r="D184" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E10</v>
+        <v>S17E10</v>
       </c>
       <c r="E184" s="10" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F184" t="s">
-        <v>1233</v>
+        <v>1221</v>
       </c>
       <c r="G184" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H184" s="3" t="s">
-        <v>1228</v>
+        <v>1216</v>
       </c>
       <c r="I184" s="17" t="s">
-        <v>939</v>
+        <v>932</v>
       </c>
       <c r="J184" s="14" t="s">
-        <v>779</v>
+        <v>773</v>
       </c>
     </row>
     <row r="185" spans="1:10" x14ac:dyDescent="0.3">
@@ -13342,25 +13394,25 @@
       </c>
       <c r="D185" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E11</v>
+        <v>S17E11</v>
       </c>
       <c r="E185" s="10" t="s">
-        <v>444</v>
-      </c>
-      <c r="F185" s="3" t="s">
-        <v>1234</v>
+        <v>438</v>
+      </c>
+      <c r="F185" s="25" t="s">
+        <v>1222</v>
       </c>
       <c r="G185" s="6" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="H185" s="3" t="s">
-        <v>1230</v>
+        <v>1218</v>
       </c>
       <c r="I185" s="17" t="s">
-        <v>1235</v>
+        <v>1423</v>
       </c>
       <c r="J185" s="14" t="s">
-        <v>859</v>
+        <v>853</v>
       </c>
     </row>
     <row r="186" spans="1:10" x14ac:dyDescent="0.3">
@@ -13375,25 +13427,25 @@
       </c>
       <c r="D186" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E12</v>
+        <v>S17E12</v>
       </c>
       <c r="E186" s="10" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F186" t="s">
-        <v>1236</v>
+        <v>1223</v>
       </c>
       <c r="G186" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="H186" s="3" t="s">
-        <v>1231</v>
+        <v>1219</v>
       </c>
       <c r="I186" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J186" s="14" t="s">
-        <v>860</v>
+        <v>854</v>
       </c>
     </row>
     <row r="187" spans="1:10" x14ac:dyDescent="0.3">
@@ -13408,25 +13460,25 @@
       </c>
       <c r="D187" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S17 E13</v>
+        <v>S17E13</v>
       </c>
       <c r="E187" s="10" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="F187" t="s">
-        <v>1237</v>
+        <v>1224</v>
       </c>
       <c r="G187" s="5" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="H187" s="3" t="s">
-        <v>1232</v>
+        <v>1220</v>
       </c>
       <c r="I187" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J187" s="14" t="s">
-        <v>861</v>
+        <v>855</v>
       </c>
     </row>
     <row r="188" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -13441,25 +13493,25 @@
       </c>
       <c r="D188" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E1</v>
+        <v>S18E1</v>
       </c>
       <c r="E188" s="10" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F188" t="s">
-        <v>1245</v>
+        <v>1232</v>
       </c>
       <c r="G188" s="6" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H188" s="3" t="s">
-        <v>1238</v>
+        <v>1225</v>
       </c>
       <c r="I188" s="17" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="J188" s="14" t="s">
-        <v>780</v>
+        <v>774</v>
       </c>
     </row>
     <row r="189" spans="1:10" x14ac:dyDescent="0.3">
@@ -13474,25 +13526,25 @@
       </c>
       <c r="D189" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E2</v>
+        <v>S18E2</v>
       </c>
       <c r="E189" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="F189" s="3" t="s">
-        <v>1246</v>
+        <v>442</v>
+      </c>
+      <c r="F189" s="25" t="s">
+        <v>1233</v>
       </c>
       <c r="G189" s="5" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H189" s="3" t="s">
-        <v>1239</v>
+        <v>1226</v>
       </c>
       <c r="I189" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J189" s="14" t="s">
-        <v>781</v>
+        <v>775</v>
       </c>
     </row>
     <row r="190" spans="1:10" x14ac:dyDescent="0.3">
@@ -13507,25 +13559,25 @@
       </c>
       <c r="D190" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E3</v>
+        <v>S18E3</v>
       </c>
       <c r="E190" s="10" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F190" t="s">
-        <v>1247</v>
+        <v>1234</v>
       </c>
       <c r="G190" s="6" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="H190" s="3" t="s">
-        <v>1240</v>
+        <v>1227</v>
       </c>
       <c r="I190" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J190" s="14" t="s">
-        <v>782</v>
+        <v>776</v>
       </c>
     </row>
     <row r="191" spans="1:10" x14ac:dyDescent="0.3">
@@ -13540,25 +13592,25 @@
       </c>
       <c r="D191" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E4</v>
+        <v>S18E4</v>
       </c>
       <c r="E191" s="10" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="F191" t="s">
-        <v>1248</v>
+        <v>1235</v>
       </c>
       <c r="G191" s="6" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="H191" s="3" t="s">
-        <v>1241</v>
+        <v>1228</v>
       </c>
       <c r="I191" s="17" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="J191" s="14" t="s">
-        <v>783</v>
+        <v>777</v>
       </c>
     </row>
     <row r="192" spans="1:10" x14ac:dyDescent="0.3">
@@ -13573,25 +13625,25 @@
       </c>
       <c r="D192" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E5</v>
+        <v>S18E5</v>
       </c>
       <c r="E192" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="F192" s="3" t="s">
-        <v>1249</v>
+        <v>445</v>
+      </c>
+      <c r="F192" s="25" t="s">
+        <v>1236</v>
       </c>
       <c r="G192" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="H192" s="3" t="s">
-        <v>1242</v>
+        <v>1229</v>
       </c>
       <c r="I192" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J192" s="14" t="s">
-        <v>784</v>
+        <v>778</v>
       </c>
     </row>
     <row r="193" spans="1:10" x14ac:dyDescent="0.3">
@@ -13606,25 +13658,25 @@
       </c>
       <c r="D193" s="10" t="str">
         <f t="shared" si="2"/>
-        <v>S18 E6</v>
+        <v>S18E6</v>
       </c>
       <c r="E193" s="10" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="F193" t="s">
-        <v>1250</v>
+        <v>1237</v>
       </c>
       <c r="G193" s="5" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="H193" s="3" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="I193" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J193" s="14" t="s">
-        <v>785</v>
+        <v>779</v>
       </c>
     </row>
     <row r="194" spans="1:10" x14ac:dyDescent="0.3">
@@ -13638,26 +13690,26 @@
         <v>7</v>
       </c>
       <c r="D194" s="10" t="str">
-        <f t="shared" ref="D194:D257" si="3">"S" &amp; B194 &amp; " E" &amp; C194</f>
-        <v>S18 E7</v>
+        <f t="shared" ref="D194:D257" si="3">"S" &amp; B194 &amp; "E" &amp; C194</f>
+        <v>S18E7</v>
       </c>
       <c r="E194" s="10" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F194" t="s">
-        <v>1251</v>
+        <v>1238</v>
       </c>
       <c r="G194" s="6" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H194" s="3" t="s">
-        <v>1244</v>
+        <v>1231</v>
       </c>
       <c r="I194" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J194" s="14" t="s">
-        <v>786</v>
+        <v>780</v>
       </c>
     </row>
     <row r="195" spans="1:10" x14ac:dyDescent="0.3">
@@ -13672,25 +13724,25 @@
       </c>
       <c r="D195" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S18 E8</v>
+        <v>S18E8</v>
       </c>
       <c r="E195" s="10" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="F195" t="s">
-        <v>1255</v>
+        <v>1242</v>
       </c>
       <c r="G195" s="6" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="H195" s="3" t="s">
-        <v>1252</v>
+        <v>1239</v>
       </c>
       <c r="I195" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J195" s="14" t="s">
-        <v>787</v>
+        <v>781</v>
       </c>
     </row>
     <row r="196" spans="1:10" x14ac:dyDescent="0.3">
@@ -13705,25 +13757,25 @@
       </c>
       <c r="D196" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S18 E9</v>
+        <v>S18E9</v>
       </c>
       <c r="E196" s="10" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F196" t="s">
-        <v>1256</v>
+        <v>1243</v>
       </c>
       <c r="G196" s="5" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="H196" s="3" t="s">
-        <v>1253</v>
+        <v>1240</v>
       </c>
       <c r="I196" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J196" s="14" t="s">
-        <v>862</v>
+        <v>856</v>
       </c>
     </row>
     <row r="197" spans="1:10" x14ac:dyDescent="0.3">
@@ -13738,25 +13790,25 @@
       </c>
       <c r="D197" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S18 E10</v>
+        <v>S18E10</v>
       </c>
       <c r="E197" s="10" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="F197" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="G197" s="6" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="H197" s="3" t="s">
-        <v>1254</v>
+        <v>1241</v>
       </c>
       <c r="I197" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J197" s="14" t="s">
-        <v>863</v>
+        <v>857</v>
       </c>
     </row>
     <row r="198" spans="1:10" x14ac:dyDescent="0.3">
@@ -13771,25 +13823,25 @@
       </c>
       <c r="D198" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E1</v>
+        <v>S19E1</v>
       </c>
       <c r="E198" s="10" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F198" t="s">
-        <v>1265</v>
+        <v>1252</v>
       </c>
       <c r="G198" s="5" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="H198" s="3" t="s">
-        <v>1258</v>
+        <v>1245</v>
       </c>
       <c r="I198" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J198" s="14" t="s">
-        <v>788</v>
+        <v>782</v>
       </c>
     </row>
     <row r="199" spans="1:10" x14ac:dyDescent="0.3">
@@ -13804,25 +13856,25 @@
       </c>
       <c r="D199" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E2</v>
+        <v>S19E2</v>
       </c>
       <c r="E199" s="10" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="F199" t="s">
-        <v>1266</v>
+        <v>1253</v>
       </c>
       <c r="G199" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="H199" s="3" t="s">
-        <v>1259</v>
+        <v>1246</v>
       </c>
       <c r="I199" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J199" s="14" t="s">
-        <v>789</v>
+        <v>783</v>
       </c>
     </row>
     <row r="200" spans="1:10" x14ac:dyDescent="0.3">
@@ -13837,25 +13889,25 @@
       </c>
       <c r="D200" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E3</v>
+        <v>S19E3</v>
       </c>
       <c r="E200" s="10" t="s">
-        <v>459</v>
-      </c>
-      <c r="F200" s="3" t="s">
-        <v>1267</v>
+        <v>453</v>
+      </c>
+      <c r="F200" s="25" t="s">
+        <v>1254</v>
       </c>
       <c r="G200" s="5" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="H200" s="3" t="s">
-        <v>1260</v>
+        <v>1247</v>
       </c>
       <c r="I200" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J200" s="14" t="s">
-        <v>790</v>
+        <v>784</v>
       </c>
     </row>
     <row r="201" spans="1:10" x14ac:dyDescent="0.3">
@@ -13870,25 +13922,25 @@
       </c>
       <c r="D201" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E4</v>
+        <v>S19E4</v>
       </c>
       <c r="E201" s="10" t="s">
-        <v>460</v>
-      </c>
-      <c r="F201" s="3" t="s">
-        <v>1268</v>
+        <v>454</v>
+      </c>
+      <c r="F201" s="25" t="s">
+        <v>1255</v>
       </c>
       <c r="G201" s="6" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="H201" s="3" t="s">
-        <v>1261</v>
+        <v>1248</v>
       </c>
       <c r="I201" s="17" t="s">
-        <v>1269</v>
+        <v>1422</v>
       </c>
       <c r="J201" s="14" t="s">
-        <v>791</v>
+        <v>785</v>
       </c>
     </row>
     <row r="202" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -13903,25 +13955,25 @@
       </c>
       <c r="D202" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E5</v>
+        <v>S19E5</v>
       </c>
       <c r="E202" s="10" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F202" t="s">
-        <v>1270</v>
+        <v>1256</v>
       </c>
       <c r="G202" s="5" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
       <c r="H202" s="3" t="s">
-        <v>1262</v>
+        <v>1249</v>
       </c>
       <c r="I202" s="17" t="s">
-        <v>1212</v>
+        <v>1200</v>
       </c>
       <c r="J202" s="14" t="s">
-        <v>792</v>
+        <v>786</v>
       </c>
     </row>
     <row r="203" spans="1:10" x14ac:dyDescent="0.3">
@@ -13936,25 +13988,25 @@
       </c>
       <c r="D203" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E6</v>
+        <v>S19E6</v>
       </c>
       <c r="E203" s="10" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="F203" t="s">
-        <v>1271</v>
+        <v>1257</v>
       </c>
       <c r="G203" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="H203" s="3" t="s">
-        <v>1263</v>
+        <v>1250</v>
       </c>
       <c r="I203" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J203" s="14" t="s">
-        <v>793</v>
+        <v>787</v>
       </c>
     </row>
     <row r="204" spans="1:10" x14ac:dyDescent="0.3">
@@ -13969,25 +14021,25 @@
       </c>
       <c r="D204" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E7</v>
+        <v>S19E7</v>
       </c>
       <c r="E204" s="10" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F204" t="s">
-        <v>1272</v>
+        <v>1258</v>
       </c>
       <c r="G204" s="6" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="H204" s="3" t="s">
-        <v>1264</v>
+        <v>1251</v>
       </c>
       <c r="I204" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J204" s="14" t="s">
-        <v>794</v>
+        <v>788</v>
       </c>
     </row>
     <row r="205" spans="1:10" x14ac:dyDescent="0.3">
@@ -14002,25 +14054,25 @@
       </c>
       <c r="D205" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E8</v>
+        <v>S19E8</v>
       </c>
       <c r="E205" s="10" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="F205" t="s">
-        <v>1277</v>
+        <v>1263</v>
       </c>
       <c r="G205" s="5" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="H205" s="3" t="s">
-        <v>1273</v>
+        <v>1259</v>
       </c>
       <c r="I205" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J205" s="14" t="s">
-        <v>795</v>
+        <v>789</v>
       </c>
     </row>
     <row r="206" spans="1:10" x14ac:dyDescent="0.3">
@@ -14035,25 +14087,25 @@
       </c>
       <c r="D206" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E9</v>
+        <v>S19E9</v>
       </c>
       <c r="E206" s="10" t="s">
-        <v>465</v>
-      </c>
-      <c r="F206" s="3" t="s">
-        <v>1278</v>
+        <v>459</v>
+      </c>
+      <c r="F206" s="25" t="s">
+        <v>1264</v>
       </c>
       <c r="G206" s="5" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="H206" s="3" t="s">
-        <v>1274</v>
+        <v>1260</v>
       </c>
       <c r="I206" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J206" s="14" t="s">
-        <v>796</v>
+        <v>790</v>
       </c>
     </row>
     <row r="207" spans="1:10" x14ac:dyDescent="0.3">
@@ -14068,25 +14120,25 @@
       </c>
       <c r="D207" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E10</v>
+        <v>S19E10</v>
       </c>
       <c r="E207" s="10" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="F207" t="s">
-        <v>1279</v>
+        <v>1265</v>
       </c>
       <c r="G207" s="5" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="H207" s="3" t="s">
-        <v>1275</v>
+        <v>1261</v>
       </c>
       <c r="I207" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J207" s="14" t="s">
-        <v>864</v>
+        <v>858</v>
       </c>
     </row>
     <row r="208" spans="1:10" x14ac:dyDescent="0.3">
@@ -14101,25 +14153,25 @@
       </c>
       <c r="D208" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E11</v>
+        <v>S19E11</v>
       </c>
       <c r="E208" s="10" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F208" t="s">
-        <v>1280</v>
+        <v>1266</v>
       </c>
       <c r="G208" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="H208" s="3" t="s">
-        <v>1276</v>
+        <v>1262</v>
       </c>
       <c r="I208" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J208" s="14" t="s">
-        <v>865</v>
+        <v>859</v>
       </c>
     </row>
     <row r="209" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14134,18 +14186,18 @@
       </c>
       <c r="D209" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E12</v>
+        <v>S19E12</v>
       </c>
       <c r="E209" s="10" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G209" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H209" s="5"/>
       <c r="I209" s="17"/>
       <c r="J209" s="14" t="s">
-        <v>866</v>
+        <v>860</v>
       </c>
     </row>
     <row r="210" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14160,18 +14212,18 @@
       </c>
       <c r="D210" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S19 E13</v>
+        <v>S19E13</v>
       </c>
       <c r="E210" s="10" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="G210" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H210" s="5"/>
       <c r="I210" s="17"/>
       <c r="J210" s="14" t="s">
-        <v>797</v>
+        <v>791</v>
       </c>
     </row>
     <row r="211" spans="1:10" x14ac:dyDescent="0.3">
@@ -14186,25 +14238,25 @@
       </c>
       <c r="D211" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E1</v>
+        <v>S20E1</v>
       </c>
       <c r="E211" s="10" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="F211" t="s">
-        <v>1288</v>
+        <v>1274</v>
       </c>
       <c r="G211" s="5" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="H211" s="3" t="s">
-        <v>1281</v>
+        <v>1267</v>
       </c>
       <c r="I211" s="17" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="J211" s="14" t="s">
-        <v>867</v>
+        <v>861</v>
       </c>
     </row>
     <row r="212" spans="1:10" x14ac:dyDescent="0.3">
@@ -14219,25 +14271,25 @@
       </c>
       <c r="D212" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E2</v>
+        <v>S20E2</v>
       </c>
       <c r="E212" s="10" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F212" t="s">
-        <v>1290</v>
+        <v>1276</v>
       </c>
       <c r="G212" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="H212" s="3" t="s">
-        <v>1282</v>
+        <v>1268</v>
       </c>
       <c r="I212" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J212" s="14" t="s">
-        <v>798</v>
+        <v>792</v>
       </c>
     </row>
     <row r="213" spans="1:10" x14ac:dyDescent="0.3">
@@ -14252,25 +14304,25 @@
       </c>
       <c r="D213" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E3</v>
+        <v>S20E3</v>
       </c>
       <c r="E213" s="10" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="F213" t="s">
-        <v>1291</v>
+        <v>1277</v>
       </c>
       <c r="G213" s="6" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="H213" s="3" t="s">
-        <v>1283</v>
+        <v>1269</v>
       </c>
       <c r="I213" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J213" s="14" t="s">
-        <v>799</v>
+        <v>793</v>
       </c>
     </row>
     <row r="214" spans="1:10" x14ac:dyDescent="0.3">
@@ -14285,25 +14337,25 @@
       </c>
       <c r="D214" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E4</v>
+        <v>S20E4</v>
       </c>
       <c r="E214" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="F214" s="3" t="s">
-        <v>1292</v>
+        <v>467</v>
+      </c>
+      <c r="F214" s="25" t="s">
+        <v>1278</v>
       </c>
       <c r="G214" s="5" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="H214" s="3" t="s">
-        <v>1284</v>
+        <v>1270</v>
       </c>
       <c r="I214" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J214" s="14" t="s">
-        <v>800</v>
+        <v>794</v>
       </c>
     </row>
     <row r="215" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -14318,25 +14370,25 @@
       </c>
       <c r="D215" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E5</v>
+        <v>S20E5</v>
       </c>
       <c r="E215" s="10" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="F215" t="s">
-        <v>1293</v>
+        <v>1279</v>
       </c>
       <c r="G215" s="5" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="H215" s="3" t="s">
-        <v>1285</v>
+        <v>1271</v>
       </c>
       <c r="I215" s="17" t="s">
-        <v>1294</v>
+        <v>1280</v>
       </c>
       <c r="J215" s="14" t="s">
-        <v>801</v>
+        <v>795</v>
       </c>
     </row>
     <row r="216" spans="1:10" x14ac:dyDescent="0.3">
@@ -14351,25 +14403,25 @@
       </c>
       <c r="D216" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E6</v>
+        <v>S20E6</v>
       </c>
       <c r="E216" s="10" t="s">
-        <v>475</v>
-      </c>
-      <c r="F216" s="3" t="s">
-        <v>1295</v>
+        <v>469</v>
+      </c>
+      <c r="F216" s="25" t="s">
+        <v>1281</v>
       </c>
       <c r="G216" s="6" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="H216" s="3" t="s">
-        <v>1286</v>
+        <v>1272</v>
       </c>
       <c r="I216" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J216" s="14" t="s">
-        <v>802</v>
+        <v>796</v>
       </c>
     </row>
     <row r="217" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -14384,25 +14436,25 @@
       </c>
       <c r="D217" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E7</v>
+        <v>S20E7</v>
       </c>
       <c r="E217" s="10" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="F217" t="s">
-        <v>1296</v>
+        <v>1282</v>
       </c>
       <c r="G217" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="H217" s="3" t="s">
-        <v>1287</v>
+        <v>1273</v>
       </c>
       <c r="I217" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J217" s="14" t="s">
-        <v>803</v>
+        <v>797</v>
       </c>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.3">
@@ -14417,25 +14469,25 @@
       </c>
       <c r="D218" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E8</v>
+        <v>S20E8</v>
       </c>
       <c r="E218" s="10" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F218" t="s">
-        <v>1301</v>
+        <v>1287</v>
       </c>
       <c r="G218" s="6" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="H218" s="3" t="s">
-        <v>1297</v>
+        <v>1283</v>
       </c>
       <c r="I218" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J218" s="14" t="s">
-        <v>804</v>
+        <v>798</v>
       </c>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.3">
@@ -14450,25 +14502,25 @@
       </c>
       <c r="D219" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E9</v>
+        <v>S20E9</v>
       </c>
       <c r="E219" s="10" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="F219" t="s">
-        <v>1302</v>
+        <v>1288</v>
       </c>
       <c r="G219" s="5" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="H219" s="3" t="s">
-        <v>1298</v>
+        <v>1284</v>
       </c>
       <c r="I219" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J219" s="14" t="s">
-        <v>805</v>
+        <v>799</v>
       </c>
     </row>
     <row r="220" spans="1:10" ht="374.4" x14ac:dyDescent="0.3">
@@ -14483,25 +14535,25 @@
       </c>
       <c r="D220" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E10</v>
+        <v>S20E10</v>
       </c>
       <c r="E220" s="10" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F220" s="10" t="s">
-        <v>1303</v>
+        <v>1289</v>
       </c>
       <c r="G220" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="H220" s="3" t="s">
-        <v>1299</v>
+        <v>1285</v>
       </c>
       <c r="I220" s="17" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J220" s="14" t="s">
-        <v>806</v>
+        <v>800</v>
       </c>
     </row>
     <row r="221" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14516,25 +14568,25 @@
       </c>
       <c r="D221" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E11</v>
+        <v>S20E11</v>
       </c>
       <c r="E221" s="10" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="F221" t="s">
-        <v>1304</v>
+        <v>1290</v>
       </c>
       <c r="G221" s="5" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="H221" s="3" t="s">
-        <v>1300</v>
+        <v>1286</v>
       </c>
       <c r="I221" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J221" s="14" t="s">
-        <v>807</v>
+        <v>801</v>
       </c>
     </row>
     <row r="222" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -14549,21 +14601,21 @@
       </c>
       <c r="D222" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E12</v>
+        <v>S20E12</v>
       </c>
       <c r="E222" s="10" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F222" t="s">
-        <v>1305</v>
+        <v>1291</v>
       </c>
       <c r="G222" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H222" s="5"/>
       <c r="I222" s="17"/>
       <c r="J222" s="14" t="s">
-        <v>808</v>
+        <v>802</v>
       </c>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.3">
@@ -14578,21 +14630,21 @@
       </c>
       <c r="D223" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S20 E13</v>
+        <v>S20E13</v>
       </c>
       <c r="E223" s="10" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="F223" t="s">
-        <v>1306</v>
+        <v>1292</v>
       </c>
       <c r="G223" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H223" s="5"/>
       <c r="I223" s="17"/>
       <c r="J223" s="14" t="s">
-        <v>809</v>
+        <v>803</v>
       </c>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.3">
@@ -14607,25 +14659,25 @@
       </c>
       <c r="D224" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E1</v>
+        <v>S21E1</v>
       </c>
       <c r="E224" s="10" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F224" t="s">
-        <v>1312</v>
+        <v>1298</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>4</v>
       </c>
       <c r="H224" s="3" t="s">
-        <v>1307</v>
+        <v>1293</v>
       </c>
       <c r="I224" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J224" s="14" t="s">
-        <v>810</v>
+        <v>804</v>
       </c>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.3">
@@ -14640,25 +14692,25 @@
       </c>
       <c r="D225" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E2</v>
+        <v>S21E2</v>
       </c>
       <c r="E225" s="10" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="F225" t="s">
-        <v>1313</v>
+        <v>1299</v>
       </c>
       <c r="G225" s="6" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="H225" s="3" t="s">
-        <v>1308</v>
+        <v>1294</v>
       </c>
       <c r="I225" s="17" t="s">
-        <v>1314</v>
+        <v>1300</v>
       </c>
       <c r="J225" s="14" t="s">
-        <v>811</v>
+        <v>805</v>
       </c>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.3">
@@ -14673,25 +14725,25 @@
       </c>
       <c r="D226" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E3</v>
+        <v>S21E3</v>
       </c>
       <c r="E226" s="20" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F226" t="s">
-        <v>1315</v>
+        <v>1301</v>
       </c>
       <c r="G226" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="H226" s="3" t="s">
-        <v>1309</v>
+        <v>1295</v>
       </c>
       <c r="I226" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J226" s="14" t="s">
-        <v>812</v>
+        <v>806</v>
       </c>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.3">
@@ -14706,25 +14758,25 @@
       </c>
       <c r="D227" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E4</v>
+        <v>S21E4</v>
       </c>
       <c r="E227" s="20" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="F227" t="s">
-        <v>1316</v>
+        <v>1302</v>
       </c>
       <c r="G227" s="7" t="s">
-        <v>1317</v>
+        <v>1303</v>
       </c>
       <c r="H227" s="3" t="s">
-        <v>1310</v>
+        <v>1296</v>
       </c>
       <c r="I227" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J227" s="14" t="s">
-        <v>813</v>
+        <v>807</v>
       </c>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.3">
@@ -14739,23 +14791,23 @@
       </c>
       <c r="D228" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E5</v>
+        <v>S21E5</v>
       </c>
       <c r="E228" s="20" t="s">
-        <v>487</v>
-      </c>
-      <c r="F228" s="3" t="s">
-        <v>1318</v>
+        <v>481</v>
+      </c>
+      <c r="F228" s="25" t="s">
+        <v>1304</v>
       </c>
       <c r="G228" s="5" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="H228" s="3" t="s">
-        <v>1311</v>
+        <v>1297</v>
       </c>
       <c r="I228" s="17"/>
       <c r="J228" s="14" t="s">
-        <v>814</v>
+        <v>808</v>
       </c>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.3">
@@ -14770,25 +14822,25 @@
       </c>
       <c r="D229" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E6</v>
+        <v>S21E6</v>
       </c>
       <c r="E229" s="10" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="F229" t="s">
-        <v>1324</v>
+        <v>1310</v>
       </c>
       <c r="G229" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H229" s="3" t="s">
-        <v>1319</v>
+        <v>1305</v>
       </c>
       <c r="I229" s="17" t="s">
-        <v>1151</v>
+        <v>1139</v>
       </c>
       <c r="J229" s="14" t="s">
-        <v>815</v>
+        <v>809</v>
       </c>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.3">
@@ -14803,25 +14855,25 @@
       </c>
       <c r="D230" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E7</v>
+        <v>S21E7</v>
       </c>
       <c r="E230" s="10" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F230" t="s">
-        <v>1325</v>
+        <v>1311</v>
       </c>
       <c r="G230" s="6" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="H230" s="3" t="s">
-        <v>1320</v>
+        <v>1306</v>
       </c>
       <c r="I230" s="17" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="J230" s="14" t="s">
-        <v>816</v>
+        <v>810</v>
       </c>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.3">
@@ -14836,25 +14888,25 @@
       </c>
       <c r="D231" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E8</v>
+        <v>S21E8</v>
       </c>
       <c r="E231" s="10" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="F231" t="s">
-        <v>1326</v>
+        <v>1312</v>
       </c>
       <c r="G231" s="5" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="H231" s="3" t="s">
-        <v>1321</v>
+        <v>1307</v>
       </c>
       <c r="I231" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J231" s="14" t="s">
-        <v>817</v>
+        <v>811</v>
       </c>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.3">
@@ -14869,25 +14921,25 @@
       </c>
       <c r="D232" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E9</v>
+        <v>S21E9</v>
       </c>
       <c r="E232" s="10" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F232" t="s">
-        <v>1327</v>
+        <v>1313</v>
       </c>
       <c r="G232" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H232" s="3" t="s">
-        <v>1322</v>
+        <v>1308</v>
       </c>
       <c r="I232" s="17" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J232" s="14" t="s">
-        <v>868</v>
+        <v>862</v>
       </c>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.3">
@@ -14902,25 +14954,25 @@
       </c>
       <c r="D233" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E10</v>
+        <v>S21E10</v>
       </c>
       <c r="E233" s="20" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="F233" t="s">
-        <v>1328</v>
+        <v>1314</v>
       </c>
       <c r="G233" s="6" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H233" s="3" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="I233" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J233" s="14" t="s">
-        <v>869</v>
+        <v>863</v>
       </c>
     </row>
     <row r="234" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -14935,25 +14987,25 @@
       </c>
       <c r="D234" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E11</v>
+        <v>S21E11</v>
       </c>
       <c r="E234" s="10" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F234" t="s">
-        <v>1329</v>
+        <v>1315</v>
       </c>
       <c r="G234" s="6" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="H234" s="3" t="s">
-        <v>1330</v>
+        <v>1316</v>
       </c>
       <c r="I234" s="17" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="J234" s="14" t="s">
-        <v>818</v>
+        <v>812</v>
       </c>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.3">
@@ -14968,25 +15020,25 @@
       </c>
       <c r="D235" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E12</v>
+        <v>S21E12</v>
       </c>
       <c r="E235" s="10" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="F235" t="s">
-        <v>1331</v>
+        <v>1317</v>
       </c>
       <c r="G235" s="7" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="H235" s="3" t="s">
-        <v>1323</v>
+        <v>1309</v>
       </c>
       <c r="I235" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J235" s="14" t="s">
-        <v>870</v>
+        <v>864</v>
       </c>
     </row>
     <row r="236" spans="1:10" ht="86.4" x14ac:dyDescent="0.3">
@@ -15001,25 +15053,25 @@
       </c>
       <c r="D236" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E13</v>
+        <v>S21E13</v>
       </c>
       <c r="E236" s="10" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F236" t="s">
-        <v>1332</v>
+        <v>1318</v>
       </c>
       <c r="G236" s="5" t="s">
-        <v>1333</v>
+        <v>1319</v>
       </c>
       <c r="H236" s="5" t="s">
-        <v>1334</v>
+        <v>1320</v>
       </c>
       <c r="I236" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J236" s="14" t="s">
-        <v>819</v>
+        <v>813</v>
       </c>
     </row>
     <row r="237" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15034,23 +15086,23 @@
       </c>
       <c r="D237" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E14</v>
+        <v>S21E14</v>
       </c>
       <c r="E237" s="10" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="F237" s="16" t="s">
-        <v>1335</v>
+        <v>1321</v>
       </c>
       <c r="G237" s="5" t="s">
-        <v>1337</v>
+        <v>1323</v>
       </c>
       <c r="H237" s="3" t="s">
-        <v>1336</v>
+        <v>1322</v>
       </c>
       <c r="I237" s="17"/>
       <c r="J237" s="14" t="s">
-        <v>820</v>
+        <v>814</v>
       </c>
     </row>
     <row r="238" spans="1:10" ht="360" x14ac:dyDescent="0.3">
@@ -15065,25 +15117,25 @@
       </c>
       <c r="D238" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E15</v>
+        <v>S21E15</v>
       </c>
       <c r="E238" s="10" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F238" s="10" t="s">
-        <v>1338</v>
+        <v>1324</v>
       </c>
       <c r="G238" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="H238" s="3" t="s">
-        <v>1339</v>
+        <v>1325</v>
       </c>
       <c r="I238" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J238" s="14" t="s">
-        <v>871</v>
+        <v>865</v>
       </c>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.3">
@@ -15098,25 +15150,25 @@
       </c>
       <c r="D239" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E16</v>
+        <v>S21E16</v>
       </c>
       <c r="E239" s="10" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="F239" t="s">
-        <v>1340</v>
+        <v>1326</v>
       </c>
       <c r="G239" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="H239" s="3" t="s">
-        <v>1341</v>
+        <v>1327</v>
       </c>
       <c r="I239" s="17" t="s">
-        <v>1226</v>
+        <v>1214</v>
       </c>
       <c r="J239" s="14" t="s">
-        <v>821</v>
+        <v>815</v>
       </c>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.3">
@@ -15131,25 +15183,25 @@
       </c>
       <c r="D240" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E17</v>
+        <v>S21E17</v>
       </c>
       <c r="E240" s="10" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F240" t="s">
-        <v>1342</v>
+        <v>1328</v>
       </c>
       <c r="G240" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H240" s="3" t="s">
-        <v>1343</v>
+        <v>1329</v>
       </c>
       <c r="I240" s="17" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="J240" s="14" t="s">
-        <v>822</v>
+        <v>816</v>
       </c>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.3">
@@ -15164,25 +15216,25 @@
       </c>
       <c r="D241" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E18</v>
+        <v>S21E18</v>
       </c>
       <c r="E241" s="10" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="F241" t="s">
-        <v>1348</v>
+        <v>1334</v>
       </c>
       <c r="G241" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="H241" s="3" t="s">
-        <v>1344</v>
+        <v>1330</v>
       </c>
       <c r="I241" s="17" t="s">
-        <v>1139</v>
+        <v>1127</v>
       </c>
       <c r="J241" s="14" t="s">
-        <v>823</v>
+        <v>817</v>
       </c>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.3">
@@ -15197,25 +15249,25 @@
       </c>
       <c r="D242" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E19</v>
+        <v>S21E19</v>
       </c>
       <c r="E242" s="10" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F242" t="s">
-        <v>1349</v>
+        <v>1335</v>
       </c>
       <c r="G242" s="6" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="H242" s="3" t="s">
-        <v>1345</v>
+        <v>1331</v>
       </c>
       <c r="I242" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J242" s="14" t="s">
-        <v>824</v>
+        <v>818</v>
       </c>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.3">
@@ -15230,25 +15282,25 @@
       </c>
       <c r="D243" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E20</v>
+        <v>S21E20</v>
       </c>
       <c r="E243" s="10" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="F243" t="s">
-        <v>1350</v>
+        <v>1336</v>
       </c>
       <c r="G243" s="5" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="H243" s="3" t="s">
-        <v>1346</v>
+        <v>1332</v>
       </c>
       <c r="I243" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J243" s="14" t="s">
-        <v>825</v>
+        <v>819</v>
       </c>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.3">
@@ -15263,25 +15315,25 @@
       </c>
       <c r="D244" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E21</v>
+        <v>S21E21</v>
       </c>
       <c r="E244" s="10" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F244" t="s">
-        <v>1351</v>
+        <v>1337</v>
       </c>
       <c r="G244" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="H244" s="3" t="s">
-        <v>1347</v>
+        <v>1333</v>
       </c>
       <c r="I244" s="17" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="J244" s="14" t="s">
-        <v>883</v>
+        <v>877</v>
       </c>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.3">
@@ -15296,25 +15348,25 @@
       </c>
       <c r="D245" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E22</v>
+        <v>S21E22</v>
       </c>
       <c r="E245" s="10" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F245" s="16" t="s">
-        <v>1354</v>
+        <v>1340</v>
       </c>
       <c r="G245" s="5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H245" s="3" t="s">
-        <v>1352</v>
+        <v>1338</v>
       </c>
       <c r="I245" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J245" s="14" t="s">
-        <v>826</v>
+        <v>820</v>
       </c>
     </row>
     <row r="246" spans="1:10" x14ac:dyDescent="0.3">
@@ -15329,25 +15381,25 @@
       </c>
       <c r="D246" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E23</v>
+        <v>S21E23</v>
       </c>
       <c r="E246" s="10" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F246" t="s">
-        <v>1355</v>
+        <v>1341</v>
       </c>
       <c r="G246" s="6" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="H246" s="3" t="s">
-        <v>1353</v>
+        <v>1339</v>
       </c>
       <c r="I246" s="17" t="s">
-        <v>1073</v>
+        <v>1061</v>
       </c>
       <c r="J246" s="14" t="s">
-        <v>827</v>
+        <v>821</v>
       </c>
     </row>
     <row r="247" spans="1:10" ht="57.6" x14ac:dyDescent="0.3">
@@ -15362,25 +15414,25 @@
       </c>
       <c r="D247" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E24</v>
+        <v>S21E24</v>
       </c>
       <c r="E247" s="10" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="F247" t="s">
-        <v>1356</v>
+        <v>1342</v>
       </c>
       <c r="G247" s="6" t="s">
-        <v>886</v>
+        <v>880</v>
       </c>
       <c r="H247" s="23" t="s">
-        <v>887</v>
+        <v>881</v>
       </c>
       <c r="I247" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J247" s="14" t="s">
-        <v>828</v>
+        <v>822</v>
       </c>
     </row>
     <row r="248" spans="1:10" x14ac:dyDescent="0.3">
@@ -15395,25 +15447,25 @@
       </c>
       <c r="D248" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E25</v>
+        <v>S21E25</v>
       </c>
       <c r="E248" s="10" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F248" t="s">
-        <v>1357</v>
+        <v>1343</v>
       </c>
       <c r="G248" s="6" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="H248" s="3" t="s">
-        <v>1358</v>
+        <v>1344</v>
       </c>
       <c r="I248" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J248" s="14" t="s">
-        <v>829</v>
+        <v>823</v>
       </c>
     </row>
     <row r="249" spans="1:10" ht="40.799999999999997" x14ac:dyDescent="0.3">
@@ -15428,25 +15480,25 @@
       </c>
       <c r="D249" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E26</v>
+        <v>S21E26</v>
       </c>
       <c r="E249" s="10" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="F249" s="16" t="s">
-        <v>1359</v>
+        <v>1345</v>
       </c>
       <c r="G249" t="s">
-        <v>1360</v>
+        <v>1346</v>
       </c>
       <c r="H249" s="7" t="s">
-        <v>1361</v>
+        <v>1347</v>
       </c>
       <c r="I249" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J249" s="14" t="s">
-        <v>884</v>
+        <v>878</v>
       </c>
     </row>
     <row r="250" spans="1:10" x14ac:dyDescent="0.3">
@@ -15461,25 +15513,25 @@
       </c>
       <c r="D250" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E27</v>
+        <v>S21E27</v>
       </c>
       <c r="E250" s="10" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F250" s="16" t="s">
-        <v>1363</v>
+        <v>1349</v>
       </c>
       <c r="G250" s="5" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="H250" s="3" t="s">
-        <v>1362</v>
+        <v>1348</v>
       </c>
       <c r="I250" s="17" t="s">
-        <v>1269</v>
+        <v>1422</v>
       </c>
       <c r="J250" s="14" t="s">
-        <v>830</v>
+        <v>824</v>
       </c>
     </row>
     <row r="251" spans="1:10" ht="345.6" x14ac:dyDescent="0.3">
@@ -15494,23 +15546,23 @@
       </c>
       <c r="D251" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E28</v>
+        <v>S21E28</v>
       </c>
       <c r="E251" s="10" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="F251" s="10" t="s">
-        <v>1364</v>
+        <v>1350</v>
       </c>
       <c r="G251" s="6" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="H251" s="3" t="s">
-        <v>1365</v>
+        <v>1351</v>
       </c>
       <c r="I251" s="17"/>
       <c r="J251" s="14" t="s">
-        <v>872</v>
+        <v>866</v>
       </c>
     </row>
     <row r="252" spans="1:10" x14ac:dyDescent="0.3">
@@ -15525,25 +15577,25 @@
       </c>
       <c r="D252" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E29</v>
+        <v>S21E29</v>
       </c>
       <c r="E252" s="10" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F252" t="s">
-        <v>1369</v>
+        <v>1355</v>
       </c>
       <c r="G252" s="6" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="H252" s="3" t="s">
-        <v>1366</v>
+        <v>1352</v>
       </c>
       <c r="I252" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J252" s="14" t="s">
-        <v>831</v>
+        <v>825</v>
       </c>
     </row>
     <row r="253" spans="1:10" x14ac:dyDescent="0.3">
@@ -15558,25 +15610,25 @@
       </c>
       <c r="D253" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E30</v>
+        <v>S21E30</v>
       </c>
       <c r="E253" s="20" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="F253" t="s">
-        <v>1370</v>
+        <v>1356</v>
       </c>
       <c r="G253" s="5" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="H253" s="3" t="s">
-        <v>1367</v>
+        <v>1353</v>
       </c>
       <c r="I253" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J253" s="14" t="s">
-        <v>832</v>
+        <v>826</v>
       </c>
     </row>
     <row r="254" spans="1:10" x14ac:dyDescent="0.3">
@@ -15591,25 +15643,25 @@
       </c>
       <c r="D254" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E31</v>
+        <v>S21E31</v>
       </c>
       <c r="E254" s="10" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F254" t="s">
-        <v>1371</v>
+        <v>1357</v>
       </c>
       <c r="G254" s="5" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="H254" s="3" t="s">
-        <v>1368</v>
+        <v>1354</v>
       </c>
       <c r="I254" s="17" t="s">
-        <v>1235</v>
+        <v>1423</v>
       </c>
       <c r="J254" s="14" t="s">
-        <v>873</v>
+        <v>867</v>
       </c>
     </row>
     <row r="255" spans="1:10" x14ac:dyDescent="0.3">
@@ -15624,23 +15676,23 @@
       </c>
       <c r="D255" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E32</v>
+        <v>S21E32</v>
       </c>
       <c r="E255" s="10" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="F255" t="s">
-        <v>1372</v>
+        <v>1358</v>
       </c>
       <c r="G255" s="7" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="H255" s="7"/>
       <c r="I255" s="17" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="J255" s="14" t="s">
-        <v>833</v>
+        <v>827</v>
       </c>
     </row>
     <row r="256" spans="1:10" x14ac:dyDescent="0.3">
@@ -15655,25 +15707,25 @@
       </c>
       <c r="D256" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E33</v>
+        <v>S21E33</v>
       </c>
       <c r="E256" s="10" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F256" t="s">
-        <v>1374</v>
+        <v>1360</v>
       </c>
       <c r="G256" s="5" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="H256" s="3" t="s">
-        <v>1373</v>
+        <v>1359</v>
       </c>
       <c r="I256" s="17" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="J256" s="15" t="s">
-        <v>874</v>
+        <v>868</v>
       </c>
     </row>
     <row r="257" spans="1:10" x14ac:dyDescent="0.3">
@@ -15688,25 +15740,25 @@
       </c>
       <c r="D257" s="10" t="str">
         <f t="shared" si="3"/>
-        <v>S21 E34</v>
+        <v>S21E34</v>
       </c>
       <c r="E257" s="10" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="F257" t="s">
-        <v>1375</v>
+        <v>1361</v>
       </c>
       <c r="G257" s="5" t="s">
-        <v>1376</v>
+        <v>1362</v>
       </c>
       <c r="H257" s="5" t="s">
-        <v>1377</v>
+        <v>1363</v>
       </c>
       <c r="I257" s="17" t="s">
         <v>40</v>
       </c>
       <c r="J257" s="14" t="s">
-        <v>834</v>
+        <v>828</v>
       </c>
     </row>
     <row r="258" spans="1:10" ht="43.2" x14ac:dyDescent="0.3">
@@ -15720,26 +15772,26 @@
         <v>35</v>
       </c>
       <c r="D258" s="10" t="str">
-        <f t="shared" ref="D258:D282" si="4">"S" &amp; B258 &amp; " E" &amp; C258</f>
-        <v>S21 E35</v>
+        <f t="shared" ref="D258:D321" si="4">"S" &amp; B258 &amp; "E" &amp; C258</f>
+        <v>S21E35</v>
       </c>
       <c r="E258" s="10" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F258" t="s">
-        <v>1378</v>
+        <v>1364</v>
       </c>
       <c r="G258" s="5" t="s">
-        <v>1382</v>
+        <v>1368</v>
       </c>
       <c r="H258" s="5" t="s">
-        <v>1381</v>
+        <v>1367</v>
       </c>
       <c r="I258" s="17" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J258" s="14" t="s">
-        <v>875</v>
+        <v>869</v>
       </c>
     </row>
     <row r="259" spans="1:10" x14ac:dyDescent="0.3">
@@ -15754,25 +15806,25 @@
       </c>
       <c r="D259" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E36</v>
+        <v>S21E36</v>
       </c>
       <c r="E259" s="10" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="F259" t="s">
-        <v>1379</v>
+        <v>1365</v>
       </c>
       <c r="G259" s="5" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="H259" s="3" t="s">
-        <v>1380</v>
+        <v>1366</v>
       </c>
       <c r="I259" s="17" t="s">
-        <v>1116</v>
+        <v>1104</v>
       </c>
       <c r="J259" s="14" t="s">
-        <v>835</v>
+        <v>829</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -15787,25 +15839,25 @@
       </c>
       <c r="D260" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E37</v>
+        <v>S21E37</v>
       </c>
       <c r="E260" s="10" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F260" t="s">
-        <v>1383</v>
+        <v>1369</v>
       </c>
       <c r="G260" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H260" s="3" t="s">
-        <v>1384</v>
+        <v>1370</v>
       </c>
       <c r="I260" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J260" s="14" t="s">
-        <v>836</v>
+        <v>830</v>
       </c>
     </row>
     <row r="261" spans="1:10" x14ac:dyDescent="0.3">
@@ -15820,25 +15872,25 @@
       </c>
       <c r="D261" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E38</v>
+        <v>S21E38</v>
       </c>
       <c r="E261" s="20" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="F261" t="s">
-        <v>1385</v>
+        <v>1371</v>
       </c>
       <c r="G261" s="5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="H261" s="3" t="s">
-        <v>1386</v>
+        <v>1372</v>
       </c>
       <c r="I261" s="17" t="s">
-        <v>1134</v>
+        <v>1122</v>
       </c>
       <c r="J261" s="14" t="s">
-        <v>837</v>
+        <v>831</v>
       </c>
     </row>
     <row r="262" spans="1:10" x14ac:dyDescent="0.3">
@@ -15853,25 +15905,25 @@
       </c>
       <c r="D262" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E39</v>
+        <v>S21E39</v>
       </c>
       <c r="E262" s="10" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F262" t="s">
-        <v>1387</v>
+        <v>1373</v>
       </c>
       <c r="G262" s="6" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H262" s="23" t="s">
-        <v>1388</v>
+        <v>1374</v>
       </c>
       <c r="I262" s="17" t="s">
-        <v>1162</v>
+        <v>1150</v>
       </c>
       <c r="J262" s="14" t="s">
-        <v>838</v>
+        <v>832</v>
       </c>
     </row>
     <row r="263" spans="1:10" ht="20.399999999999999" x14ac:dyDescent="0.3">
@@ -15886,25 +15938,25 @@
       </c>
       <c r="D263" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E40</v>
+        <v>S21E40</v>
       </c>
       <c r="E263" s="10" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="F263" t="s">
-        <v>1389</v>
+        <v>1375</v>
       </c>
       <c r="G263" s="7" t="s">
-        <v>1390</v>
+        <v>1376</v>
       </c>
       <c r="H263" s="7" t="s">
-        <v>1391</v>
+        <v>1377</v>
       </c>
       <c r="I263" s="17" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="J263" s="14" t="s">
-        <v>839</v>
+        <v>833</v>
       </c>
     </row>
     <row r="264" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -15919,25 +15971,25 @@
       </c>
       <c r="D264" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E41</v>
+        <v>S21E41</v>
       </c>
       <c r="E264" s="10" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F264" t="s">
-        <v>1392</v>
+        <v>1378</v>
       </c>
       <c r="G264" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="H264" s="23" t="s">
-        <v>1393</v>
+        <v>1379</v>
       </c>
       <c r="I264" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J264" s="15" t="s">
-        <v>840</v>
+        <v>834</v>
       </c>
     </row>
     <row r="265" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -15952,25 +16004,25 @@
       </c>
       <c r="D265" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E42</v>
+        <v>S21E42</v>
       </c>
       <c r="E265" s="10" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="F265" t="s">
-        <v>1395</v>
+        <v>1381</v>
       </c>
       <c r="G265" s="6" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="H265" s="23" t="s">
-        <v>1394</v>
+        <v>1380</v>
       </c>
       <c r="I265" s="17" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="J265" s="14" t="s">
-        <v>876</v>
+        <v>870</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="316.8" x14ac:dyDescent="0.3">
@@ -15985,23 +16037,23 @@
       </c>
       <c r="D266" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E43</v>
+        <v>S21E43</v>
       </c>
       <c r="E266" s="10" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F266" s="10" t="s">
-        <v>1396</v>
+        <v>1382</v>
       </c>
       <c r="G266" s="5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="H266" s="3" t="s">
-        <v>1397</v>
+        <v>1383</v>
       </c>
       <c r="I266" s="17"/>
       <c r="J266" s="15" t="s">
-        <v>877</v>
+        <v>871</v>
       </c>
     </row>
     <row r="267" spans="1:10" x14ac:dyDescent="0.3">
@@ -16016,21 +16068,21 @@
       </c>
       <c r="D267" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E44</v>
+        <v>S21E44</v>
       </c>
       <c r="E267" s="10" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="F267" t="s">
-        <v>1398</v>
+        <v>1384</v>
       </c>
       <c r="G267" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H267" s="5"/>
       <c r="I267" s="17"/>
       <c r="J267" s="15" t="s">
-        <v>841</v>
+        <v>835</v>
       </c>
     </row>
     <row r="268" spans="1:10" x14ac:dyDescent="0.3">
@@ -16045,21 +16097,21 @@
       </c>
       <c r="D268" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E45</v>
+        <v>S21E45</v>
       </c>
       <c r="E268" s="20" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F268" t="s">
-        <v>1399</v>
+        <v>1385</v>
       </c>
       <c r="G268" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H268" s="5"/>
       <c r="I268" s="17"/>
       <c r="J268" s="14" t="s">
-        <v>842</v>
+        <v>836</v>
       </c>
     </row>
     <row r="269" spans="1:10" ht="115.2" x14ac:dyDescent="0.3">
@@ -16074,25 +16126,25 @@
       </c>
       <c r="D269" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E46</v>
+        <v>S21E46</v>
       </c>
       <c r="E269" s="10" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="F269" t="s">
-        <v>1400</v>
+        <v>1386</v>
       </c>
       <c r="G269" s="5" t="s">
-        <v>1401</v>
+        <v>1387</v>
       </c>
       <c r="H269" s="5" t="s">
-        <v>1433</v>
+        <v>1418</v>
       </c>
       <c r="I269" s="17" t="s">
-        <v>1144</v>
+        <v>1132</v>
       </c>
       <c r="J269" s="15" t="s">
-        <v>843</v>
+        <v>837</v>
       </c>
     </row>
     <row r="270" spans="1:10" x14ac:dyDescent="0.3">
@@ -16107,25 +16159,25 @@
       </c>
       <c r="D270" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E47</v>
+        <v>S21E47</v>
       </c>
       <c r="E270" s="20" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F270" t="s">
-        <v>1402</v>
+        <v>1388</v>
       </c>
       <c r="G270" s="5" t="s">
-        <v>1403</v>
+        <v>1389</v>
       </c>
       <c r="H270" s="5" t="s">
-        <v>1404</v>
+        <v>1390</v>
       </c>
       <c r="I270" s="17" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="J270" s="14" t="s">
-        <v>878</v>
+        <v>872</v>
       </c>
     </row>
     <row r="271" spans="1:10" x14ac:dyDescent="0.3">
@@ -16140,25 +16192,25 @@
       </c>
       <c r="D271" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E48</v>
+        <v>S21E48</v>
       </c>
       <c r="E271" s="10" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="F271" t="s">
-        <v>1405</v>
+        <v>1391</v>
       </c>
       <c r="G271" s="6" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="H271" s="3" t="s">
-        <v>1406</v>
+        <v>1392</v>
       </c>
       <c r="I271" s="17" t="s">
-        <v>76</v>
+        <v>1420</v>
       </c>
       <c r="J271" s="14" t="s">
-        <v>844</v>
+        <v>838</v>
       </c>
     </row>
     <row r="272" spans="1:10" x14ac:dyDescent="0.3">
@@ -16173,23 +16225,23 @@
       </c>
       <c r="D272" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E49</v>
+        <v>S21E49</v>
       </c>
       <c r="E272" s="10" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F272" t="s">
-        <v>1407</v>
+        <v>1393</v>
       </c>
       <c r="G272" s="7" t="s">
-        <v>1409</v>
+        <v>1395</v>
       </c>
       <c r="H272" s="7" t="s">
-        <v>1408</v>
+        <v>1394</v>
       </c>
       <c r="I272" s="17"/>
       <c r="J272" s="14" t="s">
-        <v>885</v>
+        <v>879</v>
       </c>
     </row>
     <row r="273" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16204,25 +16256,25 @@
       </c>
       <c r="D273" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E50</v>
+        <v>S21E50</v>
       </c>
       <c r="E273" s="10" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="F273" t="s">
-        <v>1410</v>
+        <v>1396</v>
       </c>
       <c r="G273" s="6" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="H273" s="23" t="s">
-        <v>1412</v>
+        <v>1398</v>
       </c>
       <c r="I273" s="17" t="s">
-        <v>1411</v>
+        <v>1397</v>
       </c>
       <c r="J273" s="14" t="s">
-        <v>845</v>
+        <v>839</v>
       </c>
     </row>
     <row r="274" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16237,25 +16289,25 @@
       </c>
       <c r="D274" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E51</v>
+        <v>S21E51</v>
       </c>
       <c r="E274" s="10" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F274" t="s">
-        <v>1413</v>
+        <v>1399</v>
       </c>
       <c r="G274" s="5" t="s">
-        <v>1414</v>
+        <v>1400</v>
       </c>
       <c r="H274" s="5" t="s">
-        <v>1415</v>
+        <v>1401</v>
       </c>
       <c r="I274" s="17" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="J274" s="14" t="s">
-        <v>846</v>
+        <v>840</v>
       </c>
     </row>
     <row r="275" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16270,25 +16322,25 @@
       </c>
       <c r="D275" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E52</v>
+        <v>S21E52</v>
       </c>
       <c r="E275" s="10" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="F275" t="s">
-        <v>1416</v>
+        <v>1402</v>
       </c>
       <c r="G275" s="5" t="s">
-        <v>1418</v>
+        <v>1404</v>
       </c>
       <c r="H275" s="5" t="s">
-        <v>1417</v>
+        <v>1403</v>
       </c>
       <c r="I275" s="17" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="J275" s="14" t="s">
-        <v>847</v>
+        <v>841</v>
       </c>
     </row>
     <row r="276" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16303,25 +16355,25 @@
       </c>
       <c r="D276" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E53</v>
+        <v>S21E53</v>
       </c>
       <c r="E276" s="20" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F276" t="s">
-        <v>1419</v>
+        <v>1405</v>
       </c>
       <c r="G276" s="5" t="s">
-        <v>1421</v>
+        <v>1407</v>
       </c>
       <c r="H276" s="5" t="s">
-        <v>1420</v>
+        <v>1406</v>
       </c>
       <c r="I276" s="17" t="s">
-        <v>1289</v>
+        <v>1275</v>
       </c>
       <c r="J276" s="14" t="s">
-        <v>848</v>
+        <v>842</v>
       </c>
     </row>
     <row r="277" spans="1:10" x14ac:dyDescent="0.3">
@@ -16336,25 +16388,25 @@
       </c>
       <c r="D277" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E54</v>
+        <v>S21E54</v>
       </c>
       <c r="E277" s="10" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="F277" t="s">
-        <v>1422</v>
+        <v>1408</v>
       </c>
       <c r="G277" s="6" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="H277" s="23" t="s">
-        <v>1423</v>
+        <v>1409</v>
       </c>
       <c r="I277" s="17" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="J277" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="278" spans="1:10" x14ac:dyDescent="0.3">
@@ -16369,23 +16421,23 @@
       </c>
       <c r="D278" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E55</v>
+        <v>S21E55</v>
       </c>
       <c r="E278" s="10" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F278" t="s">
-        <v>1424</v>
+        <v>1410</v>
       </c>
       <c r="G278" s="6" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="H278" s="23"/>
       <c r="I278" s="17" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="J278" s="14" t="s">
-        <v>849</v>
+        <v>843</v>
       </c>
     </row>
     <row r="279" spans="1:10" ht="28.8" x14ac:dyDescent="0.3">
@@ -16400,25 +16452,25 @@
       </c>
       <c r="D279" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E56</v>
+        <v>S21E56</v>
       </c>
       <c r="E279" s="20" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="F279" t="s">
-        <v>1425</v>
+        <v>1411</v>
       </c>
       <c r="G279" s="5" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H279" s="5" t="s">
-        <v>1426</v>
+        <v>1412</v>
       </c>
       <c r="I279" s="17" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="J279" s="14" t="s">
-        <v>850</v>
+        <v>844</v>
       </c>
     </row>
     <row r="280" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16433,25 +16485,25 @@
       </c>
       <c r="D280" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E57</v>
+        <v>S21E57</v>
       </c>
       <c r="E280" s="20" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F280" t="s">
-        <v>1428</v>
+        <v>1413</v>
       </c>
       <c r="G280" s="6" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="H280" s="23" t="s">
-        <v>1429</v>
+        <v>1414</v>
       </c>
       <c r="I280" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J280" s="14" t="s">
-        <v>851</v>
+        <v>845</v>
       </c>
     </row>
     <row r="281" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16466,21 +16518,21 @@
       </c>
       <c r="D281" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E58</v>
+        <v>S21E58</v>
       </c>
       <c r="E281" s="20" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="F281" t="s">
-        <v>1430</v>
+        <v>1415</v>
       </c>
       <c r="G281" s="5" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="H281" s="5"/>
       <c r="I281" s="17"/>
       <c r="J281" s="14" t="s">
-        <v>879</v>
+        <v>873</v>
       </c>
     </row>
     <row r="282" spans="1:10" ht="16.2" x14ac:dyDescent="0.3">
@@ -16495,25 +16547,25 @@
       </c>
       <c r="D282" s="10" t="str">
         <f t="shared" si="4"/>
-        <v>S21 E59</v>
+        <v>S21E59</v>
       </c>
       <c r="E282" s="10" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F282" t="s">
-        <v>1431</v>
+        <v>1416</v>
       </c>
       <c r="G282" s="6" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="H282" s="23" t="s">
-        <v>1432</v>
+        <v>1417</v>
       </c>
       <c r="I282" s="17" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="J282" s="14" t="s">
-        <v>880</v>
+        <v>874</v>
       </c>
     </row>
   </sheetData>
@@ -16630,170 +16682,147 @@
     <hyperlink ref="H113" r:id="rId110" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=55.271321_N_3.80762_W_type:event_region:GB_source:enwiki" xr:uid="{94147653-9FCD-4B75-A796-8854CC3E8DD9}"/>
     <hyperlink ref="H114" r:id="rId111" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=52.662008_N_0.29183_W_type:event_region:GB_source:enwiki" xr:uid="{2B135EF4-FEF2-44B3-A897-8EB18A84C5A2}"/>
     <hyperlink ref="H115" r:id="rId112" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=50.891844_N_1.288816_W_type:event_region:GB_source:enwiki" xr:uid="{5E774B14-A701-45B4-A4E3-39BFD5BEFEFF}"/>
-    <hyperlink ref="F118" r:id="rId113" tooltip="United States Air Force" display="https://en.wikipedia.org/wiki/United_States_Air_Force" xr:uid="{F6681A02-766F-4BDE-96DA-18772FCE0B13}"/>
-    <hyperlink ref="F117" r:id="rId114" tooltip="Draco (military standard)" display="https://en.wikipedia.org/wiki/Draco_(military_standard)" xr:uid="{B971A915-4159-4596-BBA5-A77B3E341BB5}"/>
-    <hyperlink ref="H116" r:id="rId115" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=51.778168_N_2.29093_W_type:event_region:GB_source:enwiki" xr:uid="{1D8603EC-78E5-4450-825B-15D7371A2FB0}"/>
-    <hyperlink ref="H117" r:id="rId116" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=56.162351_N_3.057839_W_type:event_region:GB_source:enwiki" xr:uid="{63E7B8A2-F65D-4E79-9138-B1146D17029C}"/>
-    <hyperlink ref="H118" r:id="rId117" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=51.798826_N_1.06306_E_type:event_region:GB_source:enwiki" xr:uid="{0DF84EF0-38B0-4D8C-BE01-5E9EF61F8FEA}"/>
-    <hyperlink ref="H119" r:id="rId118" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=50.844866_N_2.752691_W_type:event_region:GB_source:enwiki" xr:uid="{275558C4-EEFD-46EE-B233-601A21922870}"/>
-    <hyperlink ref="H120" r:id="rId119" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=53.967614_N_0.213551_W_type:event_region:GB_source:enwiki" xr:uid="{2B64F69E-0C1C-4149-B4F2-1424BF84C8F0}"/>
-    <hyperlink ref="H121" r:id="rId120" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=55.000462_N_1.432911_W_type:event_region:GB_source:enwiki" xr:uid="{D05E2BA8-0176-441E-A149-83A41A7F0F8F}"/>
-    <hyperlink ref="H122" r:id="rId121" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=52.126082_N_0.873735_W_type:event_region:GB_source:enwiki" xr:uid="{9DE9F709-6DA1-463C-8716-DB058C803713}"/>
-    <hyperlink ref="H123" r:id="rId122" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=52.423777_N_0.757779_W_type:event_region:GB_source:enwiki" xr:uid="{66890C65-24E0-4524-9661-EF33221FC386}"/>
-    <hyperlink ref="F123" r:id="rId123" tooltip="Glenn Foard" display="https://en.wikipedia.org/wiki/Glenn_Foard" xr:uid="{9D1176AE-D8A2-4A10-9164-588235C56BA6}"/>
-    <hyperlink ref="H124" r:id="rId124" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.832918_N_1.952569_W_type:event_region:GB_source:enwiki" xr:uid="{908A3866-DE37-4486-A665-491DF33DCAE8}"/>
-    <hyperlink ref="H125" r:id="rId125" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=53.487311_N_2.236522_W_type:event_region:GB_source:enwiki" xr:uid="{5AC30C47-9DFE-4BD6-A83F-74DD18819488}"/>
-    <hyperlink ref="H126" r:id="rId126" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.37374_N_0.376815_W_type:event_region:GB_source:enwiki" xr:uid="{B63B75E2-6B1E-4352-8ED2-E7E6A8B64A02}"/>
-    <hyperlink ref="H127" r:id="rId127" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=52.080317_N_5.023004_E_type:event_region:GB_source:enwiki" xr:uid="{6C89FE34-E841-40F2-9D6C-284D5541A1BE}"/>
-    <hyperlink ref="H128" r:id="rId128" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.256012_N_1.312794_E_type:event_region:GB_source:enwiki" xr:uid="{77143186-39D2-4666-83E6-E19DFC7C365F}"/>
-    <hyperlink ref="H129" r:id="rId129" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=54.062747_N_1.662743_W_type:event_region:GB_source:enwiki" xr:uid="{E9039ED2-8864-43BC-93E3-DC3DA0765AB2}"/>
-    <hyperlink ref="H130" r:id="rId130" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.416134_N_0.748727_E_type:event_region:GB_source:enwiki" xr:uid="{EE596A72-CAEC-4FB9-A1EE-403A71A26E0F}"/>
-    <hyperlink ref="F127" r:id="rId131" tooltip="Fleur Kemmers" display="https://en.wikipedia.org/wiki/Fleur_Kemmers" xr:uid="{754F7155-6D06-4F01-8358-228D322E1EC8}"/>
-    <hyperlink ref="F128" r:id="rId132" tooltip="History of Anglo-Saxon England" display="https://en.wikipedia.org/wiki/History_of_Anglo-Saxon_England" xr:uid="{6212C8DB-B966-4E93-B3DF-47530D7A5BB9}"/>
-    <hyperlink ref="H131" r:id="rId133" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=50.874978_N_0.443323_W_type:event_region:GB_source:enwiki" xr:uid="{ED8E739D-260A-4430-B73D-8E26089804A0}"/>
-    <hyperlink ref="H132" r:id="rId134" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.82505_N_1.232742_W_type:event_region:GB_source:enwiki" xr:uid="{D6351216-2154-41BB-B399-A84366E08776}"/>
-    <hyperlink ref="H133" r:id="rId135" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=53.090283_N_3.069603_W_type:event_region:GB_source:enwiki" xr:uid="{57B080FF-286D-4571-9F21-F4F940B851A1}"/>
-    <hyperlink ref="H134" r:id="rId136" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.0852_N_0.4046_W_type:event_region:GB_source:enwiki" xr:uid="{DB385543-D8EA-4102-AFB2-4919171EE2D5}"/>
-    <hyperlink ref="H135" r:id="rId137" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=57.43176_N_5.81387_W_type:event_region:GB_source:enwiki" xr:uid="{70CB7122-A44A-41E0-A69A-11A2BCE8EBAE}"/>
-    <hyperlink ref="F135" r:id="rId138" tooltip="Broch" display="https://en.wikipedia.org/wiki/Broch" xr:uid="{D0055707-3946-45B7-9515-371FDF35666C}"/>
-    <hyperlink ref="H136" r:id="rId139" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=54.140615_N_4.552331_W_type:event_region:IM_source:enwiki" xr:uid="{5BAB4C40-BC16-4344-8A13-EED87FA19F26}"/>
-    <hyperlink ref="H137" r:id="rId140" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.28541_N_2.336253_W_type:event_region:GB_source:enwiki" xr:uid="{0D126803-DB55-4801-BD61-09331F1C20C9}"/>
-    <hyperlink ref="H138" r:id="rId141" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.800806_N_2.666475_W_type:event_region:GB_source:enwiki" xr:uid="{9FFB5A82-E6CC-4946-885A-59A0A541A8FF}"/>
-    <hyperlink ref="H139" r:id="rId142" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.405465_N_4.395224_W_type:event_region:GB_source:enwiki" xr:uid="{3628E664-345F-4FD7-B4CE-44C1AE0EDCA2}"/>
-    <hyperlink ref="H140" r:id="rId143" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.076135_N_1.130013_E_type:event_region:GB_source:enwiki" xr:uid="{2F34D8FD-12ED-4104-8DDB-8FFB075F9921}"/>
-    <hyperlink ref="H141" r:id="rId144" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=52.493863_N_0.27964_W_type:event_region:GB_source:enwiki" xr:uid="{41CE6330-CBE8-4EC4-B416-3AF5F1702EE4}"/>
-    <hyperlink ref="F137" r:id="rId145" tooltip="The Stranglers" display="https://en.wikipedia.org/wiki/The_Stranglers" xr:uid="{910F1925-658F-4133-8645-0945F5780AAB}"/>
-    <hyperlink ref="F140" r:id="rId146" tooltip="Shorncliffe Redoubt" display="https://en.wikipedia.org/wiki/Shorncliffe_Redoubt" xr:uid="{34B1AEF9-02F5-4B17-AE89-505BCAD632D1}"/>
-    <hyperlink ref="H142" r:id="rId147" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=52.04817_N_0.914954_W_type:event_region:GB_source:enwiki" xr:uid="{B2CA71AC-601F-453C-90B9-43FFDC90EE9D}"/>
-    <hyperlink ref="H143" r:id="rId148" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.396554_N_2.438536_W_type:event_region:GB_source:enwiki" xr:uid="{9715E1E2-43D5-4984-BD7B-566822CF092B}"/>
-    <hyperlink ref="H144" r:id="rId149" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.689403_N_3.295137_W_type:event_region:GB_source:enwiki" xr:uid="{7B5EE0DA-2E65-4B89-B907-3B51781C3F8F}"/>
-    <hyperlink ref="H145" r:id="rId150" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.688032_N_0.600434_W_type:event_region:GB_source:enwiki" xr:uid="{FE760A0B-1EAE-4842-BEF4-E06F9818394E}"/>
-    <hyperlink ref="H146" r:id="rId151" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.2401_N_0.0666_W_type:event_region:GB_source:enwiki" xr:uid="{59916BC1-6A3D-461B-A5F4-2DCED7CB09C5}"/>
-    <hyperlink ref="H147" r:id="rId152" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.125909_N_2.888253_W_type:event_region:GB_source:enwiki" xr:uid="{67110666-A0F5-4AEE-9018-29F1363E4313}"/>
-    <hyperlink ref="H148" r:id="rId153" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.603806_N_4.627464_W_type:event_region:GB_source:enwiki" xr:uid="{64BE10EE-22E0-44EA-831A-17DD05F0C6A3}"/>
-    <hyperlink ref="H149" r:id="rId154" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=53.045125_N_1.354947_W_type:event_region:GB_source:enwiki" xr:uid="{96E9879C-3179-4B33-9084-0AE0B57218CE}"/>
-    <hyperlink ref="F149" r:id="rId155" tooltip="Sarah Speight" display="https://en.wikipedia.org/wiki/Sarah_Speight" xr:uid="{6D02B283-C168-484C-AEBA-8F3435409E19}"/>
-    <hyperlink ref="H150" r:id="rId156" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.676036_N_1.674253_W_type:event_region:GB_source:enwiki" xr:uid="{A413C0B1-F758-43A5-AD6A-E61FA5F4A7E4}"/>
-    <hyperlink ref="H151" r:id="rId157" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=56.995162_N_7.509125_W_type:event_region:GB_source:enwiki" xr:uid="{760EB07C-E4C9-47A3-93CC-01C3F19B31FF}"/>
-    <hyperlink ref="H152" r:id="rId158" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=52.150658_N_0.95281_W_type:event_region:GB_source:enwiki" xr:uid="{D7FDCB56-9E43-4DE1-8279-6EFA36986229}"/>
-    <hyperlink ref="H153" r:id="rId159" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.835399_N_2.049679_W_type:event_region:GB_source:enwiki" xr:uid="{CFED07A5-FCD2-44E7-A22C-D39C0B2E5C20}"/>
-    <hyperlink ref="H154" r:id="rId160" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.470522_N_0.071049_E_type:event_region:GB_source:enwiki" xr:uid="{CE1A5AF1-3B75-4DE8-A4D1-53A9EEE9D355}"/>
-    <hyperlink ref="H155" r:id="rId161" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.356569_N_2.509777_W_type:event_region:GB_source:enwiki" xr:uid="{47CB33F1-437C-44F5-A645-E303D247AAD5}"/>
-    <hyperlink ref="H156" r:id="rId162" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=52.533367_N_0.908772_W_type:event_region:GB_source:enwiki" xr:uid="{D716027D-B457-40E7-B34A-1C86BD794515}"/>
-    <hyperlink ref="F152" r:id="rId163" tooltip="Cistercians" display="https://en.wikipedia.org/wiki/Cistercians" xr:uid="{C42A6F71-5C53-42C0-9A3C-28F9942DD6CD}"/>
-    <hyperlink ref="F153" r:id="rId164" tooltip="Roman mosaic" display="https://en.wikipedia.org/wiki/Roman_mosaic" xr:uid="{69BCAD1F-8571-41F5-9333-45F70BC45822}"/>
-    <hyperlink ref="H157" r:id="rId165" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.5058_N_6.7674_W_type:event_region:GB_source:enwiki" xr:uid="{CD885551-C9E7-4CF9-87A6-9527FFEF3B8C}"/>
-    <hyperlink ref="H158" r:id="rId166" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=50.556811_N_4.951477_W_type:event_region:GB_source:enwiki" xr:uid="{53D65BC8-D6C3-4089-877A-254DA144E639}"/>
-    <hyperlink ref="H159" r:id="rId167" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.692457_N_1.840365_W_type:event_region:GB_source:enwiki" xr:uid="{D032CAA5-A974-425C-9141-8CAE2DDB26C3}"/>
-    <hyperlink ref="H160" r:id="rId168" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=53.336229_N_0.358506_W_type:event_region:GB_source:enwiki" xr:uid="{4A1F1AB4-0A6D-4BDA-87F3-FC6FE4152B6E}"/>
-    <hyperlink ref="H161" r:id="rId169" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.58904_N_2.725399_W_type:event_region:GB_source:enwiki" xr:uid="{CCBFC1FD-32F5-4EA0-92AA-B8969B371D5B}"/>
-    <hyperlink ref="H162" r:id="rId170" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.8193_N_0.4045_W_type:event_region:GB_source:enwiki" xr:uid="{B6CBA896-45CF-4C4D-A63D-D7ABDFFA2DB5}"/>
-    <hyperlink ref="H163" r:id="rId171" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.49173_N_1.91868_W_type:event_region:GB_source:enwiki" xr:uid="{FB28CFBD-AB09-4D2B-A97C-B6D567590D04}"/>
-    <hyperlink ref="H164" r:id="rId172" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.89111_N_5.905278_W_type:event_region:GB_source:enwiki" xr:uid="{21CF7FC8-9CE2-4E25-A842-A32F37A4B89B}"/>
-    <hyperlink ref="H165" r:id="rId173" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.6133_N_2.77_W_type:event_region:GB_source:enwiki" xr:uid="{1D707FE1-248E-419C-B223-6CB876986696}"/>
-    <hyperlink ref="H166" r:id="rId174" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.29789_N_2.35983_W_type:event_region:GB_source:enwiki" xr:uid="{371F8DE4-2762-4A40-BF07-D67F7939196A}"/>
-    <hyperlink ref="H167" r:id="rId175" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.064722_N_1.7975_W_type:event_region:GB_source:enwiki" xr:uid="{CEED60E9-48BB-4078-B183-F22C5DB6F194}"/>
-    <hyperlink ref="F163" r:id="rId176" tooltip="Gatehouse" display="https://en.wikipedia.org/wiki/Gatehouse" xr:uid="{45F895C7-A677-42FE-BEEF-D3425B9A98CB}"/>
-    <hyperlink ref="F164" r:id="rId177" tooltip="Bronze Age" display="https://en.wikipedia.org/wiki/Bronze_Age" xr:uid="{6A25E32F-2ED3-4E25-AD8C-9FB5739C5390}"/>
-    <hyperlink ref="H168" r:id="rId178" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.693081_N_1.588644_W_type:event_region:GB_source:enwiki" xr:uid="{B67F0014-858A-4DD4-A63B-1DF2E8A8A078}"/>
-    <hyperlink ref="H169" r:id="rId179" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.23212_N_0.57711_W_type:event_region:GB_source:enwiki" xr:uid="{C1553507-8210-488E-BE8B-C8289F84B91F}"/>
-    <hyperlink ref="H170" r:id="rId180" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=50.34086_N_4.45412_W_type:event_region:GB_source:enwiki" xr:uid="{BA46BC26-911A-41E6-9B3A-DF3338654185}"/>
-    <hyperlink ref="H171" r:id="rId181" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.516448_N_0.11376_W_type:event_region:GB_source:enwiki" xr:uid="{195C5A43-AC13-425A-A6E8-9940726426D4}"/>
-    <hyperlink ref="H172" r:id="rId182" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.415706_N_0.028039_W_type:event_region:GB_source:enwiki" xr:uid="{B1F0F180-E158-4B11-8397-AA8407C698BA}"/>
-    <hyperlink ref="H173" r:id="rId183" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.549014_N_1.649417_W_type:event_region:GB_source:enwiki" xr:uid="{B42C6BCC-0CC0-4B38-801E-C1EF1D4C75E3}"/>
-    <hyperlink ref="H174" r:id="rId184" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.32183_N_1.5964_E_type:event_region:GB_source:enwiki" xr:uid="{4D0894CE-B831-43FE-A26A-B32B3DB251B0}"/>
-    <hyperlink ref="H175" r:id="rId185" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_29_58_N_0_07_39_W_region:GB_type:event" xr:uid="{2F46CD3F-3B7A-4E2B-90CD-DC8AE21DF74F}"/>
-    <hyperlink ref="H176" r:id="rId186" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=56_36_42_N_6_04_52_W_type:event_region:GB" xr:uid="{E2DF8B82-7EFD-41DB-A2B3-5DCE82545D47}"/>
-    <hyperlink ref="H177" r:id="rId187" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=54_32_7_N_1_40_28_W_type:event_region:GB" xr:uid="{FBB978A2-ED0D-41F6-8D81-5BA8BCD240AA}"/>
-    <hyperlink ref="H178" r:id="rId188" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_38_23_N_1_17_43_W_type:event_region:GB" xr:uid="{D40AF63A-FCE5-4C93-A95A-FD534693D201}"/>
-    <hyperlink ref="F176" r:id="rId189" tooltip="Tobermory, Mull" display="https://en.wikipedia.org/wiki/Tobermory,_Mull" xr:uid="{9D75A473-63DE-4726-9090-2BA8EDCB2EAC}"/>
-    <hyperlink ref="H179" r:id="rId190" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_23_45_N_2_55_54_W_type:event_region:GB" xr:uid="{9E10B6FF-6B77-41A2-9AF5-3A6CFEB326F1}"/>
-    <hyperlink ref="H180" r:id="rId191" tooltip="Tobermory, Mull" display="https://en.wikipedia.org/wiki/Tobermory,_Mull" xr:uid="{EF654C5A-507E-406A-B951-A44CE74B5CF7}"/>
-    <hyperlink ref="H184" r:id="rId192" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_48_28_N_1_38_13_W_type:event_region:GB" xr:uid="{07BABD06-DBBC-4936-B6DC-1ADF3510C68B}"/>
-    <hyperlink ref="H183" r:id="rId193" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=50_47_19_N_1_06_11_W_type:event_region:GB" xr:uid="{72E5B1FA-75C1-470F-9900-6E9042BD2501}"/>
-    <hyperlink ref="H185" r:id="rId194" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_03_57_N_0_05_14_W_type:event_region:GB" xr:uid="{0631D485-D2A6-4823-91E4-BE0E80977E94}"/>
-    <hyperlink ref="H186" r:id="rId195" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_09_39_N_2_42_04_W_type:event_region:GB" xr:uid="{2E062A3E-167C-47F8-8C90-DB9BE7501B74}"/>
-    <hyperlink ref="H187" r:id="rId196" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_35_13_N_00_27_35_W_type:event_region:GB" xr:uid="{F61C6037-AAC1-4F49-BB2E-B249E03C5256}"/>
-    <hyperlink ref="F185" r:id="rId197" tooltip="Ben Robinson" display="https://en.wikipedia.org/wiki/Ben_Robinson" xr:uid="{4376FD8D-F80F-46F4-8270-DD71BE1BDB85}"/>
-    <hyperlink ref="H188" r:id="rId198" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=50_38_9.6_N_3_40_58.8_W_region:GB_type:event" xr:uid="{5F7E914F-059B-4FC9-9436-2F5084F61555}"/>
-    <hyperlink ref="H189" r:id="rId199" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_31_33_N_0_56_24_W_type:event_region:GB" xr:uid="{C709E3EF-CBDD-4E0A-BD45-3033E248A244}"/>
-    <hyperlink ref="H190" r:id="rId200" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_3_42_N_2_49_35_W_type:event_region:GB" xr:uid="{00395ADD-DAC8-4B83-AA91-63E5C4790B5E}"/>
-    <hyperlink ref="H191" r:id="rId201" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=49_12_35_N_2_9_36_W_type:event_region:GB" xr:uid="{77600EA1-A710-490B-A184-D86D8CCF0650}"/>
-    <hyperlink ref="H192" r:id="rId202" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=54_54_14_N_1_47_50_W_type:event_region:GB" xr:uid="{8B595EA3-26D2-4D6B-AD9E-0B271A2D2EDC}"/>
-    <hyperlink ref="H193" r:id="rId203" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_34_22_N_0_20_34_W_type:event_region:GB" xr:uid="{FDAEB5B4-9296-4159-945A-0A75E153EE47}"/>
-    <hyperlink ref="H194" r:id="rId204" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_39_50_N_1_13_37_W_type:event_region:GB" xr:uid="{4EC0BAA2-813A-45CB-B288-13A18F3950BA}"/>
-    <hyperlink ref="F189" r:id="rId205" tooltip="Anglo-Saxons" display="https://en.wikipedia.org/wiki/Anglo-Saxons" xr:uid="{F7596C50-EDE7-4B1C-9083-594BF732A9ED}"/>
-    <hyperlink ref="F192" r:id="rId206" tooltip="Industrial Revolution" display="https://en.wikipedia.org/wiki/Industrial_Revolution" xr:uid="{D3A8568D-0732-44AD-8787-226895133800}"/>
-    <hyperlink ref="H195" r:id="rId207" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=49_11_58_N_2_1_10_W_type:event_region:GB" xr:uid="{953797CF-4AA0-4B50-A6E0-9A0925418A61}"/>
-    <hyperlink ref="H196" r:id="rId208" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_39_41_N_3_16_53_W_type:event_region:GB" xr:uid="{19B0109D-B17A-4720-9A6F-E61DB5151938}"/>
-    <hyperlink ref="H197" r:id="rId209" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_3_3_N_2_21_49_W_type:event_region:GB" xr:uid="{91448891-B3B9-4098-AF98-A86D5035F444}"/>
-    <hyperlink ref="H198" r:id="rId210" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_43_10_N_5_13_50_W_region:GB_type:landmark" xr:uid="{EAFC7098-85BE-4B46-9157-17A893720BFD}"/>
-    <hyperlink ref="H199" r:id="rId211" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_23_29_N_2_37_56_W_type:isle_region:GB" xr:uid="{9FA70E31-4772-4D94-A069-265489F55DDB}"/>
-    <hyperlink ref="H200" r:id="rId212" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_16_34_N_1_37_48_E_type:isle_region:GB" xr:uid="{EC5FAF86-E99E-4676-A29F-D57C2502050F}"/>
-    <hyperlink ref="H201" r:id="rId213" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_14_38_N_0_24_26_E_type:isle_region:GB" xr:uid="{F72E5F21-E5A4-434D-AD4E-A7F74E12C429}"/>
-    <hyperlink ref="H202" r:id="rId214" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=55_33_04_N_1_37_18_W_type:isle_region:GB" xr:uid="{7E82B80D-D935-40F1-80C4-8092745EBB31}"/>
-    <hyperlink ref="H203" r:id="rId215" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_38_02_N_3_55_59_W_type:isle_region:GB" xr:uid="{695CB204-E02D-4569-BA81-BE208F99C80C}"/>
-    <hyperlink ref="H204" r:id="rId216" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_55_36_N_0_42_36_E_type:isle_region:GB" xr:uid="{D6A06800-6C16-4762-8C3B-95A8A9D1F276}"/>
-    <hyperlink ref="F200" r:id="rId217" tooltip="Coastal erosion" display="https://en.wikipedia.org/wiki/Coastal_erosion" xr:uid="{48145014-7A6B-40F4-AB14-52A296FAC5F7}"/>
-    <hyperlink ref="F201" r:id="rId218" tooltip="National Horseracing Museum" display="https://en.wikipedia.org/wiki/National_Horseracing_Museum" xr:uid="{1F6D7155-CFA2-4BD7-8FF3-B6EEF845323F}"/>
-    <hyperlink ref="H205" r:id="rId219" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_31_44_N_3_43_44_W_type:isle_region:GB" xr:uid="{1EE16BDA-A439-4043-A178-BA43A95FEF4A}"/>
-    <hyperlink ref="H206" r:id="rId220" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_36_24_N_2_57_58_W_type:isle_region:GB" xr:uid="{D9815855-4990-4E07-AF27-BAC16C57CB96}"/>
-    <hyperlink ref="H207" r:id="rId221" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=50_53_32_N_2_49_29_W_type:isle_region:GB" xr:uid="{1DA32667-CAE9-469F-A8DA-358213E0A9A2}"/>
-    <hyperlink ref="H208" r:id="rId222" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=53_10_36_N_1_05_56_W_type:isle_region:GB" xr:uid="{674A8647-403D-47AE-BBF9-D05694274744}"/>
-    <hyperlink ref="F206" r:id="rId223" tooltip="Castra" display="https://en.wikipedia.org/wiki/Castra" xr:uid="{EBC5DF01-CF84-4E37-81C3-DF4BFC5E09B8}"/>
-    <hyperlink ref="H211" r:id="rId224" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_55_53_N_0_36_50_W_region:GB_type:landmark_dim:3000&amp;title=Belton+Park%2C+Lincolnshire" xr:uid="{9498F5BB-6B4A-440E-9BE2-C34831DF4838}"/>
-    <hyperlink ref="H212" r:id="rId225" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_57_50_N_0_39_07_E_region:GB_type:landmark&amp;title=Brancaster+Roman+fort+%28Branodunum%29" xr:uid="{079F5D2D-22AB-4BDB-8C24-F6D50E9803EE}"/>
-    <hyperlink ref="H213" r:id="rId226" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_28_02_N_3_14_55_W_region:GB_type:landmark&amp;title=Caerau+Hill%2C+Wales" xr:uid="{32DC44FC-23D7-454F-935A-12C326140901}"/>
-    <hyperlink ref="H214" r:id="rId227" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_20_30_N_1_36_4_E_region:GB_type:landmark&amp;title=Henham+Park" xr:uid="{2D04AB2E-F015-403A-A996-59E1F1A08D08}"/>
-    <hyperlink ref="H215" r:id="rId228" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_13_16_N_1_45_51_W_region:GB_type:landmark&amp;title=Barrow+Clump%2C+Wiltshire" xr:uid="{D5E6EE38-68EE-47C6-88B2-2BAA3008DF2C}"/>
-    <hyperlink ref="H216" r:id="rId229" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=54_22_52_N_3_6_11_W_region:GB_type:landmark&amp;title=Coniston+Fells" xr:uid="{9F36C68B-3E0E-4C15-8988-83505770F42B}"/>
-    <hyperlink ref="H217" r:id="rId230" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_40_15_N_0_43_39_W_region:GB_type:landmark&amp;title=Oakham+Castle" xr:uid="{76FF479B-E226-4007-B307-A128D3DA32A9}"/>
-    <hyperlink ref="F214" r:id="rId231" tooltip="Suzannah Lipscomb" display="https://en.wikipedia.org/wiki/Suzannah_Lipscomb" xr:uid="{87615BDF-B9D3-41C7-82BA-D51ADB567864}"/>
-    <hyperlink ref="F216" r:id="rId232" tooltip="Lake District" display="https://en.wikipedia.org/wiki/Lake_District" xr:uid="{B83D82B7-8592-4820-92E8-0EBF7A329593}"/>
-    <hyperlink ref="H218" r:id="rId233" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_38_30_N_1_17_14_W_region:GB_type:landmark&amp;title=Dropshort+Roman+Villa" xr:uid="{13DF9CEA-47B2-42BD-8ABC-F1C141B8CD7F}"/>
-    <hyperlink ref="H219" r:id="rId234" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=54_15_43_N_5_50_41_W_region:GB_type:landmark&amp;title=Dundrum+Castle" xr:uid="{110C344D-485C-4AE3-8F6A-82E3A162A5C5}"/>
-    <hyperlink ref="H220" r:id="rId235" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_38_02_N_0_26_14_W_region:GB_type:landmark&amp;title=Northwood+Prep+School" xr:uid="{7AC5FB9E-1443-4231-A34B-B435CD1D9032}"/>
-    <hyperlink ref="H221" r:id="rId236" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_42_25_N_4_52_07_W_region:GB_type:landmark&amp;title=Upton+Castle" xr:uid="{A6F47666-4642-4F9E-8B1C-4A2BD2C6D040}"/>
-    <hyperlink ref="H224" r:id="rId237" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.59603_N_2.55719_W_type:event_region:GB_source:enwiki&amp;title=Much+Wenlock+Guildhall" xr:uid="{CB4B6236-CAC2-4E73-A51A-DEC2AE74390E}"/>
-    <hyperlink ref="H225" r:id="rId238" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.961241_N_1.082367_W_type:event_region:GB_source:enwiki&amp;title=Barley+Hall" xr:uid="{8E930152-E110-414A-9DFE-8BA341ACEE0C}"/>
-    <hyperlink ref="H226" r:id="rId239" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.967997_N_0.518536_E_type:event_region:GB_source:enwiki&amp;title=Seahenge" xr:uid="{44FF7516-2112-4243-B5F9-FA3B680AE27F}"/>
-    <hyperlink ref="H227" r:id="rId240" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.667974_N_4.759928_W_type:event_region:GB_source:enwiki&amp;title=Tintagel" xr:uid="{0E87F7DA-9EF9-41A5-9584-78276B99568E}"/>
-    <hyperlink ref="H228" r:id="rId241" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=58.9384_N_2.851794_W_type:event_region:GB_source:enwiki&amp;title=Mine+Howe" xr:uid="{9BDB22ED-A48D-4557-95D7-EE6261373EF3}"/>
-    <hyperlink ref="F228" r:id="rId242" tooltip="Broch" display="https://en.wikipedia.org/wiki/Broch" xr:uid="{F32BFA1C-210B-4646-A0B9-343FBE527859}"/>
-    <hyperlink ref="H229" r:id="rId243" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.409_N_1.508833_W_type:event_region:GB_source:enwiki&amp;title=St.+Mary%27s+Priory+and+Cathedral" xr:uid="{BDA4F0B1-74D9-47FE-80C3-AA3A5D27C2E1}"/>
-    <hyperlink ref="H230" r:id="rId244" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.395086_N_0.267727_E_type:event_region:GB_source:enwiki&amp;title=Island+of+the+Eels" xr:uid="{1B10D670-C7B0-4F3F-94DB-F264F7EC2D73}"/>
-    <hyperlink ref="H231" r:id="rId245" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=47.811155_N_112.182327_W_type:event_region:US-MT_source:enwiki&amp;title=Dinosaur+Hunting" xr:uid="{3EF35A51-0EE2-4A7D-8CEE-71A4754299B2}"/>
-    <hyperlink ref="H232" r:id="rId246" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.277013_N_1.081759_E_type:event_region:GB_source:enwiki&amp;title=Canterbury" xr:uid="{F9DF95D2-9984-4D68-B89A-9055AEFEE4C4}"/>
-    <hyperlink ref="H233" r:id="rId247" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.514915_N_0.093061_W_type:event_region:GB_source:enwiki&amp;title=Londinium" xr:uid="{584A21F9-AA43-424C-99EC-30973C438629}"/>
-    <hyperlink ref="H234" r:id="rId248" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=49.935975_N_6.322117_W_type:event_region:GB_source:enwiki&amp;title=HMS+Colossus" xr:uid="{B59877FE-989B-4ACB-908F-51CAE713F8D5}"/>
-    <hyperlink ref="H235" r:id="rId249" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.514915_N_0.093061_W_type:event_region:GB_source:enwiki&amp;title=Londinium" xr:uid="{43E3062E-EFBF-4A04-9C82-8EBBFC2BBA6F}"/>
-    <hyperlink ref="H237" r:id="rId250" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.385858_N_1.465609_W_type:event_region:GB_source:enwiki" xr:uid="{4EA5EEB2-EDE9-45C1-918F-E101D0C45C3F}"/>
-    <hyperlink ref="H238" r:id="rId251" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=56.57194_N_4.082767_W_type:event_region:GB_source:enwiki&amp;title=Crannog+in+loch" xr:uid="{9158595E-88BC-4A08-9E46-780435A4BE07}"/>
-    <hyperlink ref="H239" r:id="rId252" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.258473_N_0.269655_E_type:event_region:GB_source:enwiki&amp;title=Ten+Million+Pound+House" xr:uid="{1F9B71A9-1C9D-4DFB-825A-623656B6CABD}"/>
-    <hyperlink ref="H240" r:id="rId253" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=49.324187_N_0.595621_W_type:event_region:FR_source:enwiki&amp;title=D-Day" xr:uid="{8ED7E5BE-FAA8-4CCB-A763-270BEF1F8EF5}"/>
-    <hyperlink ref="H241" r:id="rId254" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.553514_N_0.708365_E_type:event_region:GB_source:enwiki&amp;title=Prittlewell" xr:uid="{EF5B103D-78CD-475F-922A-6B6A1D494B43}"/>
-    <hyperlink ref="H242" r:id="rId255" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.883429_N_0.896732_E_type:event_region:GB_source:enwiki&amp;title=Camulodunum" xr:uid="{643C208C-D9B6-4E2D-AE63-F70042584F79}"/>
-    <hyperlink ref="H243" r:id="rId256" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.229263_N_0.440213_W_type:event_region:GB_source:enwiki&amp;title=Washingborough" xr:uid="{9759E808-55E1-4904-852B-6F531BCE2876}"/>
-    <hyperlink ref="H244" r:id="rId257" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.191838_N_1.783245_W_type:event_region:GB_source:enwiki&amp;title=Durrington+Walls" xr:uid="{022065B4-35A1-43D7-88B2-53857145CFDA}"/>
-    <hyperlink ref="H245" r:id="rId258" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.918038_N_2.849563_W_" xr:uid="{E1C3BC63-2A2C-400C-A81E-797010F34F09}"/>
-    <hyperlink ref="H246" r:id="rId259" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.534794_N_0.087354_W_" xr:uid="{E828E876-E6AE-4A00-8BD9-DBC60E6C3E06}"/>
-    <hyperlink ref="H248" r:id="rId260" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.328172_N_1.409773_E_type:event_region:GB_source:enwiki&amp;title=Pugin" xr:uid="{084C05CF-55A4-4007-83F2-11D3E8BCD066}"/>
-    <hyperlink ref="H250" r:id="rId261" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=37.210397_N_76.780618_W_type:event_region:US-VA_source:enwiki&amp;title=Jamestown" xr:uid="{55CD8B3C-0407-411B-9854-14C6D66B0088}"/>
-    <hyperlink ref="H251" r:id="rId262" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51_21_54_N_2_20_40_W_" xr:uid="{E938EF82-13EA-4941-9A15-FEC91E027E72}"/>
-    <hyperlink ref="H252" r:id="rId263" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=54.233_N_1.343_W_" xr:uid="{ECE31F21-12FC-4BB7-BC3F-0208B87368BD}"/>
-    <hyperlink ref="H253" r:id="rId264" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.483333_N_0.604167_W_" xr:uid="{AFCBD3BF-1866-4352-A527-3B003926CC8E}"/>
-    <hyperlink ref="H254" r:id="rId265" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.40303_N_2.988416_W_type:event_region:GB_source:enwiki&amp;title=The+Lost+Dock+of+Liverpool" xr:uid="{C75123DE-29C9-4A2E-979F-555662F46C33}"/>
-    <hyperlink ref="H256" r:id="rId266" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.872053_N_2.959452_E_type:event_region:BE_source:enwiki&amp;title=Lost+WW1+Dugout" xr:uid="{FA88347C-7F66-4194-8059-AC81135B5EF0}"/>
-    <hyperlink ref="H259" r:id="rId267" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.178889_N_1.826111_W_type:event_region:BE_source:enwiki&amp;title=Stonehenge" xr:uid="{7880511E-B532-471D-8321-78DD7A74E459}"/>
-    <hyperlink ref="H260" r:id="rId268" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.129628_N_1.321437_E_type:event_region:GB_source:enwiki&amp;title=Dover+Castle" xr:uid="{E7E25E5E-B323-4BA6-AA2C-0F7C1762B594}"/>
-    <hyperlink ref="H261" r:id="rId269" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.786_N_1.124_W_region:GB_scale:5000&amp;title=Royal+Hospital+Haslar" xr:uid="{6CCDF7D3-9D79-4DB4-A74E-FF4FF6687DE1}"/>
-    <hyperlink ref="H266" r:id="rId270" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=55_36_14_N_1_43_19_W_type:event_region:GB" xr:uid="{35F78DD8-6D21-4F62-81DD-D95E581233F3}"/>
-    <hyperlink ref="H271" r:id="rId271" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52_11_26_N_1_42_27_W_type:event_region:GB" xr:uid="{7AAD1886-F46B-4320-A11D-666F66173C76}"/>
+    <hyperlink ref="H116" r:id="rId113" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=51.778168_N_2.29093_W_type:event_region:GB_source:enwiki" xr:uid="{1D8603EC-78E5-4450-825B-15D7371A2FB0}"/>
+    <hyperlink ref="H117" r:id="rId114" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=56.162351_N_3.057839_W_type:event_region:GB_source:enwiki" xr:uid="{63E7B8A2-F65D-4E79-9138-B1146D17029C}"/>
+    <hyperlink ref="H118" r:id="rId115" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=51.798826_N_1.06306_E_type:event_region:GB_source:enwiki" xr:uid="{0DF84EF0-38B0-4D8C-BE01-5E9EF61F8FEA}"/>
+    <hyperlink ref="H119" r:id="rId116" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=50.844866_N_2.752691_W_type:event_region:GB_source:enwiki" xr:uid="{275558C4-EEFD-46EE-B233-601A21922870}"/>
+    <hyperlink ref="H120" r:id="rId117" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=53.967614_N_0.213551_W_type:event_region:GB_source:enwiki" xr:uid="{2B64F69E-0C1C-4149-B4F2-1424BF84C8F0}"/>
+    <hyperlink ref="H121" r:id="rId118" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=55.000462_N_1.432911_W_type:event_region:GB_source:enwiki" xr:uid="{D05E2BA8-0176-441E-A149-83A41A7F0F8F}"/>
+    <hyperlink ref="H122" r:id="rId119" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_12)&amp;params=52.126082_N_0.873735_W_type:event_region:GB_source:enwiki" xr:uid="{9DE9F709-6DA1-463C-8716-DB058C803713}"/>
+    <hyperlink ref="H123" r:id="rId120" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=52.423777_N_0.757779_W_type:event_region:GB_source:enwiki" xr:uid="{66890C65-24E0-4524-9661-EF33221FC386}"/>
+    <hyperlink ref="H124" r:id="rId121" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.832918_N_1.952569_W_type:event_region:GB_source:enwiki" xr:uid="{908A3866-DE37-4486-A665-491DF33DCAE8}"/>
+    <hyperlink ref="H125" r:id="rId122" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=53.487311_N_2.236522_W_type:event_region:GB_source:enwiki" xr:uid="{5AC30C47-9DFE-4BD6-A83F-74DD18819488}"/>
+    <hyperlink ref="H126" r:id="rId123" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.37374_N_0.376815_W_type:event_region:GB_source:enwiki" xr:uid="{B63B75E2-6B1E-4352-8ED2-E7E6A8B64A02}"/>
+    <hyperlink ref="H127" r:id="rId124" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=52.080317_N_5.023004_E_type:event_region:GB_source:enwiki" xr:uid="{6C89FE34-E841-40F2-9D6C-284D5541A1BE}"/>
+    <hyperlink ref="H128" r:id="rId125" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.256012_N_1.312794_E_type:event_region:GB_source:enwiki" xr:uid="{77143186-39D2-4666-83E6-E19DFC7C365F}"/>
+    <hyperlink ref="H129" r:id="rId126" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=54.062747_N_1.662743_W_type:event_region:GB_source:enwiki" xr:uid="{E9039ED2-8864-43BC-93E3-DC3DA0765AB2}"/>
+    <hyperlink ref="H130" r:id="rId127" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.416134_N_0.748727_E_type:event_region:GB_source:enwiki" xr:uid="{EE596A72-CAEC-4FB9-A1EE-403A71A26E0F}"/>
+    <hyperlink ref="H131" r:id="rId128" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=50.874978_N_0.443323_W_type:event_region:GB_source:enwiki" xr:uid="{ED8E739D-260A-4430-B73D-8E26089804A0}"/>
+    <hyperlink ref="H132" r:id="rId129" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.82505_N_1.232742_W_type:event_region:GB_source:enwiki" xr:uid="{D6351216-2154-41BB-B399-A84366E08776}"/>
+    <hyperlink ref="H133" r:id="rId130" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=53.090283_N_3.069603_W_type:event_region:GB_source:enwiki" xr:uid="{57B080FF-286D-4571-9F21-F4F940B851A1}"/>
+    <hyperlink ref="H134" r:id="rId131" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=51.0852_N_0.4046_W_type:event_region:GB_source:enwiki" xr:uid="{DB385543-D8EA-4102-AFB2-4919171EE2D5}"/>
+    <hyperlink ref="H135" r:id="rId132" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_13)&amp;params=57.43176_N_5.81387_W_type:event_region:GB_source:enwiki" xr:uid="{70CB7122-A44A-41E0-A69A-11A2BCE8EBAE}"/>
+    <hyperlink ref="H136" r:id="rId133" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=54.140615_N_4.552331_W_type:event_region:IM_source:enwiki" xr:uid="{5BAB4C40-BC16-4344-8A13-EED87FA19F26}"/>
+    <hyperlink ref="H137" r:id="rId134" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.28541_N_2.336253_W_type:event_region:GB_source:enwiki" xr:uid="{0D126803-DB55-4801-BD61-09331F1C20C9}"/>
+    <hyperlink ref="H138" r:id="rId135" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.800806_N_2.666475_W_type:event_region:GB_source:enwiki" xr:uid="{9FFB5A82-E6CC-4946-885A-59A0A541A8FF}"/>
+    <hyperlink ref="H139" r:id="rId136" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.405465_N_4.395224_W_type:event_region:GB_source:enwiki" xr:uid="{3628E664-345F-4FD7-B4CE-44C1AE0EDCA2}"/>
+    <hyperlink ref="H140" r:id="rId137" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.076135_N_1.130013_E_type:event_region:GB_source:enwiki" xr:uid="{2F34D8FD-12ED-4104-8DDB-8FFB075F9921}"/>
+    <hyperlink ref="H141" r:id="rId138" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=52.493863_N_0.27964_W_type:event_region:GB_source:enwiki" xr:uid="{41CE6330-CBE8-4EC4-B416-3AF5F1702EE4}"/>
+    <hyperlink ref="H142" r:id="rId139" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=52.04817_N_0.914954_W_type:event_region:GB_source:enwiki" xr:uid="{B2CA71AC-601F-453C-90B9-43FFDC90EE9D}"/>
+    <hyperlink ref="H143" r:id="rId140" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.396554_N_2.438536_W_type:event_region:GB_source:enwiki" xr:uid="{9715E1E2-43D5-4984-BD7B-566822CF092B}"/>
+    <hyperlink ref="H144" r:id="rId141" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.689403_N_3.295137_W_type:event_region:GB_source:enwiki" xr:uid="{7B5EE0DA-2E65-4B89-B907-3B51781C3F8F}"/>
+    <hyperlink ref="H145" r:id="rId142" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.688032_N_0.600434_W_type:event_region:GB_source:enwiki" xr:uid="{FE760A0B-1EAE-4842-BEF4-E06F9818394E}"/>
+    <hyperlink ref="H146" r:id="rId143" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=51.2401_N_0.0666_W_type:event_region:GB_source:enwiki" xr:uid="{59916BC1-6A3D-461B-A5F4-2DCED7CB09C5}"/>
+    <hyperlink ref="H147" r:id="rId144" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=53.125909_N_2.888253_W_type:event_region:GB_source:enwiki" xr:uid="{67110666-A0F5-4AEE-9018-29F1363E4313}"/>
+    <hyperlink ref="H148" r:id="rId145" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_14)&amp;params=50.603806_N_4.627464_W_type:event_region:GB_source:enwiki" xr:uid="{64BE10EE-22E0-44EA-831A-17DD05F0C6A3}"/>
+    <hyperlink ref="H149" r:id="rId146" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=53.045125_N_1.354947_W_type:event_region:GB_source:enwiki" xr:uid="{96E9879C-3179-4B33-9084-0AE0B57218CE}"/>
+    <hyperlink ref="H150" r:id="rId147" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.676036_N_1.674253_W_type:event_region:GB_source:enwiki" xr:uid="{A413C0B1-F758-43A5-AD6A-E61FA5F4A7E4}"/>
+    <hyperlink ref="H151" r:id="rId148" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=56.995162_N_7.509125_W_type:event_region:GB_source:enwiki" xr:uid="{760EB07C-E4C9-47A3-93CC-01C3F19B31FF}"/>
+    <hyperlink ref="H152" r:id="rId149" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=52.150658_N_0.95281_W_type:event_region:GB_source:enwiki" xr:uid="{D7FDCB56-9E43-4DE1-8279-6EFA36986229}"/>
+    <hyperlink ref="H153" r:id="rId150" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.835399_N_2.049679_W_type:event_region:GB_source:enwiki" xr:uid="{CFED07A5-FCD2-44E7-A22C-D39C0B2E5C20}"/>
+    <hyperlink ref="H154" r:id="rId151" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.470522_N_0.071049_E_type:event_region:GB_source:enwiki" xr:uid="{CE1A5AF1-3B75-4DE8-A4D1-53A9EEE9D355}"/>
+    <hyperlink ref="H155" r:id="rId152" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.356569_N_2.509777_W_type:event_region:GB_source:enwiki" xr:uid="{47CB33F1-437C-44F5-A645-E303D247AAD5}"/>
+    <hyperlink ref="H156" r:id="rId153" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=52.533367_N_0.908772_W_type:event_region:GB_source:enwiki" xr:uid="{D716027D-B457-40E7-B34A-1C86BD794515}"/>
+    <hyperlink ref="H157" r:id="rId154" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.5058_N_6.7674_W_type:event_region:GB_source:enwiki" xr:uid="{CD885551-C9E7-4CF9-87A6-9527FFEF3B8C}"/>
+    <hyperlink ref="H158" r:id="rId155" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=50.556811_N_4.951477_W_type:event_region:GB_source:enwiki" xr:uid="{53D65BC8-D6C3-4089-877A-254DA144E639}"/>
+    <hyperlink ref="H159" r:id="rId156" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=54.692457_N_1.840365_W_type:event_region:GB_source:enwiki" xr:uid="{D032CAA5-A974-425C-9141-8CAE2DDB26C3}"/>
+    <hyperlink ref="H160" r:id="rId157" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=53.336229_N_0.358506_W_type:event_region:GB_source:enwiki" xr:uid="{4A1F1AB4-0A6D-4BDA-87F3-FC6FE4152B6E}"/>
+    <hyperlink ref="H161" r:id="rId158" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_15)&amp;params=51.58904_N_2.725399_W_type:event_region:GB_source:enwiki" xr:uid="{CCBFC1FD-32F5-4EA0-92AA-B8969B371D5B}"/>
+    <hyperlink ref="H162" r:id="rId159" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.8193_N_0.4045_W_type:event_region:GB_source:enwiki" xr:uid="{B6CBA896-45CF-4C4D-A63D-D7ABDFFA2DB5}"/>
+    <hyperlink ref="H163" r:id="rId160" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.49173_N_1.91868_W_type:event_region:GB_source:enwiki" xr:uid="{FB28CFBD-AB09-4D2B-A97C-B6D567590D04}"/>
+    <hyperlink ref="H164" r:id="rId161" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.89111_N_5.905278_W_type:event_region:GB_source:enwiki" xr:uid="{21CF7FC8-9CE2-4E25-A842-A32F37A4B89B}"/>
+    <hyperlink ref="H165" r:id="rId162" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.6133_N_2.77_W_type:event_region:GB_source:enwiki" xr:uid="{1D707FE1-248E-419C-B223-6CB876986696}"/>
+    <hyperlink ref="H166" r:id="rId163" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.29789_N_2.35983_W_type:event_region:GB_source:enwiki" xr:uid="{371F8DE4-2762-4A40-BF07-D67F7939196A}"/>
+    <hyperlink ref="H167" r:id="rId164" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.064722_N_1.7975_W_type:event_region:GB_source:enwiki" xr:uid="{CEED60E9-48BB-4078-B183-F22C5DB6F194}"/>
+    <hyperlink ref="H168" r:id="rId165" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.693081_N_1.588644_W_type:event_region:GB_source:enwiki" xr:uid="{B67F0014-858A-4DD4-A63B-1DF2E8A8A078}"/>
+    <hyperlink ref="H169" r:id="rId166" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.23212_N_0.57711_W_type:event_region:GB_source:enwiki" xr:uid="{C1553507-8210-488E-BE8B-C8289F84B91F}"/>
+    <hyperlink ref="H170" r:id="rId167" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=50.34086_N_4.45412_W_type:event_region:GB_source:enwiki" xr:uid="{BA46BC26-911A-41E6-9B3A-DF3338654185}"/>
+    <hyperlink ref="H171" r:id="rId168" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=51.516448_N_0.11376_W_type:event_region:GB_source:enwiki" xr:uid="{195C5A43-AC13-425A-A6E8-9940726426D4}"/>
+    <hyperlink ref="H172" r:id="rId169" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.415706_N_0.028039_W_type:event_region:GB_source:enwiki" xr:uid="{B1F0F180-E158-4B11-8397-AA8407C698BA}"/>
+    <hyperlink ref="H173" r:id="rId170" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=54.549014_N_1.649417_W_type:event_region:GB_source:enwiki" xr:uid="{B42C6BCC-0CC0-4B38-801E-C1EF1D4C75E3}"/>
+    <hyperlink ref="H174" r:id="rId171" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_16)&amp;params=52.32183_N_1.5964_E_type:event_region:GB_source:enwiki" xr:uid="{4D0894CE-B831-43FE-A26A-B32B3DB251B0}"/>
+    <hyperlink ref="H175" r:id="rId172" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_29_58_N_0_07_39_W_region:GB_type:event" xr:uid="{2F46CD3F-3B7A-4E2B-90CD-DC8AE21DF74F}"/>
+    <hyperlink ref="H176" r:id="rId173" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=56_36_42_N_6_04_52_W_type:event_region:GB" xr:uid="{E2DF8B82-7EFD-41DB-A2B3-5DCE82545D47}"/>
+    <hyperlink ref="H177" r:id="rId174" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=54_32_7_N_1_40_28_W_type:event_region:GB" xr:uid="{FBB978A2-ED0D-41F6-8D81-5BA8BCD240AA}"/>
+    <hyperlink ref="H178" r:id="rId175" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_38_23_N_1_17_43_W_type:event_region:GB" xr:uid="{D40AF63A-FCE5-4C93-A95A-FD534693D201}"/>
+    <hyperlink ref="H179" r:id="rId176" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_23_45_N_2_55_54_W_type:event_region:GB" xr:uid="{9E10B6FF-6B77-41A2-9AF5-3A6CFEB326F1}"/>
+    <hyperlink ref="H180" r:id="rId177" tooltip="Tobermory, Mull" display="https://en.wikipedia.org/wiki/Tobermory,_Mull" xr:uid="{EF654C5A-507E-406A-B951-A44CE74B5CF7}"/>
+    <hyperlink ref="H184" r:id="rId178" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=51_48_28_N_1_38_13_W_type:event_region:GB" xr:uid="{07BABD06-DBBC-4936-B6DC-1ADF3510C68B}"/>
+    <hyperlink ref="H183" r:id="rId179" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=50_47_19_N_1_06_11_W_type:event_region:GB" xr:uid="{72E5B1FA-75C1-470F-9900-6E9042BD2501}"/>
+    <hyperlink ref="H185" r:id="rId180" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_03_57_N_0_05_14_W_type:event_region:GB" xr:uid="{0631D485-D2A6-4823-91E4-BE0E80977E94}"/>
+    <hyperlink ref="H186" r:id="rId181" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_09_39_N_2_42_04_W_type:event_region:GB" xr:uid="{2E062A3E-167C-47F8-8C90-DB9BE7501B74}"/>
+    <hyperlink ref="H187" r:id="rId182" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_17)&amp;params=52_35_13_N_00_27_35_W_type:event_region:GB" xr:uid="{F61C6037-AAC1-4F49-BB2E-B249E03C5256}"/>
+    <hyperlink ref="H188" r:id="rId183" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=50_38_9.6_N_3_40_58.8_W_region:GB_type:event" xr:uid="{5F7E914F-059B-4FC9-9436-2F5084F61555}"/>
+    <hyperlink ref="H189" r:id="rId184" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_31_33_N_0_56_24_W_type:event_region:GB" xr:uid="{C709E3EF-CBDD-4E0A-BD45-3033E248A244}"/>
+    <hyperlink ref="H190" r:id="rId185" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_3_42_N_2_49_35_W_type:event_region:GB" xr:uid="{00395ADD-DAC8-4B83-AA91-63E5C4790B5E}"/>
+    <hyperlink ref="H191" r:id="rId186" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=49_12_35_N_2_9_36_W_type:event_region:GB" xr:uid="{77600EA1-A710-490B-A184-D86D8CCF0650}"/>
+    <hyperlink ref="H192" r:id="rId187" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=54_54_14_N_1_47_50_W_type:event_region:GB" xr:uid="{8B595EA3-26D2-4D6B-AD9E-0B271A2D2EDC}"/>
+    <hyperlink ref="H193" r:id="rId188" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_34_22_N_0_20_34_W_type:event_region:GB" xr:uid="{FDAEB5B4-9296-4159-945A-0A75E153EE47}"/>
+    <hyperlink ref="H194" r:id="rId189" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=52_39_50_N_1_13_37_W_type:event_region:GB" xr:uid="{4EC0BAA2-813A-45CB-B288-13A18F3950BA}"/>
+    <hyperlink ref="H195" r:id="rId190" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=49_11_58_N_2_1_10_W_type:event_region:GB" xr:uid="{953797CF-4AA0-4B50-A6E0-9A0925418A61}"/>
+    <hyperlink ref="H196" r:id="rId191" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_39_41_N_3_16_53_W_type:event_region:GB" xr:uid="{19B0109D-B17A-4720-9A6F-E61DB5151938}"/>
+    <hyperlink ref="H197" r:id="rId192" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_18)&amp;params=51_3_3_N_2_21_49_W_type:event_region:GB" xr:uid="{91448891-B3B9-4098-AF98-A86D5035F444}"/>
+    <hyperlink ref="H198" r:id="rId193" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_43_10_N_5_13_50_W_region:GB_type:landmark" xr:uid="{EAFC7098-85BE-4B46-9157-17A893720BFD}"/>
+    <hyperlink ref="H199" r:id="rId194" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_23_29_N_2_37_56_W_type:isle_region:GB" xr:uid="{9FA70E31-4772-4D94-A069-265489F55DDB}"/>
+    <hyperlink ref="H200" r:id="rId195" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_16_34_N_1_37_48_E_type:isle_region:GB" xr:uid="{EC5FAF86-E99E-4676-A29F-D57C2502050F}"/>
+    <hyperlink ref="H201" r:id="rId196" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=52_14_38_N_0_24_26_E_type:isle_region:GB" xr:uid="{F72E5F21-E5A4-434D-AD4E-A7F74E12C429}"/>
+    <hyperlink ref="H202" r:id="rId197" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=55_33_04_N_1_37_18_W_type:isle_region:GB" xr:uid="{7E82B80D-D935-40F1-80C4-8092745EBB31}"/>
+    <hyperlink ref="H203" r:id="rId198" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_38_02_N_3_55_59_W_type:isle_region:GB" xr:uid="{695CB204-E02D-4569-BA81-BE208F99C80C}"/>
+    <hyperlink ref="H204" r:id="rId199" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_55_36_N_0_42_36_E_type:isle_region:GB" xr:uid="{D6A06800-6C16-4762-8C3B-95A8A9D1F276}"/>
+    <hyperlink ref="H205" r:id="rId200" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_31_44_N_3_43_44_W_type:isle_region:GB" xr:uid="{1EE16BDA-A439-4043-A178-BA43A95FEF4A}"/>
+    <hyperlink ref="H206" r:id="rId201" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=51_36_24_N_2_57_58_W_type:isle_region:GB" xr:uid="{D9815855-4990-4E07-AF27-BAC16C57CB96}"/>
+    <hyperlink ref="H207" r:id="rId202" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=50_53_32_N_2_49_29_W_type:isle_region:GB" xr:uid="{1DA32667-CAE9-469F-A8DA-358213E0A9A2}"/>
+    <hyperlink ref="H208" r:id="rId203" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_19)&amp;params=53_10_36_N_1_05_56_W_type:isle_region:GB" xr:uid="{674A8647-403D-47AE-BBF9-D05694274744}"/>
+    <hyperlink ref="H211" r:id="rId204" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_55_53_N_0_36_50_W_region:GB_type:landmark_dim:3000&amp;title=Belton+Park%2C+Lincolnshire" xr:uid="{9498F5BB-6B4A-440E-9BE2-C34831DF4838}"/>
+    <hyperlink ref="H212" r:id="rId205" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_57_50_N_0_39_07_E_region:GB_type:landmark&amp;title=Brancaster+Roman+fort+%28Branodunum%29" xr:uid="{079F5D2D-22AB-4BDB-8C24-F6D50E9803EE}"/>
+    <hyperlink ref="H213" r:id="rId206" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_28_02_N_3_14_55_W_region:GB_type:landmark&amp;title=Caerau+Hill%2C+Wales" xr:uid="{32DC44FC-23D7-454F-935A-12C326140901}"/>
+    <hyperlink ref="H214" r:id="rId207" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_20_30_N_1_36_4_E_region:GB_type:landmark&amp;title=Henham+Park" xr:uid="{2D04AB2E-F015-403A-A996-59E1F1A08D08}"/>
+    <hyperlink ref="H215" r:id="rId208" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_13_16_N_1_45_51_W_region:GB_type:landmark&amp;title=Barrow+Clump%2C+Wiltshire" xr:uid="{D5E6EE38-68EE-47C6-88B2-2BAA3008DF2C}"/>
+    <hyperlink ref="H216" r:id="rId209" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=54_22_52_N_3_6_11_W_region:GB_type:landmark&amp;title=Coniston+Fells" xr:uid="{9F36C68B-3E0E-4C15-8988-83505770F42B}"/>
+    <hyperlink ref="H217" r:id="rId210" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=52_40_15_N_0_43_39_W_region:GB_type:landmark&amp;title=Oakham+Castle" xr:uid="{76FF479B-E226-4007-B307-A128D3DA32A9}"/>
+    <hyperlink ref="H218" r:id="rId211" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_38_30_N_1_17_14_W_region:GB_type:landmark&amp;title=Dropshort+Roman+Villa" xr:uid="{13DF9CEA-47B2-42BD-8ABC-F1C141B8CD7F}"/>
+    <hyperlink ref="H219" r:id="rId212" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=54_15_43_N_5_50_41_W_region:GB_type:landmark&amp;title=Dundrum+Castle" xr:uid="{110C344D-485C-4AE3-8F6A-82E3A162A5C5}"/>
+    <hyperlink ref="H220" r:id="rId213" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_38_02_N_0_26_14_W_region:GB_type:landmark&amp;title=Northwood+Prep+School" xr:uid="{7AC5FB9E-1443-4231-A34B-B435CD1D9032}"/>
+    <hyperlink ref="H221" r:id="rId214" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(series_20)&amp;params=51_42_25_N_4_52_07_W_region:GB_type:landmark&amp;title=Upton+Castle" xr:uid="{A6F47666-4642-4F9E-8B1C-4A2BD2C6D040}"/>
+    <hyperlink ref="H224" r:id="rId215" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.59603_N_2.55719_W_type:event_region:GB_source:enwiki&amp;title=Much+Wenlock+Guildhall" xr:uid="{CB4B6236-CAC2-4E73-A51A-DEC2AE74390E}"/>
+    <hyperlink ref="H225" r:id="rId216" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.961241_N_1.082367_W_type:event_region:GB_source:enwiki&amp;title=Barley+Hall" xr:uid="{8E930152-E110-414A-9DFE-8BA341ACEE0C}"/>
+    <hyperlink ref="H226" r:id="rId217" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.967997_N_0.518536_E_type:event_region:GB_source:enwiki&amp;title=Seahenge" xr:uid="{44FF7516-2112-4243-B5F9-FA3B680AE27F}"/>
+    <hyperlink ref="H227" r:id="rId218" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.667974_N_4.759928_W_type:event_region:GB_source:enwiki&amp;title=Tintagel" xr:uid="{0E87F7DA-9EF9-41A5-9584-78276B99568E}"/>
+    <hyperlink ref="H228" r:id="rId219" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=58.9384_N_2.851794_W_type:event_region:GB_source:enwiki&amp;title=Mine+Howe" xr:uid="{9BDB22ED-A48D-4557-95D7-EE6261373EF3}"/>
+    <hyperlink ref="H229" r:id="rId220" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.409_N_1.508833_W_type:event_region:GB_source:enwiki&amp;title=St.+Mary%27s+Priory+and+Cathedral" xr:uid="{BDA4F0B1-74D9-47FE-80C3-AA3A5D27C2E1}"/>
+    <hyperlink ref="H230" r:id="rId221" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52.395086_N_0.267727_E_type:event_region:GB_source:enwiki&amp;title=Island+of+the+Eels" xr:uid="{1B10D670-C7B0-4F3F-94DB-F264F7EC2D73}"/>
+    <hyperlink ref="H231" r:id="rId222" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=47.811155_N_112.182327_W_type:event_region:US-MT_source:enwiki&amp;title=Dinosaur+Hunting" xr:uid="{3EF35A51-0EE2-4A7D-8CEE-71A4754299B2}"/>
+    <hyperlink ref="H232" r:id="rId223" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.277013_N_1.081759_E_type:event_region:GB_source:enwiki&amp;title=Canterbury" xr:uid="{F9DF95D2-9984-4D68-B89A-9055AEFEE4C4}"/>
+    <hyperlink ref="H233" r:id="rId224" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.514915_N_0.093061_W_type:event_region:GB_source:enwiki&amp;title=Londinium" xr:uid="{584A21F9-AA43-424C-99EC-30973C438629}"/>
+    <hyperlink ref="H234" r:id="rId225" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=49.935975_N_6.322117_W_type:event_region:GB_source:enwiki&amp;title=HMS+Colossus" xr:uid="{B59877FE-989B-4ACB-908F-51CAE713F8D5}"/>
+    <hyperlink ref="H235" r:id="rId226" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.514915_N_0.093061_W_type:event_region:GB_source:enwiki&amp;title=Londinium" xr:uid="{43E3062E-EFBF-4A04-9C82-8EBBFC2BBA6F}"/>
+    <hyperlink ref="H237" r:id="rId227" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.385858_N_1.465609_W_type:event_region:GB_source:enwiki" xr:uid="{4EA5EEB2-EDE9-45C1-918F-E101D0C45C3F}"/>
+    <hyperlink ref="H238" r:id="rId228" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=56.57194_N_4.082767_W_type:event_region:GB_source:enwiki&amp;title=Crannog+in+loch" xr:uid="{9158595E-88BC-4A08-9E46-780435A4BE07}"/>
+    <hyperlink ref="H239" r:id="rId229" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.258473_N_0.269655_E_type:event_region:GB_source:enwiki&amp;title=Ten+Million+Pound+House" xr:uid="{1F9B71A9-1C9D-4DFB-825A-623656B6CABD}"/>
+    <hyperlink ref="H240" r:id="rId230" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=49.324187_N_0.595621_W_type:event_region:FR_source:enwiki&amp;title=D-Day" xr:uid="{8ED7E5BE-FAA8-4CCB-A763-270BEF1F8EF5}"/>
+    <hyperlink ref="H241" r:id="rId231" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.553514_N_0.708365_E_type:event_region:GB_source:enwiki&amp;title=Prittlewell" xr:uid="{EF5B103D-78CD-475F-922A-6B6A1D494B43}"/>
+    <hyperlink ref="H242" r:id="rId232" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.883429_N_0.896732_E_type:event_region:GB_source:enwiki&amp;title=Camulodunum" xr:uid="{643C208C-D9B6-4E2D-AE63-F70042584F79}"/>
+    <hyperlink ref="H243" r:id="rId233" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.229263_N_0.440213_W_type:event_region:GB_source:enwiki&amp;title=Washingborough" xr:uid="{9759E808-55E1-4904-852B-6F531BCE2876}"/>
+    <hyperlink ref="H244" r:id="rId234" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.191838_N_1.783245_W_type:event_region:GB_source:enwiki&amp;title=Durrington+Walls" xr:uid="{022065B4-35A1-43D7-88B2-53857145CFDA}"/>
+    <hyperlink ref="H245" r:id="rId235" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.918038_N_2.849563_W_" xr:uid="{E1C3BC63-2A2C-400C-A81E-797010F34F09}"/>
+    <hyperlink ref="H246" r:id="rId236" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.534794_N_0.087354_W_" xr:uid="{E828E876-E6AE-4A00-8BD9-DBC60E6C3E06}"/>
+    <hyperlink ref="H248" r:id="rId237" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.328172_N_1.409773_E_type:event_region:GB_source:enwiki&amp;title=Pugin" xr:uid="{084C05CF-55A4-4007-83F2-11D3E8BCD066}"/>
+    <hyperlink ref="H250" r:id="rId238" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=37.210397_N_76.780618_W_type:event_region:US-VA_source:enwiki&amp;title=Jamestown" xr:uid="{55CD8B3C-0407-411B-9854-14C6D66B0088}"/>
+    <hyperlink ref="H251" r:id="rId239" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51_21_54_N_2_20_40_W_" xr:uid="{E938EF82-13EA-4941-9A15-FEC91E027E72}"/>
+    <hyperlink ref="H252" r:id="rId240" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=54.233_N_1.343_W_" xr:uid="{ECE31F21-12FC-4BB7-BC3F-0208B87368BD}"/>
+    <hyperlink ref="H253" r:id="rId241" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.483333_N_0.604167_W_" xr:uid="{AFCBD3BF-1866-4352-A527-3B003926CC8E}"/>
+    <hyperlink ref="H254" r:id="rId242" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=53.40303_N_2.988416_W_type:event_region:GB_source:enwiki&amp;title=The+Lost+Dock+of+Liverpool" xr:uid="{C75123DE-29C9-4A2E-979F-555662F46C33}"/>
+    <hyperlink ref="H256" r:id="rId243" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.872053_N_2.959452_E_type:event_region:BE_source:enwiki&amp;title=Lost+WW1+Dugout" xr:uid="{FA88347C-7F66-4194-8059-AC81135B5EF0}"/>
+    <hyperlink ref="H259" r:id="rId244" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.178889_N_1.826111_W_type:event_region:BE_source:enwiki&amp;title=Stonehenge" xr:uid="{7880511E-B532-471D-8321-78DD7A74E459}"/>
+    <hyperlink ref="H260" r:id="rId245" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=51.129628_N_1.321437_E_type:event_region:GB_source:enwiki&amp;title=Dover+Castle" xr:uid="{E7E25E5E-B323-4BA6-AA2C-0F7C1762B594}"/>
+    <hyperlink ref="H261" r:id="rId246" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=50.786_N_1.124_W_region:GB_scale:5000&amp;title=Royal+Hospital+Haslar" xr:uid="{6CCDF7D3-9D79-4DB4-A74E-FF4FF6687DE1}"/>
+    <hyperlink ref="H266" r:id="rId247" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=55_36_14_N_1_43_19_W_type:event_region:GB" xr:uid="{35F78DD8-6D21-4F62-81DD-D95E581233F3}"/>
+    <hyperlink ref="H271" r:id="rId248" display="https://geohack.toolforge.org/geohack.php?pagename=Time_Team_(specials)&amp;params=52_11_26_N_1_42_27_W_type:event_region:GB" xr:uid="{7AAD1886-F46B-4320-A11D-666F66173C76}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId272"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId249"/>
   <tableParts count="1">
-    <tablePart r:id="rId273"/>
+    <tablePart r:id="rId250"/>
   </tableParts>
 </worksheet>
 </file>